--- a/Meta_1_finito_aggiornato .xlsx
+++ b/Meta_1_finito_aggiornato .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simoc\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simoc\OneDrive\Desktop\Projeck_work_immobiliari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC85959-E672-462A-A884-5AB915150DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A88006-2261-4412-88D3-28E212F453B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="343">
   <si>
     <t>Piattaforma</t>
   </si>
@@ -962,6 +962,111 @@
   </si>
   <si>
     <t>Adv/incassTot</t>
+  </si>
+  <si>
+    <t>Capo Cantiere</t>
+  </si>
+  <si>
+    <t>Marco Bianchi</t>
+  </si>
+  <si>
+    <t>Laura Rossi</t>
+  </si>
+  <si>
+    <t>Alessandro Ferrari</t>
+  </si>
+  <si>
+    <t>Giulia Conti</t>
+  </si>
+  <si>
+    <t>Francesco Esposito</t>
+  </si>
+  <si>
+    <t>Martina Ricci</t>
+  </si>
+  <si>
+    <t>Luca Moretti</t>
+  </si>
+  <si>
+    <t>Elena Romano</t>
+  </si>
+  <si>
+    <t>Matteo Gallo</t>
+  </si>
+  <si>
+    <t>Sara De Luca</t>
+  </si>
+  <si>
+    <t>Andrea Costa</t>
+  </si>
+  <si>
+    <t>Chiara Barbieri</t>
+  </si>
+  <si>
+    <t>Marco Greco</t>
+  </si>
+  <si>
+    <t>Federica Rizzo</t>
+  </si>
+  <si>
+    <t>Stefano Lombardi</t>
+  </si>
+  <si>
+    <t>Francesca Colombo</t>
+  </si>
+  <si>
+    <t>Davide Fontana</t>
+  </si>
+  <si>
+    <t>Alessia Mariani</t>
+  </si>
+  <si>
+    <t>Simone Caruso</t>
+  </si>
+  <si>
+    <t>Valentina Fabbri</t>
+  </si>
+  <si>
+    <t>Lorenzo De Angelis</t>
+  </si>
+  <si>
+    <t>Eleonora Sorrentino</t>
+  </si>
+  <si>
+    <t>Antonio Martini</t>
+  </si>
+  <si>
+    <t>Roberta Parisi</t>
+  </si>
+  <si>
+    <t>Daniele Fiore</t>
+  </si>
+  <si>
+    <t>Marta Vitali</t>
+  </si>
+  <si>
+    <t>Fabio Pellegrini</t>
+  </si>
+  <si>
+    <t>Claudia De Santis</t>
+  </si>
+  <si>
+    <t>Riccardo Marchesi</t>
+  </si>
+  <si>
+    <t>Serena Monti</t>
+  </si>
+  <si>
+    <t>Gabriele Gentile</t>
+  </si>
+  <si>
+    <t>Anna De Rosa</t>
+  </si>
+  <si>
+    <t>Michele Romano</t>
+  </si>
+  <si>
+    <t>Elisa Grassi</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1399,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="I114" sqref="I113:I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1303,7 +1408,9 @@
     <col min="2" max="2" width="10.86328125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10.1328125" customWidth="1"/>
-    <col min="5" max="14" width="8.86328125" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="8.86328125" customWidth="1"/>
     <col min="15" max="15" width="20.53125" customWidth="1"/>
     <col min="16" max="25" width="8.86328125" customWidth="1"/>
   </cols>
@@ -7510,20 +7617,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC67A079-19C2-4A59-86D6-8CF4CE5C5C4D}">
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="14" max="14" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>273</v>
       </c>
@@ -7534,46 +7645,49 @@
         <v>274</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -7584,13 +7698,13 @@
         <v>21</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>288</v>
@@ -7599,31 +7713,34 @@
         <v>288</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>13</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>89</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>1157</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>4972</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>442508</v>
       </c>
-      <c r="P2" s="7">
+      <c r="Q2" s="7">
         <v>5752604</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -7634,46 +7751,49 @@
         <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>288</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>18</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>112</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>2016</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O3" s="7">
         <v>4035</v>
       </c>
-      <c r="O3" s="7">
+      <c r="P3" s="7">
         <v>451920</v>
       </c>
-      <c r="P3" s="7">
+      <c r="Q3" s="7">
         <v>8134560</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -7684,46 +7804,49 @@
         <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="I4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>13</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>129</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>1677</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N4" s="7">
+      <c r="O4" s="7">
         <v>2170</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="7">
         <v>279930</v>
       </c>
-      <c r="P4" s="7">
+      <c r="Q4" s="7">
         <v>3639090</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -7734,46 +7857,49 @@
         <v>41</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="I5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>13</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <v>89</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <v>1157</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O5" s="7">
         <v>3468</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <v>308652</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="7">
         <v>4012476</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>44</v>
       </c>
@@ -7784,46 +7910,49 @@
         <v>46</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G6" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="I6" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>11</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>95</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>1045</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>4487</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>426265</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="7">
         <v>4688915</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
@@ -7834,46 +7963,49 @@
         <v>50</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>288</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>6</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>106</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>636</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>4271</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>452726</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <v>2716356</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
@@ -7884,14 +8016,14 @@
         <v>54</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G8" s="7" t="s">
         <v>292</v>
       </c>
@@ -7899,31 +8031,34 @@
         <v>292</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>22</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <v>122</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>2684</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N8" s="7">
+      <c r="O8" s="7">
         <v>3161</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <v>385642</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <v>8484124</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
@@ -7934,46 +8069,49 @@
         <v>58</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H9" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>19</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <v>133</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>2527</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N9" s="7">
+      <c r="O9" s="7">
         <v>4460</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>593180</v>
       </c>
-      <c r="P9" s="7">
+      <c r="Q9" s="7">
         <v>11270420</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
@@ -7984,13 +8122,13 @@
         <v>62</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>288</v>
@@ -7999,31 +8137,34 @@
         <v>288</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>16</v>
       </c>
-      <c r="K10" s="7">
+      <c r="L10" s="7">
         <v>82</v>
       </c>
-      <c r="L10" s="7">
+      <c r="M10" s="7">
         <v>1312</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N10" s="7">
+      <c r="O10" s="7">
         <v>4802</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <v>393764</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="7">
         <v>6300224</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>65</v>
       </c>
@@ -8034,46 +8175,49 @@
         <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H11" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>6</v>
       </c>
-      <c r="K11" s="7">
+      <c r="L11" s="7">
         <v>117</v>
       </c>
-      <c r="L11" s="7">
+      <c r="M11" s="7">
         <v>702</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N11" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N11" s="7">
+      <c r="O11" s="7">
         <v>4986</v>
       </c>
-      <c r="O11" s="7">
+      <c r="P11" s="7">
         <v>583362</v>
       </c>
-      <c r="P11" s="7">
+      <c r="Q11" s="7">
         <v>3500172</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
@@ -8084,46 +8228,49 @@
         <v>70</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G12" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <v>23</v>
       </c>
-      <c r="K12" s="7">
+      <c r="L12" s="7">
         <v>121</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>2783</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N12" s="7">
+      <c r="O12" s="7">
         <v>2997</v>
       </c>
-      <c r="O12" s="7">
+      <c r="P12" s="7">
         <v>362637</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="7">
         <v>8340651</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -8134,13 +8281,13 @@
         <v>74</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>288</v>
@@ -8149,31 +8296,34 @@
         <v>288</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>14</v>
       </c>
-      <c r="K13" s="7">
+      <c r="L13" s="7">
         <v>102</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M13" s="7">
         <v>1428</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N13" s="7">
+      <c r="O13" s="7">
         <v>3686</v>
       </c>
-      <c r="O13" s="7">
+      <c r="P13" s="7">
         <v>375972</v>
       </c>
-      <c r="P13" s="7">
+      <c r="Q13" s="7">
         <v>5263608</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>77</v>
       </c>
@@ -8184,46 +8334,49 @@
         <v>78</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H14" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>14</v>
       </c>
-      <c r="K14" s="7">
+      <c r="L14" s="7">
         <v>110</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="7">
         <v>1540</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N14" s="7">
+      <c r="O14" s="7">
         <v>2770</v>
       </c>
-      <c r="O14" s="7">
+      <c r="P14" s="7">
         <v>304700</v>
       </c>
-      <c r="P14" s="7">
+      <c r="Q14" s="7">
         <v>4265800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>81</v>
       </c>
@@ -8234,46 +8387,49 @@
         <v>82</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>288</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <v>16</v>
       </c>
-      <c r="K15" s="7">
+      <c r="L15" s="7">
         <v>88</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>1408</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N15" s="7">
+      <c r="O15" s="7">
         <v>2796</v>
       </c>
-      <c r="O15" s="7">
+      <c r="P15" s="7">
         <v>246048</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Q15" s="7">
         <v>3936768</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>85</v>
       </c>
@@ -8284,46 +8440,49 @@
         <v>86</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>288</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J16" s="7">
+      <c r="K16" s="7">
         <v>24</v>
       </c>
-      <c r="K16" s="7">
+      <c r="L16" s="7">
         <v>125</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>3000</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N16" s="7">
+      <c r="O16" s="7">
         <v>4184</v>
       </c>
-      <c r="O16" s="7">
+      <c r="P16" s="7">
         <v>523000</v>
       </c>
-      <c r="P16" s="7">
+      <c r="Q16" s="7">
         <v>12552000</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>89</v>
       </c>
@@ -8334,46 +8493,49 @@
         <v>90</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H17" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J17" s="7">
+      <c r="K17" s="7">
         <v>16</v>
       </c>
-      <c r="K17" s="7">
+      <c r="L17" s="7">
         <v>93</v>
       </c>
-      <c r="L17" s="7">
+      <c r="M17" s="7">
         <v>1488</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="N17" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N17" s="7">
+      <c r="O17" s="7">
         <v>2378</v>
       </c>
-      <c r="O17" s="7">
+      <c r="P17" s="7">
         <v>221154</v>
       </c>
-      <c r="P17" s="7">
+      <c r="Q17" s="7">
         <v>3538464</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>92</v>
       </c>
@@ -8384,14 +8546,14 @@
         <v>93</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G18" s="7" t="s">
         <v>292</v>
       </c>
@@ -8399,31 +8561,34 @@
         <v>292</v>
       </c>
       <c r="I18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J18" s="7">
+      <c r="K18" s="7">
         <v>17</v>
       </c>
-      <c r="K18" s="7">
+      <c r="L18" s="7">
         <v>113</v>
       </c>
-      <c r="L18" s="7">
+      <c r="M18" s="7">
         <v>1921</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="N18" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N18" s="7">
+      <c r="O18" s="7">
         <v>4027</v>
       </c>
-      <c r="O18" s="7">
+      <c r="P18" s="7">
         <v>455051</v>
       </c>
-      <c r="P18" s="7">
+      <c r="Q18" s="7">
         <v>7735867</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>95</v>
       </c>
@@ -8434,46 +8599,49 @@
         <v>96</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>288</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>22</v>
       </c>
-      <c r="K19" s="7">
+      <c r="L19" s="7">
         <v>93</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M19" s="7">
         <v>2046</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="N19" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N19" s="7">
+      <c r="O19" s="7">
         <v>4042</v>
       </c>
-      <c r="O19" s="7">
+      <c r="P19" s="7">
         <v>375906</v>
       </c>
-      <c r="P19" s="7">
+      <c r="Q19" s="7">
         <v>8269932</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>98</v>
       </c>
@@ -8484,13 +8652,13 @@
         <v>99</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>288</v>
@@ -8499,31 +8667,34 @@
         <v>288</v>
       </c>
       <c r="I20" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K20" s="7">
         <v>9</v>
       </c>
-      <c r="K20" s="7">
+      <c r="L20" s="7">
         <v>145</v>
       </c>
-      <c r="L20" s="7">
+      <c r="M20" s="7">
         <v>1305</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="N20" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N20" s="7">
+      <c r="O20" s="7">
         <v>3731</v>
       </c>
-      <c r="O20" s="7">
+      <c r="P20" s="7">
         <v>540995</v>
       </c>
-      <c r="P20" s="7">
+      <c r="Q20" s="7">
         <v>4868955</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>101</v>
       </c>
@@ -8534,13 +8705,13 @@
         <v>102</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>288</v>
@@ -8549,31 +8720,34 @@
         <v>288</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K21" s="7">
         <v>16</v>
       </c>
-      <c r="K21" s="7">
+      <c r="L21" s="7">
         <v>108</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M21" s="7">
         <v>1728</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="N21" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O21" s="7">
         <v>4406</v>
       </c>
-      <c r="O21" s="7">
+      <c r="P21" s="7">
         <v>475848</v>
       </c>
-      <c r="P21" s="7">
+      <c r="Q21" s="7">
         <v>7613568</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>104</v>
       </c>
@@ -8584,46 +8758,49 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
         <v>12</v>
       </c>
-      <c r="K22" s="7">
+      <c r="L22" s="7">
         <v>86</v>
       </c>
-      <c r="L22" s="7">
+      <c r="M22" s="7">
         <v>1032</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N22" s="7">
+      <c r="O22" s="7">
         <v>2139</v>
       </c>
-      <c r="O22" s="7">
+      <c r="P22" s="7">
         <v>183954</v>
       </c>
-      <c r="P22" s="7">
+      <c r="Q22" s="7">
         <v>2207448</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>106</v>
       </c>
@@ -8634,46 +8811,49 @@
         <v>70</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H23" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J23" s="7">
+      <c r="K23" s="7">
         <v>6</v>
       </c>
-      <c r="K23" s="7">
+      <c r="L23" s="7">
         <v>116</v>
       </c>
-      <c r="L23" s="7">
+      <c r="M23" s="7">
         <v>696</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="N23" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N23" s="7">
+      <c r="O23" s="7">
         <v>3609</v>
       </c>
-      <c r="O23" s="7">
+      <c r="P23" s="7">
         <v>418644</v>
       </c>
-      <c r="P23" s="7">
+      <c r="Q23" s="7">
         <v>2511864</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>108</v>
       </c>
@@ -8684,13 +8864,13 @@
         <v>41</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>288</v>
@@ -8699,31 +8879,34 @@
         <v>288</v>
       </c>
       <c r="I24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J24" s="7">
+      <c r="K24" s="7">
         <v>9</v>
       </c>
-      <c r="K24" s="7">
+      <c r="L24" s="7">
         <v>121</v>
       </c>
-      <c r="L24" s="7">
+      <c r="M24" s="7">
         <v>1089</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="N24" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N24" s="7">
+      <c r="O24" s="7">
         <v>3910</v>
       </c>
-      <c r="O24" s="7">
+      <c r="P24" s="7">
         <v>473110</v>
       </c>
-      <c r="P24" s="7">
+      <c r="Q24" s="7">
         <v>4257990</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>110</v>
       </c>
@@ -8734,46 +8917,49 @@
         <v>21</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>288</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J25" s="7">
+      <c r="K25" s="7">
         <v>12</v>
       </c>
-      <c r="K25" s="7">
+      <c r="L25" s="7">
         <v>95</v>
       </c>
-      <c r="L25" s="7">
+      <c r="M25" s="7">
         <v>1140</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="N25" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N25" s="7">
+      <c r="O25" s="7">
         <v>4572</v>
       </c>
-      <c r="O25" s="7">
+      <c r="P25" s="7">
         <v>434340</v>
       </c>
-      <c r="P25" s="7">
+      <c r="Q25" s="7">
         <v>5212080</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>112</v>
       </c>
@@ -8784,46 +8970,49 @@
         <v>36</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>288</v>
       </c>
       <c r="I26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J26" s="7">
+      <c r="K26" s="7">
         <v>8</v>
       </c>
-      <c r="K26" s="7">
+      <c r="L26" s="7">
         <v>134</v>
       </c>
-      <c r="L26" s="7">
+      <c r="M26" s="7">
         <v>1072</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="N26" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N26" s="7">
+      <c r="O26" s="7">
         <v>3637</v>
       </c>
-      <c r="O26" s="7">
+      <c r="P26" s="7">
         <v>487358</v>
       </c>
-      <c r="P26" s="7">
+      <c r="Q26" s="7">
         <v>3898864</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>114</v>
       </c>
@@ -8834,46 +9023,49 @@
         <v>58</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H27" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J27" s="7">
+      <c r="K27" s="7">
         <v>12</v>
       </c>
-      <c r="K27" s="7">
+      <c r="L27" s="7">
         <v>125</v>
       </c>
-      <c r="L27" s="7">
+      <c r="M27" s="7">
         <v>1500</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="N27" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N27" s="7">
+      <c r="O27" s="7">
         <v>2740</v>
       </c>
-      <c r="O27" s="7">
+      <c r="P27" s="7">
         <v>342500</v>
       </c>
-      <c r="P27" s="7">
+      <c r="Q27" s="7">
         <v>4110000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>116</v>
       </c>
@@ -8884,14 +9076,14 @@
         <v>46</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G28" s="7" t="s">
         <v>292</v>
       </c>
@@ -8899,31 +9091,34 @@
         <v>292</v>
       </c>
       <c r="I28" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J28" s="7">
+      <c r="K28" s="7">
         <v>14</v>
       </c>
-      <c r="K28" s="7">
+      <c r="L28" s="7">
         <v>119</v>
       </c>
-      <c r="L28" s="7">
+      <c r="M28" s="7">
         <v>1666</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="N28" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N28" s="7">
+      <c r="O28" s="7">
         <v>4863</v>
       </c>
-      <c r="O28" s="7">
+      <c r="P28" s="7">
         <v>578697</v>
       </c>
-      <c r="P28" s="7">
+      <c r="Q28" s="7">
         <v>8101758</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>118</v>
       </c>
@@ -8934,46 +9129,49 @@
         <v>86</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H29" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J29" s="7">
+      <c r="K29" s="7">
         <v>15</v>
       </c>
-      <c r="K29" s="7">
+      <c r="L29" s="7">
         <v>87</v>
       </c>
-      <c r="L29" s="7">
+      <c r="M29" s="7">
         <v>1305</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="N29" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N29" s="7">
+      <c r="O29" s="7">
         <v>3399</v>
       </c>
-      <c r="O29" s="7">
+      <c r="P29" s="7">
         <v>295713</v>
       </c>
-      <c r="P29" s="7">
+      <c r="Q29" s="7">
         <v>4435695</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>120</v>
       </c>
@@ -8984,46 +9182,49 @@
         <v>54</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G30" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H30" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J30" s="7">
+      <c r="K30" s="7">
         <v>6</v>
       </c>
-      <c r="K30" s="7">
+      <c r="L30" s="7">
         <v>122</v>
       </c>
-      <c r="L30" s="7">
+      <c r="M30" s="7">
         <v>732</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="N30" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N30" s="7">
+      <c r="O30" s="7">
         <v>4754</v>
       </c>
-      <c r="O30" s="7">
+      <c r="P30" s="7">
         <v>579988</v>
       </c>
-      <c r="P30" s="7">
+      <c r="Q30" s="7">
         <v>3479928</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>122</v>
       </c>
@@ -9034,46 +9235,49 @@
         <v>74</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H31" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J31" s="7">
+      <c r="K31" s="7">
         <v>15</v>
       </c>
-      <c r="K31" s="7">
+      <c r="L31" s="7">
         <v>143</v>
       </c>
-      <c r="L31" s="7">
+      <c r="M31" s="7">
         <v>2145</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="N31" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N31" s="7">
+      <c r="O31" s="7">
         <v>3778</v>
       </c>
-      <c r="O31" s="7">
+      <c r="P31" s="7">
         <v>540254</v>
       </c>
-      <c r="P31" s="7">
+      <c r="Q31" s="7">
         <v>8103810</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>124</v>
       </c>
@@ -9084,46 +9288,49 @@
         <v>62</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H32" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J32" s="7">
+      <c r="K32" s="7">
         <v>19</v>
       </c>
-      <c r="K32" s="7">
+      <c r="L32" s="7">
         <v>107</v>
       </c>
-      <c r="L32" s="7">
+      <c r="M32" s="7">
         <v>2033</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="N32" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N32" s="7">
+      <c r="O32" s="7">
         <v>4464</v>
       </c>
-      <c r="O32" s="7">
+      <c r="P32" s="7">
         <v>477648</v>
       </c>
-      <c r="P32" s="7">
+      <c r="Q32" s="7">
         <v>9075312</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
@@ -9134,46 +9341,49 @@
         <v>90</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G33" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="I33" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J33" s="7">
+      <c r="K33" s="7">
         <v>22</v>
       </c>
-      <c r="K33" s="7">
+      <c r="L33" s="7">
         <v>134</v>
       </c>
-      <c r="L33" s="7">
+      <c r="M33" s="7">
         <v>2948</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="N33" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N33" s="7">
+      <c r="O33" s="7">
         <v>2302</v>
       </c>
-      <c r="O33" s="7">
+      <c r="P33" s="7">
         <v>308468</v>
       </c>
-      <c r="P33" s="7">
+      <c r="Q33" s="7">
         <v>6786296</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>128</v>
       </c>
@@ -9184,46 +9394,49 @@
         <v>70</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G34" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H34" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="J34" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J34" s="7">
+      <c r="K34" s="7">
         <v>21</v>
       </c>
-      <c r="K34" s="7">
+      <c r="L34" s="7">
         <v>89</v>
       </c>
-      <c r="L34" s="7">
+      <c r="M34" s="7">
         <v>1869</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="N34" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N34" s="7">
+      <c r="O34" s="7">
         <v>2829</v>
       </c>
-      <c r="O34" s="7">
+      <c r="P34" s="7">
         <v>251781</v>
       </c>
-      <c r="P34" s="7">
+      <c r="Q34" s="7">
         <v>5287401</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>130</v>
       </c>
@@ -9234,13 +9447,13 @@
         <v>29</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>288</v>
@@ -9249,31 +9462,34 @@
         <v>288</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J35" s="7">
+      <c r="K35" s="7">
         <v>10</v>
       </c>
-      <c r="K35" s="7">
+      <c r="L35" s="7">
         <v>84</v>
       </c>
-      <c r="L35" s="7">
+      <c r="M35" s="7">
         <v>840</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="N35" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N35" s="7">
+      <c r="O35" s="7">
         <v>4437</v>
       </c>
-      <c r="O35" s="7">
+      <c r="P35" s="7">
         <v>372708</v>
       </c>
-      <c r="P35" s="7">
+      <c r="Q35" s="7">
         <v>3727080</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>132</v>
       </c>
@@ -9284,46 +9500,49 @@
         <v>82</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>288</v>
       </c>
       <c r="I36" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J36" s="7">
+      <c r="K36" s="7">
         <v>18</v>
       </c>
-      <c r="K36" s="7">
+      <c r="L36" s="7">
         <v>135</v>
       </c>
-      <c r="L36" s="7">
+      <c r="M36" s="7">
         <v>2430</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="N36" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N36" s="7">
+      <c r="O36" s="7">
         <v>2675</v>
       </c>
-      <c r="O36" s="7">
+      <c r="P36" s="7">
         <v>361125</v>
       </c>
-      <c r="P36" s="7">
+      <c r="Q36" s="7">
         <v>6500250</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>134</v>
       </c>
@@ -9334,46 +9553,49 @@
         <v>78</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G37" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="J37" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J37" s="7">
+      <c r="K37" s="7">
         <v>14</v>
       </c>
-      <c r="K37" s="7">
+      <c r="L37" s="7">
         <v>118</v>
       </c>
-      <c r="L37" s="7">
+      <c r="M37" s="7">
         <v>1652</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="N37" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N37" s="7">
+      <c r="O37" s="7">
         <v>3775</v>
       </c>
-      <c r="O37" s="7">
+      <c r="P37" s="7">
         <v>445450</v>
       </c>
-      <c r="P37" s="7">
+      <c r="Q37" s="7">
         <v>6236300</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>136</v>
       </c>
@@ -9384,46 +9606,49 @@
         <v>99</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H38" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I38" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J38" s="7">
+      <c r="K38" s="7">
         <v>15</v>
       </c>
-      <c r="K38" s="7">
+      <c r="L38" s="7">
         <v>100</v>
       </c>
-      <c r="L38" s="7">
+      <c r="M38" s="7">
         <v>1500</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="N38" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N38" s="7">
+      <c r="O38" s="7">
         <v>4358</v>
       </c>
-      <c r="O38" s="7">
+      <c r="P38" s="7">
         <v>435800</v>
       </c>
-      <c r="P38" s="7">
+      <c r="Q38" s="7">
         <v>6537000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>138</v>
       </c>
@@ -9434,14 +9659,14 @@
         <v>93</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G39" s="7" t="s">
         <v>292</v>
       </c>
@@ -9449,31 +9674,34 @@
         <v>292</v>
       </c>
       <c r="I39" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J39" s="7">
+      <c r="K39" s="7">
         <v>20</v>
       </c>
-      <c r="K39" s="7">
+      <c r="L39" s="7">
         <v>85</v>
       </c>
-      <c r="L39" s="7">
+      <c r="M39" s="7">
         <v>1700</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="N39" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N39" s="7">
+      <c r="O39" s="7">
         <v>3049</v>
       </c>
-      <c r="O39" s="7">
+      <c r="P39" s="7">
         <v>259165</v>
       </c>
-      <c r="P39" s="7">
+      <c r="Q39" s="7">
         <v>5183300</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>140</v>
       </c>
@@ -9484,46 +9712,49 @@
         <v>96</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>288</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I40" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J40" s="7">
+      <c r="K40" s="7">
         <v>7</v>
       </c>
-      <c r="K40" s="7">
+      <c r="L40" s="7">
         <v>131</v>
       </c>
-      <c r="L40" s="7">
+      <c r="M40" s="7">
         <v>917</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="N40" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N40" s="7">
+      <c r="O40" s="7">
         <v>4950</v>
       </c>
-      <c r="O40" s="7">
+      <c r="P40" s="7">
         <v>648450</v>
       </c>
-      <c r="P40" s="7">
+      <c r="Q40" s="7">
         <v>4539150</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
         <v>142</v>
       </c>
@@ -9534,46 +9765,49 @@
         <v>50</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G41" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="I41" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J41" s="7">
+      <c r="K41" s="7">
         <v>8</v>
       </c>
-      <c r="K41" s="7">
+      <c r="L41" s="7">
         <v>82</v>
       </c>
-      <c r="L41" s="7">
+      <c r="M41" s="7">
         <v>656</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="N41" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="N41" s="7">
+      <c r="O41" s="7">
         <v>3831</v>
       </c>
-      <c r="O41" s="7">
+      <c r="P41" s="7">
         <v>314142</v>
       </c>
-      <c r="P41" s="7">
+      <c r="Q41" s="7">
         <v>2513136</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
         <v>144</v>
       </c>
@@ -9584,46 +9818,49 @@
         <v>66</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H42" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J42" s="7">
+      <c r="K42" s="7">
         <v>13</v>
       </c>
-      <c r="K42" s="7">
+      <c r="L42" s="7">
         <v>131</v>
       </c>
-      <c r="L42" s="7">
+      <c r="M42" s="7">
         <v>1703</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="N42" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N42" s="7">
+      <c r="O42" s="7">
         <v>2440</v>
       </c>
-      <c r="O42" s="7">
+      <c r="P42" s="7">
         <v>319640</v>
       </c>
-      <c r="P42" s="7">
+      <c r="Q42" s="7">
         <v>4155320</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>146</v>
       </c>
@@ -9634,46 +9871,49 @@
         <v>102</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H43" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="J43" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J43" s="7">
+      <c r="K43" s="7">
         <v>18</v>
       </c>
-      <c r="K43" s="7">
+      <c r="L43" s="7">
         <v>92</v>
       </c>
-      <c r="L43" s="7">
+      <c r="M43" s="7">
         <v>1656</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="N43" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N43" s="7">
+      <c r="O43" s="7">
         <v>4902</v>
       </c>
-      <c r="O43" s="7">
+      <c r="P43" s="7">
         <v>450984</v>
       </c>
-      <c r="P43" s="7">
+      <c r="Q43" s="7">
         <v>8117712</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>148</v>
       </c>
@@ -9684,46 +9924,49 @@
         <v>74</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H44" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="J44" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J44" s="7">
+      <c r="K44" s="7">
         <v>18</v>
       </c>
-      <c r="K44" s="7">
+      <c r="L44" s="7">
         <v>82</v>
       </c>
-      <c r="L44" s="7">
+      <c r="M44" s="7">
         <v>1476</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="N44" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N44" s="7">
+      <c r="O44" s="7">
         <v>4578</v>
       </c>
-      <c r="O44" s="7">
+      <c r="P44" s="7">
         <v>375396</v>
       </c>
-      <c r="P44" s="7">
+      <c r="Q44" s="7">
         <v>6757128</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>150</v>
       </c>
@@ -9734,14 +9977,14 @@
         <v>58</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G45" s="7" t="s">
         <v>292</v>
       </c>
@@ -9749,31 +9992,34 @@
         <v>292</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J45" s="7">
+      <c r="K45" s="7">
         <v>10</v>
       </c>
-      <c r="K45" s="7">
+      <c r="L45" s="7">
         <v>133</v>
       </c>
-      <c r="L45" s="7">
+      <c r="M45" s="7">
         <v>1330</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="N45" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N45" s="7">
+      <c r="O45" s="7">
         <v>4648</v>
       </c>
-      <c r="O45" s="7">
+      <c r="P45" s="7">
         <v>618184</v>
       </c>
-      <c r="P45" s="7">
+      <c r="Q45" s="7">
         <v>6181840</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>152</v>
       </c>
@@ -9784,46 +10030,49 @@
         <v>21</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>288</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I46" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J46" s="7">
+      <c r="K46" s="7">
         <v>14</v>
       </c>
-      <c r="K46" s="7">
+      <c r="L46" s="7">
         <v>87</v>
       </c>
-      <c r="L46" s="7">
+      <c r="M46" s="7">
         <v>1218</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="N46" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N46" s="7">
+      <c r="O46" s="7">
         <v>3508</v>
       </c>
-      <c r="O46" s="7">
+      <c r="P46" s="7">
         <v>305196</v>
       </c>
-      <c r="P46" s="7">
+      <c r="Q46" s="7">
         <v>4272744</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
         <v>154</v>
       </c>
@@ -9834,14 +10083,14 @@
         <v>36</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G47" s="7" t="s">
         <v>292</v>
       </c>
@@ -9849,31 +10098,34 @@
         <v>292</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J47" s="7">
+      <c r="K47" s="7">
         <v>9</v>
       </c>
-      <c r="K47" s="7">
+      <c r="L47" s="7">
         <v>94</v>
       </c>
-      <c r="L47" s="7">
+      <c r="M47" s="7">
         <v>846</v>
       </c>
-      <c r="M47" s="7" t="s">
+      <c r="N47" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N47" s="7">
+      <c r="O47" s="7">
         <v>4108</v>
       </c>
-      <c r="O47" s="7">
+      <c r="P47" s="7">
         <v>386152</v>
       </c>
-      <c r="P47" s="7">
+      <c r="Q47" s="7">
         <v>3475368</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>156</v>
       </c>
@@ -9884,46 +10136,49 @@
         <v>82</v>
       </c>
       <c r="D48" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H48" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="J48" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J48" s="7">
+      <c r="K48" s="7">
         <v>16</v>
       </c>
-      <c r="K48" s="7">
+      <c r="L48" s="7">
         <v>105</v>
       </c>
-      <c r="L48" s="7">
+      <c r="M48" s="7">
         <v>1680</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="N48" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N48" s="7">
+      <c r="O48" s="7">
         <v>4520</v>
       </c>
-      <c r="O48" s="7">
+      <c r="P48" s="7">
         <v>474600</v>
       </c>
-      <c r="P48" s="7">
+      <c r="Q48" s="7">
         <v>7593600</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>158</v>
       </c>
@@ -9934,46 +10189,49 @@
         <v>62</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H49" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J49" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J49" s="7">
+      <c r="K49" s="7">
         <v>10</v>
       </c>
-      <c r="K49" s="7">
+      <c r="L49" s="7">
         <v>89</v>
       </c>
-      <c r="L49" s="7">
+      <c r="M49" s="7">
         <v>890</v>
       </c>
-      <c r="M49" s="7" t="s">
+      <c r="N49" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N49" s="7">
+      <c r="O49" s="7">
         <v>2478</v>
       </c>
-      <c r="O49" s="7">
+      <c r="P49" s="7">
         <v>220542</v>
       </c>
-      <c r="P49" s="7">
+      <c r="Q49" s="7">
         <v>2205420</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>160</v>
       </c>
@@ -9984,13 +10242,13 @@
         <v>90</v>
       </c>
       <c r="D50" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>288</v>
@@ -9999,31 +10257,34 @@
         <v>288</v>
       </c>
       <c r="I50" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J50" s="7">
+      <c r="K50" s="7">
         <v>15</v>
       </c>
-      <c r="K50" s="7">
+      <c r="L50" s="7">
         <v>82</v>
       </c>
-      <c r="L50" s="7">
+      <c r="M50" s="7">
         <v>1230</v>
       </c>
-      <c r="M50" s="7" t="s">
+      <c r="N50" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="N50" s="7">
+      <c r="O50" s="7">
         <v>2979</v>
       </c>
-      <c r="O50" s="7">
+      <c r="P50" s="7">
         <v>244278</v>
       </c>
-      <c r="P50" s="7">
+      <c r="Q50" s="7">
         <v>3664170</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>162</v>
       </c>
@@ -10034,46 +10295,49 @@
         <v>70</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G51" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H51" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="J51" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J51" s="7">
+      <c r="K51" s="7">
         <v>6</v>
       </c>
-      <c r="K51" s="7">
+      <c r="L51" s="7">
         <v>104</v>
       </c>
-      <c r="L51" s="7">
+      <c r="M51" s="7">
         <v>624</v>
       </c>
-      <c r="M51" s="7" t="s">
+      <c r="N51" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N51" s="7">
+      <c r="O51" s="7">
         <v>3271</v>
       </c>
-      <c r="O51" s="7">
+      <c r="P51" s="7">
         <v>340184</v>
       </c>
-      <c r="P51" s="7">
+      <c r="Q51" s="7">
         <v>2041104</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
         <v>164</v>
       </c>
@@ -10084,14 +10348,14 @@
         <v>46</v>
       </c>
       <c r="D52" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G52" s="7" t="s">
         <v>292</v>
       </c>
@@ -10099,31 +10363,34 @@
         <v>292</v>
       </c>
       <c r="I52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J52" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J52" s="7">
+      <c r="K52" s="7">
         <v>6</v>
       </c>
-      <c r="K52" s="7">
+      <c r="L52" s="7">
         <v>82</v>
       </c>
-      <c r="L52" s="7">
+      <c r="M52" s="7">
         <v>492</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="N52" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N52" s="7">
+      <c r="O52" s="7">
         <v>3581</v>
       </c>
-      <c r="O52" s="7">
+      <c r="P52" s="7">
         <v>293642</v>
       </c>
-      <c r="P52" s="7">
+      <c r="Q52" s="7">
         <v>1761852</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
         <v>166</v>
       </c>
@@ -10134,46 +10401,49 @@
         <v>86</v>
       </c>
       <c r="D53" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G53" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>288</v>
       </c>
       <c r="I53" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J53" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J53" s="7">
+      <c r="K53" s="7">
         <v>14</v>
       </c>
-      <c r="K53" s="7">
+      <c r="L53" s="7">
         <v>107</v>
       </c>
-      <c r="L53" s="7">
+      <c r="M53" s="7">
         <v>1498</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="N53" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N53" s="7">
+      <c r="O53" s="7">
         <v>3906</v>
       </c>
-      <c r="O53" s="7">
+      <c r="P53" s="7">
         <v>417942</v>
       </c>
-      <c r="P53" s="7">
+      <c r="Q53" s="7">
         <v>5851188</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
         <v>168</v>
       </c>
@@ -10184,46 +10454,49 @@
         <v>29</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G54" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H54" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I54" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="J54" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J54" s="7">
+      <c r="K54" s="7">
         <v>12</v>
       </c>
-      <c r="K54" s="7">
+      <c r="L54" s="7">
         <v>81</v>
       </c>
-      <c r="L54" s="7">
+      <c r="M54" s="7">
         <v>972</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="N54" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N54" s="7">
+      <c r="O54" s="7">
         <v>3508</v>
       </c>
-      <c r="O54" s="7">
+      <c r="P54" s="7">
         <v>284148</v>
       </c>
-      <c r="P54" s="7">
+      <c r="Q54" s="7">
         <v>3409776</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
         <v>170</v>
       </c>
@@ -10234,14 +10507,14 @@
         <v>93</v>
       </c>
       <c r="D55" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G55" s="7" t="s">
         <v>292</v>
       </c>
@@ -10249,31 +10522,34 @@
         <v>292</v>
       </c>
       <c r="I55" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J55" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J55" s="7">
+      <c r="K55" s="7">
         <v>6</v>
       </c>
-      <c r="K55" s="7">
+      <c r="L55" s="7">
         <v>89</v>
       </c>
-      <c r="L55" s="7">
+      <c r="M55" s="7">
         <v>534</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="N55" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N55" s="7">
+      <c r="O55" s="7">
         <v>3505</v>
       </c>
-      <c r="O55" s="7">
+      <c r="P55" s="7">
         <v>311945</v>
       </c>
-      <c r="P55" s="7">
+      <c r="Q55" s="7">
         <v>1871670</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
         <v>172</v>
       </c>
@@ -10284,46 +10560,49 @@
         <v>41</v>
       </c>
       <c r="D56" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>288</v>
       </c>
       <c r="I56" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J56" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J56" s="7">
+      <c r="K56" s="7">
         <v>15</v>
       </c>
-      <c r="K56" s="7">
+      <c r="L56" s="7">
         <v>125</v>
       </c>
-      <c r="L56" s="7">
+      <c r="M56" s="7">
         <v>1875</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="N56" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N56" s="7">
+      <c r="O56" s="7">
         <v>2589</v>
       </c>
-      <c r="O56" s="7">
+      <c r="P56" s="7">
         <v>323625</v>
       </c>
-      <c r="P56" s="7">
+      <c r="Q56" s="7">
         <v>4854375</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
         <v>174</v>
       </c>
@@ -10334,13 +10613,13 @@
         <v>99</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>288</v>
@@ -10349,31 +10628,34 @@
         <v>288</v>
       </c>
       <c r="I57" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J57" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J57" s="7">
+      <c r="K57" s="7">
         <v>11</v>
       </c>
-      <c r="K57" s="7">
+      <c r="L57" s="7">
         <v>135</v>
       </c>
-      <c r="L57" s="7">
+      <c r="M57" s="7">
         <v>1485</v>
       </c>
-      <c r="M57" s="7" t="s">
+      <c r="N57" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N57" s="7">
+      <c r="O57" s="7">
         <v>4351</v>
       </c>
-      <c r="O57" s="7">
+      <c r="P57" s="7">
         <v>587385</v>
       </c>
-      <c r="P57" s="7">
+      <c r="Q57" s="7">
         <v>6461235</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
         <v>176</v>
       </c>
@@ -10384,46 +10666,49 @@
         <v>96</v>
       </c>
       <c r="D58" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="F58" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H58" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="J58" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J58" s="7">
+      <c r="K58" s="7">
         <v>11</v>
       </c>
-      <c r="K58" s="7">
+      <c r="L58" s="7">
         <v>97</v>
       </c>
-      <c r="L58" s="7">
+      <c r="M58" s="7">
         <v>1067</v>
       </c>
-      <c r="M58" s="7" t="s">
+      <c r="N58" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N58" s="7">
+      <c r="O58" s="7">
         <v>4433</v>
       </c>
-      <c r="O58" s="7">
+      <c r="P58" s="7">
         <v>430001</v>
       </c>
-      <c r="P58" s="7">
+      <c r="Q58" s="7">
         <v>4730011</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>178</v>
       </c>
@@ -10434,46 +10719,49 @@
         <v>54</v>
       </c>
       <c r="D59" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H59" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I59" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="J59" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J59" s="7">
+      <c r="K59" s="7">
         <v>18</v>
       </c>
-      <c r="K59" s="7">
+      <c r="L59" s="7">
         <v>132</v>
       </c>
-      <c r="L59" s="7">
+      <c r="M59" s="7">
         <v>2376</v>
       </c>
-      <c r="M59" s="7" t="s">
+      <c r="N59" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N59" s="7">
+      <c r="O59" s="7">
         <v>2939</v>
       </c>
-      <c r="O59" s="7">
+      <c r="P59" s="7">
         <v>387948</v>
       </c>
-      <c r="P59" s="7">
+      <c r="Q59" s="7">
         <v>6983064</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>180</v>
       </c>
@@ -10484,46 +10772,49 @@
         <v>102</v>
       </c>
       <c r="D60" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H60" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="J60" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J60" s="7">
+      <c r="K60" s="7">
         <v>9</v>
       </c>
-      <c r="K60" s="7">
+      <c r="L60" s="7">
         <v>85</v>
       </c>
-      <c r="L60" s="7">
+      <c r="M60" s="7">
         <v>765</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="N60" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N60" s="7">
+      <c r="O60" s="7">
         <v>4005</v>
       </c>
-      <c r="O60" s="7">
+      <c r="P60" s="7">
         <v>340425</v>
       </c>
-      <c r="P60" s="7">
+      <c r="Q60" s="7">
         <v>3063825</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
         <v>182</v>
       </c>
@@ -10534,46 +10825,49 @@
         <v>78</v>
       </c>
       <c r="D61" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G61" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H61" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="I61" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J61" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J61" s="7">
+      <c r="K61" s="7">
         <v>17</v>
       </c>
-      <c r="K61" s="7">
+      <c r="L61" s="7">
         <v>102</v>
       </c>
-      <c r="L61" s="7">
+      <c r="M61" s="7">
         <v>1734</v>
       </c>
-      <c r="M61" s="7" t="s">
+      <c r="N61" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N61" s="7">
+      <c r="O61" s="7">
         <v>2306</v>
       </c>
-      <c r="O61" s="7">
+      <c r="P61" s="7">
         <v>235212</v>
       </c>
-      <c r="P61" s="7">
+      <c r="Q61" s="7">
         <v>3998604</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
         <v>184</v>
       </c>
@@ -10584,46 +10878,49 @@
         <v>74</v>
       </c>
       <c r="D62" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H62" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I62" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J62" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J62" s="7">
+      <c r="K62" s="7">
         <v>7</v>
       </c>
-      <c r="K62" s="7">
+      <c r="L62" s="7">
         <v>82</v>
       </c>
-      <c r="L62" s="7">
+      <c r="M62" s="7">
         <v>574</v>
       </c>
-      <c r="M62" s="7" t="s">
+      <c r="N62" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N62" s="7">
+      <c r="O62" s="7">
         <v>3552</v>
       </c>
-      <c r="O62" s="7">
+      <c r="P62" s="7">
         <v>291264</v>
       </c>
-      <c r="P62" s="7">
+      <c r="Q62" s="7">
         <v>2038848</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>186</v>
       </c>
@@ -10634,14 +10931,14 @@
         <v>58</v>
       </c>
       <c r="D63" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G63" s="7" t="s">
         <v>292</v>
       </c>
@@ -10649,31 +10946,34 @@
         <v>292</v>
       </c>
       <c r="I63" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J63" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J63" s="7">
+      <c r="K63" s="7">
         <v>21</v>
       </c>
-      <c r="K63" s="7">
+      <c r="L63" s="7">
         <v>104</v>
       </c>
-      <c r="L63" s="7">
+      <c r="M63" s="7">
         <v>2184</v>
       </c>
-      <c r="M63" s="7" t="s">
+      <c r="N63" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="7">
+      <c r="O63" s="7">
         <v>4098</v>
       </c>
-      <c r="O63" s="7">
+      <c r="P63" s="7">
         <v>426192</v>
       </c>
-      <c r="P63" s="7">
+      <c r="Q63" s="7">
         <v>8950032</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
         <v>188</v>
       </c>
@@ -10684,46 +10984,49 @@
         <v>21</v>
       </c>
       <c r="D64" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H64" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I64" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J64" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J64" s="7">
+      <c r="K64" s="7">
         <v>7</v>
       </c>
-      <c r="K64" s="7">
+      <c r="L64" s="7">
         <v>97</v>
       </c>
-      <c r="L64" s="7">
+      <c r="M64" s="7">
         <v>679</v>
       </c>
-      <c r="M64" s="7" t="s">
+      <c r="N64" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N64" s="7">
+      <c r="O64" s="7">
         <v>4050</v>
       </c>
-      <c r="O64" s="7">
+      <c r="P64" s="7">
         <v>392850</v>
       </c>
-      <c r="P64" s="7">
+      <c r="Q64" s="7">
         <v>2749950</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
         <v>190</v>
       </c>
@@ -10734,46 +11037,49 @@
         <v>36</v>
       </c>
       <c r="D65" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F65" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G65" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H65" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I65" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="J65" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J65" s="7">
+      <c r="K65" s="7">
         <v>21</v>
       </c>
-      <c r="K65" s="7">
+      <c r="L65" s="7">
         <v>111</v>
       </c>
-      <c r="L65" s="7">
+      <c r="M65" s="7">
         <v>2331</v>
       </c>
-      <c r="M65" s="7" t="s">
+      <c r="N65" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N65" s="7">
+      <c r="O65" s="7">
         <v>4479</v>
       </c>
-      <c r="O65" s="7">
+      <c r="P65" s="7">
         <v>497169</v>
       </c>
-      <c r="P65" s="7">
+      <c r="Q65" s="7">
         <v>10440549</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A66" s="7" t="s">
         <v>192</v>
       </c>
@@ -10784,14 +11090,14 @@
         <v>66</v>
       </c>
       <c r="D66" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G66" s="7" t="s">
         <v>292</v>
       </c>
@@ -10799,31 +11105,34 @@
         <v>292</v>
       </c>
       <c r="I66" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J66" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J66" s="7">
+      <c r="K66" s="7">
         <v>17</v>
       </c>
-      <c r="K66" s="7">
+      <c r="L66" s="7">
         <v>138</v>
       </c>
-      <c r="L66" s="7">
+      <c r="M66" s="7">
         <v>2346</v>
       </c>
-      <c r="M66" s="7" t="s">
+      <c r="N66" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N66" s="7">
+      <c r="O66" s="7">
         <v>4651</v>
       </c>
-      <c r="O66" s="7">
+      <c r="P66" s="7">
         <v>641838</v>
       </c>
-      <c r="P66" s="7">
+      <c r="Q66" s="7">
         <v>10911246</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A67" s="7" t="s">
         <v>194</v>
       </c>
@@ -10834,46 +11143,49 @@
         <v>93</v>
       </c>
       <c r="D67" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="F67" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="G67" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G67" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H67" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I67" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J67" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J67" s="7">
+      <c r="K67" s="7">
         <v>24</v>
       </c>
-      <c r="K67" s="7">
+      <c r="L67" s="7">
         <v>103</v>
       </c>
-      <c r="L67" s="7">
+      <c r="M67" s="7">
         <v>2472</v>
       </c>
-      <c r="M67" s="7" t="s">
+      <c r="N67" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="N67" s="7">
+      <c r="O67" s="7">
         <v>2706</v>
       </c>
-      <c r="O67" s="7">
+      <c r="P67" s="7">
         <v>278718</v>
       </c>
-      <c r="P67" s="7">
+      <c r="Q67" s="7">
         <v>6689232</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A68" s="7" t="s">
         <v>196</v>
       </c>
@@ -10884,46 +11196,49 @@
         <v>41</v>
       </c>
       <c r="D68" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H68" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I68" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="J68" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J68" s="7">
+      <c r="K68" s="7">
         <v>8</v>
       </c>
-      <c r="K68" s="7">
+      <c r="L68" s="7">
         <v>129</v>
       </c>
-      <c r="L68" s="7">
+      <c r="M68" s="7">
         <v>1032</v>
       </c>
-      <c r="M68" s="7" t="s">
+      <c r="N68" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N68" s="7">
+      <c r="O68" s="7">
         <v>2292</v>
       </c>
-      <c r="O68" s="7">
+      <c r="P68" s="7">
         <v>295668</v>
       </c>
-      <c r="P68" s="7">
+      <c r="Q68" s="7">
         <v>2365344</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A69" s="7" t="s">
         <v>198</v>
       </c>
@@ -10934,46 +11249,49 @@
         <v>50</v>
       </c>
       <c r="D69" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>288</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I69" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J69" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J69" s="7">
+      <c r="K69" s="7">
         <v>8</v>
       </c>
-      <c r="K69" s="7">
+      <c r="L69" s="7">
         <v>133</v>
       </c>
-      <c r="L69" s="7">
+      <c r="M69" s="7">
         <v>1064</v>
       </c>
-      <c r="M69" s="7" t="s">
+      <c r="N69" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N69" s="7">
+      <c r="O69" s="7">
         <v>2385</v>
       </c>
-      <c r="O69" s="7">
+      <c r="P69" s="7">
         <v>317205</v>
       </c>
-      <c r="P69" s="7">
+      <c r="Q69" s="7">
         <v>2537640</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
         <v>200</v>
       </c>
@@ -10984,13 +11302,13 @@
         <v>46</v>
       </c>
       <c r="D70" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>288</v>
@@ -10999,31 +11317,34 @@
         <v>288</v>
       </c>
       <c r="I70" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J70" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J70" s="7">
+      <c r="K70" s="7">
         <v>14</v>
       </c>
-      <c r="K70" s="7">
+      <c r="L70" s="7">
         <v>120</v>
       </c>
-      <c r="L70" s="7">
+      <c r="M70" s="7">
         <v>1680</v>
       </c>
-      <c r="M70" s="7" t="s">
+      <c r="N70" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N70" s="7">
+      <c r="O70" s="7">
         <v>2896</v>
       </c>
-      <c r="O70" s="7">
+      <c r="P70" s="7">
         <v>347520</v>
       </c>
-      <c r="P70" s="7">
+      <c r="Q70" s="7">
         <v>4865280</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
         <v>202</v>
       </c>
@@ -11034,46 +11355,49 @@
         <v>62</v>
       </c>
       <c r="D71" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="F71" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H71" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I71" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="J71" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J71" s="7">
+      <c r="K71" s="7">
         <v>14</v>
       </c>
-      <c r="K71" s="7">
+      <c r="L71" s="7">
         <v>113</v>
       </c>
-      <c r="L71" s="7">
+      <c r="M71" s="7">
         <v>1582</v>
       </c>
-      <c r="M71" s="7" t="s">
+      <c r="N71" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N71" s="7">
+      <c r="O71" s="7">
         <v>4299</v>
       </c>
-      <c r="O71" s="7">
+      <c r="P71" s="7">
         <v>485787</v>
       </c>
-      <c r="P71" s="7">
+      <c r="Q71" s="7">
         <v>6801018</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
         <v>204</v>
       </c>
@@ -11084,46 +11408,49 @@
         <v>82</v>
       </c>
       <c r="D72" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H72" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I72" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J72" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J72" s="7">
+      <c r="K72" s="7">
         <v>9</v>
       </c>
-      <c r="K72" s="7">
+      <c r="L72" s="7">
         <v>121</v>
       </c>
-      <c r="L72" s="7">
+      <c r="M72" s="7">
         <v>1089</v>
       </c>
-      <c r="M72" s="7" t="s">
+      <c r="N72" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N72" s="7">
+      <c r="O72" s="7">
         <v>2779</v>
       </c>
-      <c r="O72" s="7">
+      <c r="P72" s="7">
         <v>336259</v>
       </c>
-      <c r="P72" s="7">
+      <c r="Q72" s="7">
         <v>3026331</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A73" s="7" t="s">
         <v>206</v>
       </c>
@@ -11134,14 +11461,14 @@
         <v>36</v>
       </c>
       <c r="D73" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G73" s="7" t="s">
         <v>292</v>
       </c>
@@ -11149,31 +11476,34 @@
         <v>292</v>
       </c>
       <c r="I73" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J73" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J73" s="7">
+      <c r="K73" s="7">
         <v>9</v>
       </c>
-      <c r="K73" s="7">
+      <c r="L73" s="7">
         <v>128</v>
       </c>
-      <c r="L73" s="7">
+      <c r="M73" s="7">
         <v>1152</v>
       </c>
-      <c r="M73" s="7" t="s">
+      <c r="N73" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N73" s="7">
+      <c r="O73" s="7">
         <v>3278</v>
       </c>
-      <c r="O73" s="7">
+      <c r="P73" s="7">
         <v>419584</v>
       </c>
-      <c r="P73" s="7">
+      <c r="Q73" s="7">
         <v>3776256</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A74" s="7" t="s">
         <v>208</v>
       </c>
@@ -11184,46 +11514,49 @@
         <v>90</v>
       </c>
       <c r="D74" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H74" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I74" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J74" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J74" s="7">
+      <c r="K74" s="7">
         <v>20</v>
       </c>
-      <c r="K74" s="7">
+      <c r="L74" s="7">
         <v>118</v>
       </c>
-      <c r="L74" s="7">
+      <c r="M74" s="7">
         <v>2360</v>
       </c>
-      <c r="M74" s="7" t="s">
+      <c r="N74" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N74" s="7">
+      <c r="O74" s="7">
         <v>3978</v>
       </c>
-      <c r="O74" s="7">
+      <c r="P74" s="7">
         <v>469404</v>
       </c>
-      <c r="P74" s="7">
+      <c r="Q74" s="7">
         <v>9388080</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
         <v>210</v>
       </c>
@@ -11234,14 +11567,14 @@
         <v>70</v>
       </c>
       <c r="D75" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F75" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G75" s="7" t="s">
         <v>292</v>
       </c>
@@ -11249,31 +11582,34 @@
         <v>292</v>
       </c>
       <c r="I75" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J75" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J75" s="7">
+      <c r="K75" s="7">
         <v>18</v>
       </c>
-      <c r="K75" s="7">
+      <c r="L75" s="7">
         <v>138</v>
       </c>
-      <c r="L75" s="7">
+      <c r="M75" s="7">
         <v>2484</v>
       </c>
-      <c r="M75" s="7" t="s">
+      <c r="N75" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N75" s="7">
+      <c r="O75" s="7">
         <v>2159</v>
       </c>
-      <c r="O75" s="7">
+      <c r="P75" s="7">
         <v>297942</v>
       </c>
-      <c r="P75" s="7">
+      <c r="Q75" s="7">
         <v>5362956</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A76" s="7" t="s">
         <v>212</v>
       </c>
@@ -11284,46 +11620,49 @@
         <v>29</v>
       </c>
       <c r="D76" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="F76" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="G76" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H76" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I76" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J76" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J76" s="7">
+      <c r="K76" s="7">
         <v>24</v>
       </c>
-      <c r="K76" s="7">
+      <c r="L76" s="7">
         <v>135</v>
       </c>
-      <c r="L76" s="7">
+      <c r="M76" s="7">
         <v>3240</v>
       </c>
-      <c r="M76" s="7" t="s">
+      <c r="N76" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N76" s="7">
+      <c r="O76" s="7">
         <v>3113</v>
       </c>
-      <c r="O76" s="7">
+      <c r="P76" s="7">
         <v>420255</v>
       </c>
-      <c r="P76" s="7">
+      <c r="Q76" s="7">
         <v>10086120</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
         <v>214</v>
       </c>
@@ -11334,46 +11673,49 @@
         <v>86</v>
       </c>
       <c r="D77" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="F77" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F77" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G77" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H77" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H77" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="I77" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J77" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J77" s="7">
+      <c r="K77" s="7">
         <v>15</v>
       </c>
-      <c r="K77" s="7">
+      <c r="L77" s="7">
         <v>92</v>
       </c>
-      <c r="L77" s="7">
+      <c r="M77" s="7">
         <v>1380</v>
       </c>
-      <c r="M77" s="7" t="s">
+      <c r="N77" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N77" s="7">
+      <c r="O77" s="7">
         <v>3010</v>
       </c>
-      <c r="O77" s="7">
+      <c r="P77" s="7">
         <v>276920</v>
       </c>
-      <c r="P77" s="7">
+      <c r="Q77" s="7">
         <v>4153800</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
         <v>216</v>
       </c>
@@ -11384,46 +11726,49 @@
         <v>78</v>
       </c>
       <c r="D78" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="F78" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G78" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>288</v>
       </c>
       <c r="I78" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J78" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J78" s="7">
+      <c r="K78" s="7">
         <v>6</v>
       </c>
-      <c r="K78" s="7">
+      <c r="L78" s="7">
         <v>120</v>
       </c>
-      <c r="L78" s="7">
+      <c r="M78" s="7">
         <v>720</v>
       </c>
-      <c r="M78" s="7" t="s">
+      <c r="N78" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N78" s="7">
+      <c r="O78" s="7">
         <v>4232</v>
       </c>
-      <c r="O78" s="7">
+      <c r="P78" s="7">
         <v>507840</v>
       </c>
-      <c r="P78" s="7">
+      <c r="Q78" s="7">
         <v>3047040</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
         <v>218</v>
       </c>
@@ -11434,46 +11779,49 @@
         <v>99</v>
       </c>
       <c r="D79" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="F79" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G79" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H79" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I79" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="J79" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J79" s="7">
+      <c r="K79" s="7">
         <v>6</v>
       </c>
-      <c r="K79" s="7">
+      <c r="L79" s="7">
         <v>141</v>
       </c>
-      <c r="L79" s="7">
+      <c r="M79" s="7">
         <v>846</v>
       </c>
-      <c r="M79" s="7" t="s">
+      <c r="N79" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N79" s="7">
+      <c r="O79" s="7">
         <v>2350</v>
       </c>
-      <c r="O79" s="7">
+      <c r="P79" s="7">
         <v>331350</v>
       </c>
-      <c r="P79" s="7">
+      <c r="Q79" s="7">
         <v>1988100</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
         <v>220</v>
       </c>
@@ -11484,46 +11832,49 @@
         <v>74</v>
       </c>
       <c r="D80" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="F80" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>288</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I80" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J80" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J80" s="7">
+      <c r="K80" s="7">
         <v>23</v>
       </c>
-      <c r="K80" s="7">
+      <c r="L80" s="7">
         <v>125</v>
       </c>
-      <c r="L80" s="7">
+      <c r="M80" s="7">
         <v>2875</v>
       </c>
-      <c r="M80" s="7" t="s">
+      <c r="N80" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="N80" s="7">
+      <c r="O80" s="7">
         <v>4341</v>
       </c>
-      <c r="O80" s="7">
+      <c r="P80" s="7">
         <v>542625</v>
       </c>
-      <c r="P80" s="7">
+      <c r="Q80" s="7">
         <v>12480375</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
         <v>222</v>
       </c>
@@ -11534,46 +11885,49 @@
         <v>54</v>
       </c>
       <c r="D81" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G81" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>288</v>
       </c>
       <c r="I81" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J81" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J81" s="7">
+      <c r="K81" s="7">
         <v>10</v>
       </c>
-      <c r="K81" s="7">
+      <c r="L81" s="7">
         <v>128</v>
       </c>
-      <c r="L81" s="7">
+      <c r="M81" s="7">
         <v>1280</v>
       </c>
-      <c r="M81" s="7" t="s">
+      <c r="N81" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="N81" s="7">
+      <c r="O81" s="7">
         <v>4002</v>
       </c>
-      <c r="O81" s="7">
+      <c r="P81" s="7">
         <v>512256</v>
       </c>
-      <c r="P81" s="7">
+      <c r="Q81" s="7">
         <v>5122560</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A82" s="7" t="s">
         <v>224</v>
       </c>
@@ -11584,46 +11938,49 @@
         <v>58</v>
       </c>
       <c r="D82" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="F82" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F82" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G82" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>288</v>
       </c>
       <c r="I82" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J82" s="7">
+      <c r="K82" s="7">
         <v>6</v>
       </c>
-      <c r="K82" s="7">
+      <c r="L82" s="7">
         <v>131</v>
       </c>
-      <c r="L82" s="7">
+      <c r="M82" s="7">
         <v>786</v>
       </c>
-      <c r="M82" s="7" t="s">
+      <c r="N82" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="N82" s="7">
+      <c r="O82" s="7">
         <v>4018</v>
       </c>
-      <c r="O82" s="7">
+      <c r="P82" s="7">
         <v>526358</v>
       </c>
-      <c r="P82" s="7">
+      <c r="Q82" s="7">
         <v>3158148</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A83" s="7" t="s">
         <v>226</v>
       </c>
@@ -11634,46 +11991,49 @@
         <v>21</v>
       </c>
       <c r="D83" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F83" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G83" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>288</v>
       </c>
       <c r="I83" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J83" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J83" s="7">
+      <c r="K83" s="7">
         <v>21</v>
       </c>
-      <c r="K83" s="7">
+      <c r="L83" s="7">
         <v>143</v>
       </c>
-      <c r="L83" s="7">
+      <c r="M83" s="7">
         <v>3003</v>
       </c>
-      <c r="M83" s="7" t="s">
+      <c r="N83" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N83" s="7">
+      <c r="O83" s="7">
         <v>2946</v>
       </c>
-      <c r="O83" s="7">
+      <c r="P83" s="7">
         <v>421278</v>
       </c>
-      <c r="P83" s="7">
+      <c r="Q83" s="7">
         <v>8846838</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A84" s="7" t="s">
         <v>228</v>
       </c>
@@ -11684,14 +12044,14 @@
         <v>102</v>
       </c>
       <c r="D84" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G84" s="7" t="s">
         <v>292</v>
       </c>
@@ -11699,31 +12059,34 @@
         <v>292</v>
       </c>
       <c r="I84" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J84" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J84" s="7">
+      <c r="K84" s="7">
         <v>20</v>
       </c>
-      <c r="K84" s="7">
+      <c r="L84" s="7">
         <v>148</v>
       </c>
-      <c r="L84" s="7">
+      <c r="M84" s="7">
         <v>2960</v>
       </c>
-      <c r="M84" s="7" t="s">
+      <c r="N84" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N84" s="7">
+      <c r="O84" s="7">
         <v>2065</v>
       </c>
-      <c r="O84" s="7">
+      <c r="P84" s="7">
         <v>305620</v>
       </c>
-      <c r="P84" s="7">
+      <c r="Q84" s="7">
         <v>6112400</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A85" s="7" t="s">
         <v>230</v>
       </c>
@@ -11734,46 +12097,49 @@
         <v>66</v>
       </c>
       <c r="D85" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="F85" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G85" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H85" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="J85" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J85" s="7">
+      <c r="K85" s="7">
         <v>17</v>
       </c>
-      <c r="K85" s="7">
+      <c r="L85" s="7">
         <v>89</v>
       </c>
-      <c r="L85" s="7">
+      <c r="M85" s="7">
         <v>1513</v>
       </c>
-      <c r="M85" s="7" t="s">
+      <c r="N85" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N85" s="7">
+      <c r="O85" s="7">
         <v>4647</v>
       </c>
-      <c r="O85" s="7">
+      <c r="P85" s="7">
         <v>413583</v>
       </c>
-      <c r="P85" s="7">
+      <c r="Q85" s="7">
         <v>7030911</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
         <v>232</v>
       </c>
@@ -11784,46 +12150,49 @@
         <v>93</v>
       </c>
       <c r="D86" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E86" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="F86" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G86" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>288</v>
       </c>
       <c r="I86" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J86" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J86" s="7">
+      <c r="K86" s="7">
         <v>21</v>
       </c>
-      <c r="K86" s="7">
+      <c r="L86" s="7">
         <v>136</v>
       </c>
-      <c r="L86" s="7">
+      <c r="M86" s="7">
         <v>2856</v>
       </c>
-      <c r="M86" s="7" t="s">
+      <c r="N86" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N86" s="7">
+      <c r="O86" s="7">
         <v>3242</v>
       </c>
-      <c r="O86" s="7">
+      <c r="P86" s="7">
         <v>440912</v>
       </c>
-      <c r="P86" s="7">
+      <c r="Q86" s="7">
         <v>9259152</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A87" s="7" t="s">
         <v>234</v>
       </c>
@@ -11834,46 +12203,49 @@
         <v>96</v>
       </c>
       <c r="D87" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="F87" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G87" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H87" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H87" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="I87" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J87" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J87" s="7">
+      <c r="K87" s="7">
         <v>17</v>
       </c>
-      <c r="K87" s="7">
+      <c r="L87" s="7">
         <v>149</v>
       </c>
-      <c r="L87" s="7">
+      <c r="M87" s="7">
         <v>2533</v>
       </c>
-      <c r="M87" s="7" t="s">
+      <c r="N87" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="N87" s="7">
+      <c r="O87" s="7">
         <v>2018</v>
       </c>
-      <c r="O87" s="7">
+      <c r="P87" s="7">
         <v>300682</v>
       </c>
-      <c r="P87" s="7">
+      <c r="Q87" s="7">
         <v>5111594</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A88" s="7" t="s">
         <v>236</v>
       </c>
@@ -11884,46 +12256,49 @@
         <v>62</v>
       </c>
       <c r="D88" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="F88" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F88" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G88" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>288</v>
       </c>
       <c r="I88" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J88" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J88" s="7">
+      <c r="K88" s="7">
         <v>10</v>
       </c>
-      <c r="K88" s="7">
+      <c r="L88" s="7">
         <v>105</v>
       </c>
-      <c r="L88" s="7">
+      <c r="M88" s="7">
         <v>1050</v>
       </c>
-      <c r="M88" s="7" t="s">
+      <c r="N88" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N88" s="7">
+      <c r="O88" s="7">
         <v>2478</v>
       </c>
-      <c r="O88" s="7">
+      <c r="P88" s="7">
         <v>260190</v>
       </c>
-      <c r="P88" s="7">
+      <c r="Q88" s="7">
         <v>2601900</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
         <v>238</v>
       </c>
@@ -11934,46 +12309,49 @@
         <v>82</v>
       </c>
       <c r="D89" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="F89" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F89" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G89" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H89" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I89" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="J89" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J89" s="7">
+      <c r="K89" s="7">
         <v>20</v>
       </c>
-      <c r="K89" s="7">
+      <c r="L89" s="7">
         <v>146</v>
       </c>
-      <c r="L89" s="7">
+      <c r="M89" s="7">
         <v>2920</v>
       </c>
-      <c r="M89" s="7" t="s">
+      <c r="N89" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N89" s="7">
+      <c r="O89" s="7">
         <v>3603</v>
       </c>
-      <c r="O89" s="7">
+      <c r="P89" s="7">
         <v>526038</v>
       </c>
-      <c r="P89" s="7">
+      <c r="Q89" s="7">
         <v>10520760</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A90" s="7" t="s">
         <v>240</v>
       </c>
@@ -11984,14 +12362,14 @@
         <v>50</v>
       </c>
       <c r="D90" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E90" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="F90" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G90" s="7" t="s">
         <v>292</v>
       </c>
@@ -11999,31 +12377,34 @@
         <v>292</v>
       </c>
       <c r="I90" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J90" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J90" s="7">
+      <c r="K90" s="7">
         <v>10</v>
       </c>
-      <c r="K90" s="7">
+      <c r="L90" s="7">
         <v>119</v>
       </c>
-      <c r="L90" s="7">
+      <c r="M90" s="7">
         <v>1190</v>
       </c>
-      <c r="M90" s="7" t="s">
+      <c r="N90" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="N90" s="7">
+      <c r="O90" s="7">
         <v>2760</v>
       </c>
-      <c r="O90" s="7">
+      <c r="P90" s="7">
         <v>328440</v>
       </c>
-      <c r="P90" s="7">
+      <c r="Q90" s="7">
         <v>3284400</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A91" s="7" t="s">
         <v>242</v>
       </c>
@@ -12034,46 +12415,49 @@
         <v>90</v>
       </c>
       <c r="D91" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E91" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="F91" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G91" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H91" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I91" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="J91" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J91" s="7">
+      <c r="K91" s="7">
         <v>19</v>
       </c>
-      <c r="K91" s="7">
+      <c r="L91" s="7">
         <v>119</v>
       </c>
-      <c r="L91" s="7">
+      <c r="M91" s="7">
         <v>2261</v>
       </c>
-      <c r="M91" s="7" t="s">
+      <c r="N91" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="N91" s="7">
+      <c r="O91" s="7">
         <v>2044</v>
       </c>
-      <c r="O91" s="7">
+      <c r="P91" s="7">
         <v>243236</v>
       </c>
-      <c r="P91" s="7">
+      <c r="Q91" s="7">
         <v>4621484</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A92" s="7" t="s">
         <v>244</v>
       </c>
@@ -12084,46 +12468,49 @@
         <v>54</v>
       </c>
       <c r="D92" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="F92" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F92" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G92" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H92" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I92" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="J92" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J92" s="7">
+      <c r="K92" s="7">
         <v>21</v>
       </c>
-      <c r="K92" s="7">
+      <c r="L92" s="7">
         <v>97</v>
       </c>
-      <c r="L92" s="7">
+      <c r="M92" s="7">
         <v>2037</v>
       </c>
-      <c r="M92" s="7" t="s">
+      <c r="N92" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N92" s="7">
+      <c r="O92" s="7">
         <v>4426</v>
       </c>
-      <c r="O92" s="7">
+      <c r="P92" s="7">
         <v>429322</v>
       </c>
-      <c r="P92" s="7">
+      <c r="Q92" s="7">
         <v>9015762</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A93" s="7" t="s">
         <v>246</v>
       </c>
@@ -12134,46 +12521,49 @@
         <v>29</v>
       </c>
       <c r="D93" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="F93" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>288</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I93" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J93" s="7">
+      <c r="K93" s="7">
         <v>6</v>
       </c>
-      <c r="K93" s="7">
+      <c r="L93" s="7">
         <v>132</v>
       </c>
-      <c r="L93" s="7">
+      <c r="M93" s="7">
         <v>792</v>
       </c>
-      <c r="M93" s="7" t="s">
+      <c r="N93" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N93" s="7">
+      <c r="O93" s="7">
         <v>4649</v>
       </c>
-      <c r="O93" s="7">
+      <c r="P93" s="7">
         <v>613668</v>
       </c>
-      <c r="P93" s="7">
+      <c r="Q93" s="7">
         <v>3682008</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A94" s="7" t="s">
         <v>248</v>
       </c>
@@ -12184,46 +12574,49 @@
         <v>70</v>
       </c>
       <c r="D94" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="F94" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F94" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G94" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H94" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I94" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="J94" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J94" s="7">
+      <c r="K94" s="7">
         <v>13</v>
       </c>
-      <c r="K94" s="7">
+      <c r="L94" s="7">
         <v>85</v>
       </c>
-      <c r="L94" s="7">
+      <c r="M94" s="7">
         <v>1105</v>
       </c>
-      <c r="M94" s="7" t="s">
+      <c r="N94" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N94" s="7">
+      <c r="O94" s="7">
         <v>2630</v>
       </c>
-      <c r="O94" s="7">
+      <c r="P94" s="7">
         <v>223550</v>
       </c>
-      <c r="P94" s="7">
+      <c r="Q94" s="7">
         <v>2906150</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
         <v>250</v>
       </c>
@@ -12234,13 +12627,13 @@
         <v>78</v>
       </c>
       <c r="D95" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="F95" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>288</v>
@@ -12249,31 +12642,34 @@
         <v>288</v>
       </c>
       <c r="I95" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J95" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J95" s="7">
+      <c r="K95" s="7">
         <v>12</v>
       </c>
-      <c r="K95" s="7">
+      <c r="L95" s="7">
         <v>130</v>
       </c>
-      <c r="L95" s="7">
+      <c r="M95" s="7">
         <v>1560</v>
       </c>
-      <c r="M95" s="7" t="s">
+      <c r="N95" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N95" s="7">
+      <c r="O95" s="7">
         <v>4307</v>
       </c>
-      <c r="O95" s="7">
+      <c r="P95" s="7">
         <v>559910</v>
       </c>
-      <c r="P95" s="7">
+      <c r="Q95" s="7">
         <v>6718920</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A96" s="7" t="s">
         <v>252</v>
       </c>
@@ -12284,14 +12680,14 @@
         <v>74</v>
       </c>
       <c r="D96" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="F96" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G96" s="7" t="s">
         <v>292</v>
       </c>
@@ -12299,31 +12695,34 @@
         <v>292</v>
       </c>
       <c r="I96" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J96" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J96" s="7">
+      <c r="K96" s="7">
         <v>15</v>
       </c>
-      <c r="K96" s="7">
+      <c r="L96" s="7">
         <v>122</v>
       </c>
-      <c r="L96" s="7">
+      <c r="M96" s="7">
         <v>1830</v>
       </c>
-      <c r="M96" s="7" t="s">
+      <c r="N96" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N96" s="7">
+      <c r="O96" s="7">
         <v>4197</v>
       </c>
-      <c r="O96" s="7">
+      <c r="P96" s="7">
         <v>512034</v>
       </c>
-      <c r="P96" s="7">
+      <c r="Q96" s="7">
         <v>7680510</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A97" s="7" t="s">
         <v>254</v>
       </c>
@@ -12334,46 +12733,49 @@
         <v>102</v>
       </c>
       <c r="D97" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="F97" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G97" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H97" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H97" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="I97" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J97" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J97" s="7">
+      <c r="K97" s="7">
         <v>14</v>
       </c>
-      <c r="K97" s="7">
+      <c r="L97" s="7">
         <v>144</v>
       </c>
-      <c r="L97" s="7">
+      <c r="M97" s="7">
         <v>2016</v>
       </c>
-      <c r="M97" s="7" t="s">
+      <c r="N97" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N97" s="7">
+      <c r="O97" s="7">
         <v>2565</v>
       </c>
-      <c r="O97" s="7">
+      <c r="P97" s="7">
         <v>369360</v>
       </c>
-      <c r="P97" s="7">
+      <c r="Q97" s="7">
         <v>5171040</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A98" s="7" t="s">
         <v>256</v>
       </c>
@@ -12384,46 +12786,49 @@
         <v>99</v>
       </c>
       <c r="D98" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G98" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H98" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I98" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="J98" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J98" s="7">
+      <c r="K98" s="7">
         <v>11</v>
       </c>
-      <c r="K98" s="7">
+      <c r="L98" s="7">
         <v>149</v>
       </c>
-      <c r="L98" s="7">
+      <c r="M98" s="7">
         <v>1639</v>
       </c>
-      <c r="M98" s="7" t="s">
+      <c r="N98" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N98" s="7">
+      <c r="O98" s="7">
         <v>4301</v>
       </c>
-      <c r="O98" s="7">
+      <c r="P98" s="7">
         <v>640849</v>
       </c>
-      <c r="P98" s="7">
+      <c r="Q98" s="7">
         <v>7049339</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A99" s="7" t="s">
         <v>258</v>
       </c>
@@ -12434,46 +12839,49 @@
         <v>46</v>
       </c>
       <c r="D99" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="F99" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G99" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H99" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I99" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="J99" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J99" s="7">
+      <c r="K99" s="7">
         <v>23</v>
       </c>
-      <c r="K99" s="7">
+      <c r="L99" s="7">
         <v>96</v>
       </c>
-      <c r="L99" s="7">
+      <c r="M99" s="7">
         <v>2208</v>
       </c>
-      <c r="M99" s="7" t="s">
+      <c r="N99" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N99" s="7">
+      <c r="O99" s="7">
         <v>4933</v>
       </c>
-      <c r="O99" s="7">
+      <c r="P99" s="7">
         <v>473568</v>
       </c>
-      <c r="P99" s="7">
+      <c r="Q99" s="7">
         <v>10892064</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A100" s="7" t="s">
         <v>260</v>
       </c>
@@ -12484,46 +12892,49 @@
         <v>41</v>
       </c>
       <c r="D100" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E100" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H100" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I100" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J100" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J100" s="7">
+      <c r="K100" s="7">
         <v>16</v>
       </c>
-      <c r="K100" s="7">
+      <c r="L100" s="7">
         <v>92</v>
       </c>
-      <c r="L100" s="7">
+      <c r="M100" s="7">
         <v>1472</v>
       </c>
-      <c r="M100" s="7" t="s">
+      <c r="N100" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N100" s="7">
+      <c r="O100" s="7">
         <v>3616</v>
       </c>
-      <c r="O100" s="7">
+      <c r="P100" s="7">
         <v>332672</v>
       </c>
-      <c r="P100" s="7">
+      <c r="Q100" s="7">
         <v>5322752</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A101" s="7" t="s">
         <v>262</v>
       </c>
@@ -12534,46 +12945,49 @@
         <v>58</v>
       </c>
       <c r="D101" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="F101" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G101" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H101" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I101" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I101" s="7" t="s">
+      <c r="J101" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J101" s="7">
+      <c r="K101" s="7">
         <v>17</v>
       </c>
-      <c r="K101" s="7">
+      <c r="L101" s="7">
         <v>86</v>
       </c>
-      <c r="L101" s="7">
+      <c r="M101" s="7">
         <v>1462</v>
       </c>
-      <c r="M101" s="7" t="s">
+      <c r="N101" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N101" s="7">
+      <c r="O101" s="7">
         <v>2147</v>
       </c>
-      <c r="O101" s="7">
+      <c r="P101" s="7">
         <v>184642</v>
       </c>
-      <c r="P101" s="7">
+      <c r="Q101" s="7">
         <v>3138914</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A102" s="7" t="s">
         <v>264</v>
       </c>
@@ -12584,46 +12998,49 @@
         <v>36</v>
       </c>
       <c r="D102" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="F102" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G102" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H102" s="7" t="s">
         <v>292</v>
       </c>
       <c r="I102" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J102" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J102" s="7">
+      <c r="K102" s="7">
         <v>12</v>
       </c>
-      <c r="K102" s="7">
+      <c r="L102" s="7">
         <v>126</v>
       </c>
-      <c r="L102" s="7">
+      <c r="M102" s="7">
         <v>1512</v>
       </c>
-      <c r="M102" s="7" t="s">
+      <c r="N102" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N102" s="7">
+      <c r="O102" s="7">
         <v>3393</v>
       </c>
-      <c r="O102" s="7">
+      <c r="P102" s="7">
         <v>427518</v>
       </c>
-      <c r="P102" s="7">
+      <c r="Q102" s="7">
         <v>5130216</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A103" s="7" t="s">
         <v>266</v>
       </c>
@@ -12634,46 +13051,49 @@
         <v>66</v>
       </c>
       <c r="D103" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="F103" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G103" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H103" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I103" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I103" s="7" t="s">
+      <c r="J103" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J103" s="7">
+      <c r="K103" s="7">
         <v>14</v>
       </c>
-      <c r="K103" s="7">
+      <c r="L103" s="7">
         <v>149</v>
       </c>
-      <c r="L103" s="7">
+      <c r="M103" s="7">
         <v>2086</v>
       </c>
-      <c r="M103" s="7" t="s">
+      <c r="N103" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N103" s="7">
+      <c r="O103" s="7">
         <v>4722</v>
       </c>
-      <c r="O103" s="7">
+      <c r="P103" s="7">
         <v>703578</v>
       </c>
-      <c r="P103" s="7">
+      <c r="Q103" s="7">
         <v>9850092</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A104" s="7" t="s">
         <v>268</v>
       </c>
@@ -12684,46 +13104,49 @@
         <v>62</v>
       </c>
       <c r="D104" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="F104" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F104" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G104" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H104" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I104" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I104" s="7" t="s">
+      <c r="J104" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J104" s="7">
+      <c r="K104" s="7">
         <v>22</v>
       </c>
-      <c r="K104" s="7">
+      <c r="L104" s="7">
         <v>80</v>
       </c>
-      <c r="L104" s="7">
+      <c r="M104" s="7">
         <v>1760</v>
       </c>
-      <c r="M104" s="7" t="s">
+      <c r="N104" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N104" s="7">
+      <c r="O104" s="7">
         <v>3919</v>
       </c>
-      <c r="O104" s="7">
+      <c r="P104" s="7">
         <v>313520</v>
       </c>
-      <c r="P104" s="7">
+      <c r="Q104" s="7">
         <v>6897440</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A105" s="7" t="s">
         <v>270</v>
       </c>
@@ -12734,46 +13157,49 @@
         <v>21</v>
       </c>
       <c r="D105" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="F105" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F105" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G105" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H105" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H105" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="I105" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J105" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="J105" s="7">
+      <c r="K105" s="7">
         <v>16</v>
       </c>
-      <c r="K105" s="7">
+      <c r="L105" s="7">
         <v>103</v>
       </c>
-      <c r="L105" s="7">
+      <c r="M105" s="7">
         <v>1648</v>
       </c>
-      <c r="M105" s="7" t="s">
+      <c r="N105" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N105" s="7">
+      <c r="O105" s="7">
         <v>2080</v>
       </c>
-      <c r="O105" s="7">
+      <c r="P105" s="7">
         <v>214240</v>
       </c>
-      <c r="P105" s="7">
+      <c r="Q105" s="7">
         <v>3427840</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A106" s="7" t="s">
         <v>272</v>
       </c>
@@ -12784,42 +13210,45 @@
         <v>86</v>
       </c>
       <c r="D106" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="F106" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>288</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I106" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J106" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J106" s="7">
+      <c r="K106" s="7">
         <v>22</v>
       </c>
-      <c r="K106" s="7">
+      <c r="L106" s="7">
         <v>109</v>
       </c>
-      <c r="L106" s="7">
+      <c r="M106" s="7">
         <v>2398</v>
       </c>
-      <c r="M106" s="7" t="s">
+      <c r="N106" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N106" s="7">
+      <c r="O106" s="7">
         <v>2450</v>
       </c>
-      <c r="O106" s="7">
+      <c r="P106" s="7">
         <v>267050</v>
       </c>
-      <c r="P106" s="7">
+      <c r="Q106" s="7">
         <v>5875100</v>
       </c>
     </row>
@@ -12832,7 +13261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0680BAC5-1ACD-41C1-9458-19291FEDF8FA}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/Meta_1_finito_aggiornato .xlsx
+++ b/Meta_1_finito_aggiornato .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simoc\OneDrive\Desktop\Projeck_work_immobiliari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A88006-2261-4412-88D3-28E212F453B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7E13B-8A9D-4444-9C6B-BBC0047A9771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="344">
   <si>
     <t>Piattaforma</t>
   </si>
@@ -1067,6 +1067,9 @@
   </si>
   <si>
     <t>Elisa Grassi</t>
+  </si>
+  <si>
+    <t>Posti auto</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1402,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I114" sqref="I113:I114"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7617,10 +7620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC67A079-19C2-4A59-86D6-8CF4CE5C5C4D}">
-  <dimension ref="A1:Q106"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7629,12 +7632,12 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>273</v>
       </c>
@@ -7663,31 +7666,34 @@
         <v>278</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -7715,32 +7721,35 @@
       <c r="I2" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="7">
+        <v>16</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>13</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>89</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>1157</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>4972</v>
       </c>
-      <c r="P2" s="7">
+      <c r="Q2" s="7">
         <v>442508</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="R2" s="7">
         <v>5752604</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -7768,32 +7777,35 @@
       <c r="I3" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="7">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>18</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>112</v>
       </c>
-      <c r="M3" s="7">
+      <c r="N3" s="7">
         <v>2016</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O3" s="7">
+      <c r="P3" s="7">
         <v>4035</v>
       </c>
-      <c r="P3" s="7">
+      <c r="Q3" s="7">
         <v>451920</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="R3" s="7">
         <v>8134560</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -7821,32 +7833,35 @@
       <c r="I4" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="7">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>13</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>129</v>
       </c>
-      <c r="M4" s="7">
+      <c r="N4" s="7">
         <v>1677</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="7">
         <v>2170</v>
       </c>
-      <c r="P4" s="7">
+      <c r="Q4" s="7">
         <v>279930</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="R4" s="7">
         <v>3639090</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -7874,32 +7889,35 @@
       <c r="I5" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="7">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <v>13</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <v>89</v>
       </c>
-      <c r="M5" s="7">
+      <c r="N5" s="7">
         <v>1157</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <v>3468</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="7">
         <v>308652</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="R5" s="7">
         <v>4012476</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>44</v>
       </c>
@@ -7927,32 +7945,35 @@
       <c r="I6" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="7">
+        <v>13</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>11</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>95</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>1045</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>4487</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="7">
         <v>426265</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="R6" s="7">
         <v>4688915</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
@@ -7980,32 +8001,35 @@
       <c r="I7" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="7">
+        <v>17</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>6</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>106</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="7">
         <v>636</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>4271</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <v>452726</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="R7" s="7">
         <v>2716356</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
@@ -8033,32 +8057,35 @@
       <c r="I8" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="7">
+        <v>8</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <v>22</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>122</v>
       </c>
-      <c r="M8" s="7">
+      <c r="N8" s="7">
         <v>2684</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <v>3161</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <v>385642</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="R8" s="7">
         <v>8484124</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
@@ -8086,32 +8113,35 @@
       <c r="I9" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="7">
+        <v>14</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <v>19</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>133</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N9" s="7">
         <v>2527</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>4460</v>
       </c>
-      <c r="P9" s="7">
+      <c r="Q9" s="7">
         <v>593180</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="R9" s="7">
         <v>11270420</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
@@ -8139,32 +8169,35 @@
       <c r="I10" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="7">
+        <v>9</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K10" s="7">
+      <c r="L10" s="7">
         <v>16</v>
       </c>
-      <c r="L10" s="7">
+      <c r="M10" s="7">
         <v>82</v>
       </c>
-      <c r="M10" s="7">
+      <c r="N10" s="7">
         <v>1312</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <v>4802</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="7">
         <v>393764</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="R10" s="7">
         <v>6300224</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>65</v>
       </c>
@@ -8192,32 +8225,35 @@
       <c r="I11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="7">
+        <v>15</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K11" s="7">
+      <c r="L11" s="7">
         <v>6</v>
       </c>
-      <c r="L11" s="7">
+      <c r="M11" s="7">
         <v>117</v>
       </c>
-      <c r="M11" s="7">
+      <c r="N11" s="7">
         <v>702</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O11" s="7">
+      <c r="P11" s="7">
         <v>4986</v>
       </c>
-      <c r="P11" s="7">
+      <c r="Q11" s="7">
         <v>583362</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="R11" s="7">
         <v>3500172</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
@@ -8245,32 +8281,35 @@
       <c r="I12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="7">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K12" s="7">
+      <c r="L12" s="7">
         <v>23</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>121</v>
       </c>
-      <c r="M12" s="7">
+      <c r="N12" s="7">
         <v>2783</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="O12" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O12" s="7">
+      <c r="P12" s="7">
         <v>2997</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="7">
         <v>362637</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="R12" s="7">
         <v>8340651</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -8298,32 +8337,35 @@
       <c r="I13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="7">
+        <v>9</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K13" s="7">
+      <c r="L13" s="7">
         <v>14</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M13" s="7">
         <v>102</v>
       </c>
-      <c r="M13" s="7">
+      <c r="N13" s="7">
         <v>1428</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O13" s="7">
+      <c r="P13" s="7">
         <v>3686</v>
       </c>
-      <c r="P13" s="7">
+      <c r="Q13" s="7">
         <v>375972</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="R13" s="7">
         <v>5263608</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>77</v>
       </c>
@@ -8351,32 +8393,35 @@
       <c r="I14" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="7">
+        <v>13</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K14" s="7">
+      <c r="L14" s="7">
         <v>14</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="7">
         <v>110</v>
       </c>
-      <c r="M14" s="7">
+      <c r="N14" s="7">
         <v>1540</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O14" s="7">
+      <c r="P14" s="7">
         <v>2770</v>
       </c>
-      <c r="P14" s="7">
+      <c r="Q14" s="7">
         <v>304700</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="R14" s="7">
         <v>4265800</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>81</v>
       </c>
@@ -8404,32 +8449,35 @@
       <c r="I15" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="7">
+        <v>2</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K15" s="7">
+      <c r="L15" s="7">
         <v>16</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>88</v>
       </c>
-      <c r="M15" s="7">
+      <c r="N15" s="7">
         <v>1408</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="O15" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O15" s="7">
+      <c r="P15" s="7">
         <v>2796</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Q15" s="7">
         <v>246048</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="R15" s="7">
         <v>3936768</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>85</v>
       </c>
@@ -8457,32 +8505,35 @@
       <c r="I16" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="7">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K16" s="7">
+      <c r="L16" s="7">
         <v>24</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>125</v>
       </c>
-      <c r="M16" s="7">
+      <c r="N16" s="7">
         <v>3000</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="O16" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O16" s="7">
+      <c r="P16" s="7">
         <v>4184</v>
       </c>
-      <c r="P16" s="7">
+      <c r="Q16" s="7">
         <v>523000</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="R16" s="7">
         <v>12552000</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>89</v>
       </c>
@@ -8510,32 +8561,35 @@
       <c r="I17" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="7">
+        <v>2</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K17" s="7">
+      <c r="L17" s="7">
         <v>16</v>
       </c>
-      <c r="L17" s="7">
+      <c r="M17" s="7">
         <v>93</v>
       </c>
-      <c r="M17" s="7">
+      <c r="N17" s="7">
         <v>1488</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="O17" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O17" s="7">
+      <c r="P17" s="7">
         <v>2378</v>
       </c>
-      <c r="P17" s="7">
+      <c r="Q17" s="7">
         <v>221154</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="R17" s="7">
         <v>3538464</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>92</v>
       </c>
@@ -8563,32 +8617,35 @@
       <c r="I18" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="7">
+        <v>18</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K18" s="7">
+      <c r="L18" s="7">
         <v>17</v>
       </c>
-      <c r="L18" s="7">
+      <c r="M18" s="7">
         <v>113</v>
       </c>
-      <c r="M18" s="7">
+      <c r="N18" s="7">
         <v>1921</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="O18" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O18" s="7">
+      <c r="P18" s="7">
         <v>4027</v>
       </c>
-      <c r="P18" s="7">
+      <c r="Q18" s="7">
         <v>455051</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="R18" s="7">
         <v>7735867</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>95</v>
       </c>
@@ -8616,32 +8673,35 @@
       <c r="I19" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="7">
+        <v>6</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K19" s="7">
+      <c r="L19" s="7">
         <v>22</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M19" s="7">
         <v>93</v>
       </c>
-      <c r="M19" s="7">
+      <c r="N19" s="7">
         <v>2046</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="O19" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O19" s="7">
+      <c r="P19" s="7">
         <v>4042</v>
       </c>
-      <c r="P19" s="7">
+      <c r="Q19" s="7">
         <v>375906</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="R19" s="7">
         <v>8269932</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>98</v>
       </c>
@@ -8669,32 +8729,35 @@
       <c r="I20" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="7">
+        <v>6</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K20" s="7">
+      <c r="L20" s="7">
         <v>9</v>
       </c>
-      <c r="L20" s="7">
+      <c r="M20" s="7">
         <v>145</v>
       </c>
-      <c r="M20" s="7">
+      <c r="N20" s="7">
         <v>1305</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O20" s="7">
+      <c r="P20" s="7">
         <v>3731</v>
       </c>
-      <c r="P20" s="7">
+      <c r="Q20" s="7">
         <v>540995</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="R20" s="7">
         <v>4868955</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>101</v>
       </c>
@@ -8722,32 +8785,35 @@
       <c r="I21" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="7">
+        <v>10</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K21" s="7">
+      <c r="L21" s="7">
         <v>16</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M21" s="7">
         <v>108</v>
       </c>
-      <c r="M21" s="7">
+      <c r="N21" s="7">
         <v>1728</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="O21" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O21" s="7">
+      <c r="P21" s="7">
         <v>4406</v>
       </c>
-      <c r="P21" s="7">
+      <c r="Q21" s="7">
         <v>475848</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="R21" s="7">
         <v>7613568</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>104</v>
       </c>
@@ -8775,32 +8841,35 @@
       <c r="I22" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="7">
+        <v>15</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K22" s="7">
+      <c r="L22" s="7">
         <v>12</v>
       </c>
-      <c r="L22" s="7">
+      <c r="M22" s="7">
         <v>86</v>
       </c>
-      <c r="M22" s="7">
+      <c r="N22" s="7">
         <v>1032</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="O22" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O22" s="7">
+      <c r="P22" s="7">
         <v>2139</v>
       </c>
-      <c r="P22" s="7">
+      <c r="Q22" s="7">
         <v>183954</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="R22" s="7">
         <v>2207448</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>106</v>
       </c>
@@ -8828,32 +8897,35 @@
       <c r="I23" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="7">
+        <v>4</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K23" s="7">
+      <c r="L23" s="7">
         <v>6</v>
       </c>
-      <c r="L23" s="7">
+      <c r="M23" s="7">
         <v>116</v>
       </c>
-      <c r="M23" s="7">
+      <c r="N23" s="7">
         <v>696</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="O23" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O23" s="7">
+      <c r="P23" s="7">
         <v>3609</v>
       </c>
-      <c r="P23" s="7">
+      <c r="Q23" s="7">
         <v>418644</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="R23" s="7">
         <v>2511864</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>108</v>
       </c>
@@ -8881,32 +8953,35 @@
       <c r="I24" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="7">
+        <v>3</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K24" s="7">
+      <c r="L24" s="7">
         <v>9</v>
       </c>
-      <c r="L24" s="7">
+      <c r="M24" s="7">
         <v>121</v>
       </c>
-      <c r="M24" s="7">
+      <c r="N24" s="7">
         <v>1089</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="O24" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O24" s="7">
+      <c r="P24" s="7">
         <v>3910</v>
       </c>
-      <c r="P24" s="7">
+      <c r="Q24" s="7">
         <v>473110</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="R24" s="7">
         <v>4257990</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>110</v>
       </c>
@@ -8934,32 +9009,35 @@
       <c r="I25" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="7">
+        <v>15</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K25" s="7">
+      <c r="L25" s="7">
         <v>12</v>
       </c>
-      <c r="L25" s="7">
+      <c r="M25" s="7">
         <v>95</v>
       </c>
-      <c r="M25" s="7">
+      <c r="N25" s="7">
         <v>1140</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="O25" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O25" s="7">
+      <c r="P25" s="7">
         <v>4572</v>
       </c>
-      <c r="P25" s="7">
+      <c r="Q25" s="7">
         <v>434340</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="R25" s="7">
         <v>5212080</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>112</v>
       </c>
@@ -8987,32 +9065,35 @@
       <c r="I26" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="7">
+        <v>2</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K26" s="7">
+      <c r="L26" s="7">
         <v>8</v>
       </c>
-      <c r="L26" s="7">
+      <c r="M26" s="7">
         <v>134</v>
       </c>
-      <c r="M26" s="7">
+      <c r="N26" s="7">
         <v>1072</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="O26" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O26" s="7">
+      <c r="P26" s="7">
         <v>3637</v>
       </c>
-      <c r="P26" s="7">
+      <c r="Q26" s="7">
         <v>487358</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="R26" s="7">
         <v>3898864</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>114</v>
       </c>
@@ -9040,32 +9121,35 @@
       <c r="I27" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="7">
+        <v>2</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K27" s="7">
+      <c r="L27" s="7">
         <v>12</v>
       </c>
-      <c r="L27" s="7">
+      <c r="M27" s="7">
         <v>125</v>
       </c>
-      <c r="M27" s="7">
+      <c r="N27" s="7">
         <v>1500</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="O27" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O27" s="7">
+      <c r="P27" s="7">
         <v>2740</v>
       </c>
-      <c r="P27" s="7">
+      <c r="Q27" s="7">
         <v>342500</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="R27" s="7">
         <v>4110000</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>116</v>
       </c>
@@ -9093,32 +9177,35 @@
       <c r="I28" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="7">
+        <v>13</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K28" s="7">
+      <c r="L28" s="7">
         <v>14</v>
       </c>
-      <c r="L28" s="7">
+      <c r="M28" s="7">
         <v>119</v>
       </c>
-      <c r="M28" s="7">
+      <c r="N28" s="7">
         <v>1666</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="O28" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O28" s="7">
+      <c r="P28" s="7">
         <v>4863</v>
       </c>
-      <c r="P28" s="7">
+      <c r="Q28" s="7">
         <v>578697</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="R28" s="7">
         <v>8101758</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>118</v>
       </c>
@@ -9146,32 +9233,35 @@
       <c r="I29" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="7">
+        <v>5</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K29" s="7">
+      <c r="L29" s="7">
         <v>15</v>
       </c>
-      <c r="L29" s="7">
+      <c r="M29" s="7">
         <v>87</v>
       </c>
-      <c r="M29" s="7">
+      <c r="N29" s="7">
         <v>1305</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="O29" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O29" s="7">
+      <c r="P29" s="7">
         <v>3399</v>
       </c>
-      <c r="P29" s="7">
+      <c r="Q29" s="7">
         <v>295713</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="R29" s="7">
         <v>4435695</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>120</v>
       </c>
@@ -9199,32 +9289,35 @@
       <c r="I30" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="7">
+        <v>3</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K30" s="7">
+      <c r="L30" s="7">
         <v>6</v>
       </c>
-      <c r="L30" s="7">
+      <c r="M30" s="7">
         <v>122</v>
       </c>
-      <c r="M30" s="7">
+      <c r="N30" s="7">
         <v>732</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="O30" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O30" s="7">
+      <c r="P30" s="7">
         <v>4754</v>
       </c>
-      <c r="P30" s="7">
+      <c r="Q30" s="7">
         <v>579988</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="R30" s="7">
         <v>3479928</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>122</v>
       </c>
@@ -9252,32 +9345,35 @@
       <c r="I31" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="7">
+        <v>11</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K31" s="7">
+      <c r="L31" s="7">
         <v>15</v>
       </c>
-      <c r="L31" s="7">
+      <c r="M31" s="7">
         <v>143</v>
       </c>
-      <c r="M31" s="7">
+      <c r="N31" s="7">
         <v>2145</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="O31" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O31" s="7">
+      <c r="P31" s="7">
         <v>3778</v>
       </c>
-      <c r="P31" s="7">
+      <c r="Q31" s="7">
         <v>540254</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="R31" s="7">
         <v>8103810</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>124</v>
       </c>
@@ -9305,32 +9401,35 @@
       <c r="I32" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="7">
+        <v>4</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K32" s="7">
+      <c r="L32" s="7">
         <v>19</v>
       </c>
-      <c r="L32" s="7">
+      <c r="M32" s="7">
         <v>107</v>
       </c>
-      <c r="M32" s="7">
+      <c r="N32" s="7">
         <v>2033</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="O32" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O32" s="7">
+      <c r="P32" s="7">
         <v>4464</v>
       </c>
-      <c r="P32" s="7">
+      <c r="Q32" s="7">
         <v>477648</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="R32" s="7">
         <v>9075312</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
@@ -9358,32 +9457,35 @@
       <c r="I33" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="7">
+        <v>15</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K33" s="7">
+      <c r="L33" s="7">
         <v>22</v>
       </c>
-      <c r="L33" s="7">
+      <c r="M33" s="7">
         <v>134</v>
       </c>
-      <c r="M33" s="7">
+      <c r="N33" s="7">
         <v>2948</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="O33" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O33" s="7">
+      <c r="P33" s="7">
         <v>2302</v>
       </c>
-      <c r="P33" s="7">
+      <c r="Q33" s="7">
         <v>308468</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="R33" s="7">
         <v>6786296</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>128</v>
       </c>
@@ -9411,32 +9513,35 @@
       <c r="I34" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="7">
+        <v>16</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K34" s="7">
+      <c r="L34" s="7">
         <v>21</v>
       </c>
-      <c r="L34" s="7">
+      <c r="M34" s="7">
         <v>89</v>
       </c>
-      <c r="M34" s="7">
+      <c r="N34" s="7">
         <v>1869</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="O34" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O34" s="7">
+      <c r="P34" s="7">
         <v>2829</v>
       </c>
-      <c r="P34" s="7">
+      <c r="Q34" s="7">
         <v>251781</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="R34" s="7">
         <v>5287401</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>130</v>
       </c>
@@ -9464,32 +9569,35 @@
       <c r="I35" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="7">
+        <v>3</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K35" s="7">
+      <c r="L35" s="7">
         <v>10</v>
       </c>
-      <c r="L35" s="7">
+      <c r="M35" s="7">
         <v>84</v>
       </c>
-      <c r="M35" s="7">
+      <c r="N35" s="7">
         <v>840</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="O35" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O35" s="7">
+      <c r="P35" s="7">
         <v>4437</v>
       </c>
-      <c r="P35" s="7">
+      <c r="Q35" s="7">
         <v>372708</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="R35" s="7">
         <v>3727080</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>132</v>
       </c>
@@ -9517,32 +9625,35 @@
       <c r="I36" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="7">
+        <v>13</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K36" s="7">
+      <c r="L36" s="7">
         <v>18</v>
       </c>
-      <c r="L36" s="7">
+      <c r="M36" s="7">
         <v>135</v>
       </c>
-      <c r="M36" s="7">
+      <c r="N36" s="7">
         <v>2430</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="O36" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O36" s="7">
+      <c r="P36" s="7">
         <v>2675</v>
       </c>
-      <c r="P36" s="7">
+      <c r="Q36" s="7">
         <v>361125</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="R36" s="7">
         <v>6500250</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>134</v>
       </c>
@@ -9570,32 +9681,35 @@
       <c r="I37" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="7">
+        <v>13</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K37" s="7">
+      <c r="L37" s="7">
         <v>14</v>
       </c>
-      <c r="L37" s="7">
+      <c r="M37" s="7">
         <v>118</v>
       </c>
-      <c r="M37" s="7">
+      <c r="N37" s="7">
         <v>1652</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="O37" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O37" s="7">
+      <c r="P37" s="7">
         <v>3775</v>
       </c>
-      <c r="P37" s="7">
+      <c r="Q37" s="7">
         <v>445450</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="R37" s="7">
         <v>6236300</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>136</v>
       </c>
@@ -9623,32 +9737,35 @@
       <c r="I38" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="7">
+        <v>12</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K38" s="7">
+      <c r="L38" s="7">
         <v>15</v>
       </c>
-      <c r="L38" s="7">
+      <c r="M38" s="7">
         <v>100</v>
       </c>
-      <c r="M38" s="7">
+      <c r="N38" s="7">
         <v>1500</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="O38" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O38" s="7">
+      <c r="P38" s="7">
         <v>4358</v>
       </c>
-      <c r="P38" s="7">
+      <c r="Q38" s="7">
         <v>435800</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="R38" s="7">
         <v>6537000</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>138</v>
       </c>
@@ -9676,32 +9793,35 @@
       <c r="I39" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="7">
+        <v>15</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K39" s="7">
+      <c r="L39" s="7">
         <v>20</v>
       </c>
-      <c r="L39" s="7">
+      <c r="M39" s="7">
         <v>85</v>
       </c>
-      <c r="M39" s="7">
+      <c r="N39" s="7">
         <v>1700</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="O39" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O39" s="7">
+      <c r="P39" s="7">
         <v>3049</v>
       </c>
-      <c r="P39" s="7">
+      <c r="Q39" s="7">
         <v>259165</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="R39" s="7">
         <v>5183300</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>140</v>
       </c>
@@ -9729,32 +9849,35 @@
       <c r="I40" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="7">
+        <v>16</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K40" s="7">
+      <c r="L40" s="7">
         <v>7</v>
       </c>
-      <c r="L40" s="7">
+      <c r="M40" s="7">
         <v>131</v>
       </c>
-      <c r="M40" s="7">
+      <c r="N40" s="7">
         <v>917</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="O40" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O40" s="7">
+      <c r="P40" s="7">
         <v>4950</v>
       </c>
-      <c r="P40" s="7">
+      <c r="Q40" s="7">
         <v>648450</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="R40" s="7">
         <v>4539150</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
         <v>142</v>
       </c>
@@ -9782,32 +9905,35 @@
       <c r="I41" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="7">
+        <v>2</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K41" s="7">
+      <c r="L41" s="7">
         <v>8</v>
       </c>
-      <c r="L41" s="7">
+      <c r="M41" s="7">
         <v>82</v>
       </c>
-      <c r="M41" s="7">
+      <c r="N41" s="7">
         <v>656</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="O41" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="O41" s="7">
+      <c r="P41" s="7">
         <v>3831</v>
       </c>
-      <c r="P41" s="7">
+      <c r="Q41" s="7">
         <v>314142</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="R41" s="7">
         <v>2513136</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
         <v>144</v>
       </c>
@@ -9835,32 +9961,35 @@
       <c r="I42" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="7">
+        <v>9</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K42" s="7">
+      <c r="L42" s="7">
         <v>13</v>
       </c>
-      <c r="L42" s="7">
+      <c r="M42" s="7">
         <v>131</v>
       </c>
-      <c r="M42" s="7">
+      <c r="N42" s="7">
         <v>1703</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="O42" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O42" s="7">
+      <c r="P42" s="7">
         <v>2440</v>
       </c>
-      <c r="P42" s="7">
+      <c r="Q42" s="7">
         <v>319640</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="R42" s="7">
         <v>4155320</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>146</v>
       </c>
@@ -9888,32 +10017,35 @@
       <c r="I43" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="7">
+        <v>12</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K43" s="7">
+      <c r="L43" s="7">
         <v>18</v>
       </c>
-      <c r="L43" s="7">
+      <c r="M43" s="7">
         <v>92</v>
       </c>
-      <c r="M43" s="7">
+      <c r="N43" s="7">
         <v>1656</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="O43" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O43" s="7">
+      <c r="P43" s="7">
         <v>4902</v>
       </c>
-      <c r="P43" s="7">
+      <c r="Q43" s="7">
         <v>450984</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="R43" s="7">
         <v>8117712</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>148</v>
       </c>
@@ -9941,32 +10073,35 @@
       <c r="I44" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="7">
+        <v>13</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K44" s="7">
+      <c r="L44" s="7">
         <v>18</v>
       </c>
-      <c r="L44" s="7">
+      <c r="M44" s="7">
         <v>82</v>
       </c>
-      <c r="M44" s="7">
+      <c r="N44" s="7">
         <v>1476</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="O44" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O44" s="7">
+      <c r="P44" s="7">
         <v>4578</v>
       </c>
-      <c r="P44" s="7">
+      <c r="Q44" s="7">
         <v>375396</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="R44" s="7">
         <v>6757128</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>150</v>
       </c>
@@ -9994,32 +10129,35 @@
       <c r="I45" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="7">
+        <v>17</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K45" s="7">
+      <c r="L45" s="7">
         <v>10</v>
       </c>
-      <c r="L45" s="7">
+      <c r="M45" s="7">
         <v>133</v>
       </c>
-      <c r="M45" s="7">
+      <c r="N45" s="7">
         <v>1330</v>
       </c>
-      <c r="N45" s="7" t="s">
+      <c r="O45" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O45" s="7">
+      <c r="P45" s="7">
         <v>4648</v>
       </c>
-      <c r="P45" s="7">
+      <c r="Q45" s="7">
         <v>618184</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="R45" s="7">
         <v>6181840</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>152</v>
       </c>
@@ -10047,32 +10185,35 @@
       <c r="I46" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="7">
+        <v>18</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K46" s="7">
+      <c r="L46" s="7">
         <v>14</v>
       </c>
-      <c r="L46" s="7">
+      <c r="M46" s="7">
         <v>87</v>
       </c>
-      <c r="M46" s="7">
+      <c r="N46" s="7">
         <v>1218</v>
       </c>
-      <c r="N46" s="7" t="s">
+      <c r="O46" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O46" s="7">
+      <c r="P46" s="7">
         <v>3508</v>
       </c>
-      <c r="P46" s="7">
+      <c r="Q46" s="7">
         <v>305196</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="R46" s="7">
         <v>4272744</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
         <v>154</v>
       </c>
@@ -10100,32 +10241,35 @@
       <c r="I47" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="7">
+        <v>10</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K47" s="7">
+      <c r="L47" s="7">
         <v>9</v>
       </c>
-      <c r="L47" s="7">
+      <c r="M47" s="7">
         <v>94</v>
       </c>
-      <c r="M47" s="7">
+      <c r="N47" s="7">
         <v>846</v>
       </c>
-      <c r="N47" s="7" t="s">
+      <c r="O47" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O47" s="7">
+      <c r="P47" s="7">
         <v>4108</v>
       </c>
-      <c r="P47" s="7">
+      <c r="Q47" s="7">
         <v>386152</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="R47" s="7">
         <v>3475368</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>156</v>
       </c>
@@ -10153,32 +10297,35 @@
       <c r="I48" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="7">
+        <v>10</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K48" s="7">
+      <c r="L48" s="7">
         <v>16</v>
       </c>
-      <c r="L48" s="7">
+      <c r="M48" s="7">
         <v>105</v>
       </c>
-      <c r="M48" s="7">
+      <c r="N48" s="7">
         <v>1680</v>
       </c>
-      <c r="N48" s="7" t="s">
+      <c r="O48" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O48" s="7">
+      <c r="P48" s="7">
         <v>4520</v>
       </c>
-      <c r="P48" s="7">
+      <c r="Q48" s="7">
         <v>474600</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="R48" s="7">
         <v>7593600</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>158</v>
       </c>
@@ -10206,32 +10353,35 @@
       <c r="I49" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="7">
+        <v>17</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K49" s="7">
+      <c r="L49" s="7">
         <v>10</v>
       </c>
-      <c r="L49" s="7">
+      <c r="M49" s="7">
         <v>89</v>
       </c>
-      <c r="M49" s="7">
+      <c r="N49" s="7">
         <v>890</v>
       </c>
-      <c r="N49" s="7" t="s">
+      <c r="O49" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O49" s="7">
+      <c r="P49" s="7">
         <v>2478</v>
       </c>
-      <c r="P49" s="7">
+      <c r="Q49" s="7">
         <v>220542</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="R49" s="7">
         <v>2205420</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>160</v>
       </c>
@@ -10259,32 +10409,35 @@
       <c r="I50" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="7">
+        <v>17</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K50" s="7">
+      <c r="L50" s="7">
         <v>15</v>
       </c>
-      <c r="L50" s="7">
+      <c r="M50" s="7">
         <v>82</v>
       </c>
-      <c r="M50" s="7">
+      <c r="N50" s="7">
         <v>1230</v>
       </c>
-      <c r="N50" s="7" t="s">
+      <c r="O50" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="O50" s="7">
+      <c r="P50" s="7">
         <v>2979</v>
       </c>
-      <c r="P50" s="7">
+      <c r="Q50" s="7">
         <v>244278</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="R50" s="7">
         <v>3664170</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>162</v>
       </c>
@@ -10312,32 +10465,35 @@
       <c r="I51" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" s="7">
+        <v>4</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K51" s="7">
+      <c r="L51" s="7">
         <v>6</v>
       </c>
-      <c r="L51" s="7">
+      <c r="M51" s="7">
         <v>104</v>
       </c>
-      <c r="M51" s="7">
+      <c r="N51" s="7">
         <v>624</v>
       </c>
-      <c r="N51" s="7" t="s">
+      <c r="O51" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O51" s="7">
+      <c r="P51" s="7">
         <v>3271</v>
       </c>
-      <c r="P51" s="7">
+      <c r="Q51" s="7">
         <v>340184</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="R51" s="7">
         <v>2041104</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
         <v>164</v>
       </c>
@@ -10365,32 +10521,35 @@
       <c r="I52" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="7">
+        <v>3</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K52" s="7">
+      <c r="L52" s="7">
         <v>6</v>
       </c>
-      <c r="L52" s="7">
+      <c r="M52" s="7">
         <v>82</v>
       </c>
-      <c r="M52" s="7">
+      <c r="N52" s="7">
         <v>492</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="O52" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O52" s="7">
+      <c r="P52" s="7">
         <v>3581</v>
       </c>
-      <c r="P52" s="7">
+      <c r="Q52" s="7">
         <v>293642</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="R52" s="7">
         <v>1761852</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
         <v>166</v>
       </c>
@@ -10418,32 +10577,35 @@
       <c r="I53" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="7">
+        <v>5</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K53" s="7">
+      <c r="L53" s="7">
         <v>14</v>
       </c>
-      <c r="L53" s="7">
+      <c r="M53" s="7">
         <v>107</v>
       </c>
-      <c r="M53" s="7">
+      <c r="N53" s="7">
         <v>1498</v>
       </c>
-      <c r="N53" s="7" t="s">
+      <c r="O53" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O53" s="7">
+      <c r="P53" s="7">
         <v>3906</v>
       </c>
-      <c r="P53" s="7">
+      <c r="Q53" s="7">
         <v>417942</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="R53" s="7">
         <v>5851188</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
         <v>168</v>
       </c>
@@ -10471,32 +10633,35 @@
       <c r="I54" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="7">
+        <v>3</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K54" s="7">
+      <c r="L54" s="7">
         <v>12</v>
       </c>
-      <c r="L54" s="7">
+      <c r="M54" s="7">
         <v>81</v>
       </c>
-      <c r="M54" s="7">
+      <c r="N54" s="7">
         <v>972</v>
       </c>
-      <c r="N54" s="7" t="s">
+      <c r="O54" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O54" s="7">
+      <c r="P54" s="7">
         <v>3508</v>
       </c>
-      <c r="P54" s="7">
+      <c r="Q54" s="7">
         <v>284148</v>
       </c>
-      <c r="Q54" s="7">
+      <c r="R54" s="7">
         <v>3409776</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
         <v>170</v>
       </c>
@@ -10524,32 +10689,35 @@
       <c r="I55" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" s="7">
+        <v>7</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K55" s="7">
+      <c r="L55" s="7">
         <v>6</v>
       </c>
-      <c r="L55" s="7">
+      <c r="M55" s="7">
         <v>89</v>
       </c>
-      <c r="M55" s="7">
+      <c r="N55" s="7">
         <v>534</v>
       </c>
-      <c r="N55" s="7" t="s">
+      <c r="O55" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O55" s="7">
+      <c r="P55" s="7">
         <v>3505</v>
       </c>
-      <c r="P55" s="7">
+      <c r="Q55" s="7">
         <v>311945</v>
       </c>
-      <c r="Q55" s="7">
+      <c r="R55" s="7">
         <v>1871670</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
         <v>172</v>
       </c>
@@ -10577,32 +10745,35 @@
       <c r="I56" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="7">
+        <v>13</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K56" s="7">
+      <c r="L56" s="7">
         <v>15</v>
       </c>
-      <c r="L56" s="7">
+      <c r="M56" s="7">
         <v>125</v>
       </c>
-      <c r="M56" s="7">
+      <c r="N56" s="7">
         <v>1875</v>
       </c>
-      <c r="N56" s="7" t="s">
+      <c r="O56" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O56" s="7">
+      <c r="P56" s="7">
         <v>2589</v>
       </c>
-      <c r="P56" s="7">
+      <c r="Q56" s="7">
         <v>323625</v>
       </c>
-      <c r="Q56" s="7">
+      <c r="R56" s="7">
         <v>4854375</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
         <v>174</v>
       </c>
@@ -10630,32 +10801,35 @@
       <c r="I57" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="7">
+        <v>15</v>
+      </c>
+      <c r="K57" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K57" s="7">
+      <c r="L57" s="7">
         <v>11</v>
       </c>
-      <c r="L57" s="7">
+      <c r="M57" s="7">
         <v>135</v>
       </c>
-      <c r="M57" s="7">
+      <c r="N57" s="7">
         <v>1485</v>
       </c>
-      <c r="N57" s="7" t="s">
+      <c r="O57" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O57" s="7">
+      <c r="P57" s="7">
         <v>4351</v>
       </c>
-      <c r="P57" s="7">
+      <c r="Q57" s="7">
         <v>587385</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="R57" s="7">
         <v>6461235</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
         <v>176</v>
       </c>
@@ -10683,32 +10857,35 @@
       <c r="I58" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="J58" s="7">
+        <v>10</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K58" s="7">
+      <c r="L58" s="7">
         <v>11</v>
       </c>
-      <c r="L58" s="7">
+      <c r="M58" s="7">
         <v>97</v>
       </c>
-      <c r="M58" s="7">
+      <c r="N58" s="7">
         <v>1067</v>
       </c>
-      <c r="N58" s="7" t="s">
+      <c r="O58" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O58" s="7">
+      <c r="P58" s="7">
         <v>4433</v>
       </c>
-      <c r="P58" s="7">
+      <c r="Q58" s="7">
         <v>430001</v>
       </c>
-      <c r="Q58" s="7">
+      <c r="R58" s="7">
         <v>4730011</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>178</v>
       </c>
@@ -10736,32 +10913,35 @@
       <c r="I59" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J59" s="7">
+        <v>7</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K59" s="7">
+      <c r="L59" s="7">
         <v>18</v>
       </c>
-      <c r="L59" s="7">
+      <c r="M59" s="7">
         <v>132</v>
       </c>
-      <c r="M59" s="7">
+      <c r="N59" s="7">
         <v>2376</v>
       </c>
-      <c r="N59" s="7" t="s">
+      <c r="O59" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O59" s="7">
+      <c r="P59" s="7">
         <v>2939</v>
       </c>
-      <c r="P59" s="7">
+      <c r="Q59" s="7">
         <v>387948</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="R59" s="7">
         <v>6983064</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>180</v>
       </c>
@@ -10789,32 +10969,35 @@
       <c r="I60" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="7">
+        <v>8</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K60" s="7">
+      <c r="L60" s="7">
         <v>9</v>
       </c>
-      <c r="L60" s="7">
+      <c r="M60" s="7">
         <v>85</v>
       </c>
-      <c r="M60" s="7">
+      <c r="N60" s="7">
         <v>765</v>
       </c>
-      <c r="N60" s="7" t="s">
+      <c r="O60" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O60" s="7">
+      <c r="P60" s="7">
         <v>4005</v>
       </c>
-      <c r="P60" s="7">
+      <c r="Q60" s="7">
         <v>340425</v>
       </c>
-      <c r="Q60" s="7">
+      <c r="R60" s="7">
         <v>3063825</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
         <v>182</v>
       </c>
@@ -10842,32 +11025,35 @@
       <c r="I61" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J61" s="7">
+        <v>7</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K61" s="7">
+      <c r="L61" s="7">
         <v>17</v>
       </c>
-      <c r="L61" s="7">
+      <c r="M61" s="7">
         <v>102</v>
       </c>
-      <c r="M61" s="7">
+      <c r="N61" s="7">
         <v>1734</v>
       </c>
-      <c r="N61" s="7" t="s">
+      <c r="O61" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O61" s="7">
+      <c r="P61" s="7">
         <v>2306</v>
       </c>
-      <c r="P61" s="7">
+      <c r="Q61" s="7">
         <v>235212</v>
       </c>
-      <c r="Q61" s="7">
+      <c r="R61" s="7">
         <v>3998604</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
         <v>184</v>
       </c>
@@ -10895,32 +11081,35 @@
       <c r="I62" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J62" s="7">
+        <v>15</v>
+      </c>
+      <c r="K62" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K62" s="7">
+      <c r="L62" s="7">
         <v>7</v>
       </c>
-      <c r="L62" s="7">
+      <c r="M62" s="7">
         <v>82</v>
       </c>
-      <c r="M62" s="7">
+      <c r="N62" s="7">
         <v>574</v>
       </c>
-      <c r="N62" s="7" t="s">
+      <c r="O62" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O62" s="7">
+      <c r="P62" s="7">
         <v>3552</v>
       </c>
-      <c r="P62" s="7">
+      <c r="Q62" s="7">
         <v>291264</v>
       </c>
-      <c r="Q62" s="7">
+      <c r="R62" s="7">
         <v>2038848</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>186</v>
       </c>
@@ -10948,32 +11137,35 @@
       <c r="I63" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="J63" s="7">
+        <v>11</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K63" s="7">
+      <c r="L63" s="7">
         <v>21</v>
       </c>
-      <c r="L63" s="7">
+      <c r="M63" s="7">
         <v>104</v>
       </c>
-      <c r="M63" s="7">
+      <c r="N63" s="7">
         <v>2184</v>
       </c>
-      <c r="N63" s="7" t="s">
+      <c r="O63" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O63" s="7">
+      <c r="P63" s="7">
         <v>4098</v>
       </c>
-      <c r="P63" s="7">
+      <c r="Q63" s="7">
         <v>426192</v>
       </c>
-      <c r="Q63" s="7">
+      <c r="R63" s="7">
         <v>8950032</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
         <v>188</v>
       </c>
@@ -11001,32 +11193,35 @@
       <c r="I64" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="7">
+        <v>3</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K64" s="7">
+      <c r="L64" s="7">
         <v>7</v>
       </c>
-      <c r="L64" s="7">
+      <c r="M64" s="7">
         <v>97</v>
       </c>
-      <c r="M64" s="7">
+      <c r="N64" s="7">
         <v>679</v>
       </c>
-      <c r="N64" s="7" t="s">
+      <c r="O64" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O64" s="7">
+      <c r="P64" s="7">
         <v>4050</v>
       </c>
-      <c r="P64" s="7">
+      <c r="Q64" s="7">
         <v>392850</v>
       </c>
-      <c r="Q64" s="7">
+      <c r="R64" s="7">
         <v>2749950</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
         <v>190</v>
       </c>
@@ -11054,32 +11249,35 @@
       <c r="I65" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="7">
+        <v>15</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K65" s="7">
+      <c r="L65" s="7">
         <v>21</v>
       </c>
-      <c r="L65" s="7">
+      <c r="M65" s="7">
         <v>111</v>
       </c>
-      <c r="M65" s="7">
+      <c r="N65" s="7">
         <v>2331</v>
       </c>
-      <c r="N65" s="7" t="s">
+      <c r="O65" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O65" s="7">
+      <c r="P65" s="7">
         <v>4479</v>
       </c>
-      <c r="P65" s="7">
+      <c r="Q65" s="7">
         <v>497169</v>
       </c>
-      <c r="Q65" s="7">
+      <c r="R65" s="7">
         <v>10440549</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66" s="7" t="s">
         <v>192</v>
       </c>
@@ -11107,32 +11305,35 @@
       <c r="I66" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="J66" s="7">
+        <v>5</v>
+      </c>
+      <c r="K66" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K66" s="7">
+      <c r="L66" s="7">
         <v>17</v>
       </c>
-      <c r="L66" s="7">
+      <c r="M66" s="7">
         <v>138</v>
       </c>
-      <c r="M66" s="7">
+      <c r="N66" s="7">
         <v>2346</v>
       </c>
-      <c r="N66" s="7" t="s">
+      <c r="O66" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O66" s="7">
+      <c r="P66" s="7">
         <v>4651</v>
       </c>
-      <c r="P66" s="7">
+      <c r="Q66" s="7">
         <v>641838</v>
       </c>
-      <c r="Q66" s="7">
+      <c r="R66" s="7">
         <v>10911246</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67" s="7" t="s">
         <v>194</v>
       </c>
@@ -11160,32 +11361,35 @@
       <c r="I67" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J67" s="7">
+        <v>17</v>
+      </c>
+      <c r="K67" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K67" s="7">
+      <c r="L67" s="7">
         <v>24</v>
       </c>
-      <c r="L67" s="7">
+      <c r="M67" s="7">
         <v>103</v>
       </c>
-      <c r="M67" s="7">
+      <c r="N67" s="7">
         <v>2472</v>
       </c>
-      <c r="N67" s="7" t="s">
+      <c r="O67" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="O67" s="7">
+      <c r="P67" s="7">
         <v>2706</v>
       </c>
-      <c r="P67" s="7">
+      <c r="Q67" s="7">
         <v>278718</v>
       </c>
-      <c r="Q67" s="7">
+      <c r="R67" s="7">
         <v>6689232</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68" s="7" t="s">
         <v>196</v>
       </c>
@@ -11213,32 +11417,35 @@
       <c r="I68" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="J68" s="7">
+        <v>13</v>
+      </c>
+      <c r="K68" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K68" s="7">
+      <c r="L68" s="7">
         <v>8</v>
       </c>
-      <c r="L68" s="7">
+      <c r="M68" s="7">
         <v>129</v>
       </c>
-      <c r="M68" s="7">
+      <c r="N68" s="7">
         <v>1032</v>
       </c>
-      <c r="N68" s="7" t="s">
+      <c r="O68" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O68" s="7">
+      <c r="P68" s="7">
         <v>2292</v>
       </c>
-      <c r="P68" s="7">
+      <c r="Q68" s="7">
         <v>295668</v>
       </c>
-      <c r="Q68" s="7">
+      <c r="R68" s="7">
         <v>2365344</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A69" s="7" t="s">
         <v>198</v>
       </c>
@@ -11266,32 +11473,35 @@
       <c r="I69" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J69" s="7">
+        <v>15</v>
+      </c>
+      <c r="K69" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K69" s="7">
+      <c r="L69" s="7">
         <v>8</v>
       </c>
-      <c r="L69" s="7">
+      <c r="M69" s="7">
         <v>133</v>
       </c>
-      <c r="M69" s="7">
+      <c r="N69" s="7">
         <v>1064</v>
       </c>
-      <c r="N69" s="7" t="s">
+      <c r="O69" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O69" s="7">
+      <c r="P69" s="7">
         <v>2385</v>
       </c>
-      <c r="P69" s="7">
+      <c r="Q69" s="7">
         <v>317205</v>
       </c>
-      <c r="Q69" s="7">
+      <c r="R69" s="7">
         <v>2537640</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
         <v>200</v>
       </c>
@@ -11319,32 +11529,35 @@
       <c r="I70" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="7">
+        <v>11</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K70" s="7">
+      <c r="L70" s="7">
         <v>14</v>
       </c>
-      <c r="L70" s="7">
+      <c r="M70" s="7">
         <v>120</v>
       </c>
-      <c r="M70" s="7">
+      <c r="N70" s="7">
         <v>1680</v>
       </c>
-      <c r="N70" s="7" t="s">
+      <c r="O70" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O70" s="7">
+      <c r="P70" s="7">
         <v>2896</v>
       </c>
-      <c r="P70" s="7">
+      <c r="Q70" s="7">
         <v>347520</v>
       </c>
-      <c r="Q70" s="7">
+      <c r="R70" s="7">
         <v>4865280</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
         <v>202</v>
       </c>
@@ -11372,32 +11585,35 @@
       <c r="I71" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="J71" s="7">
+        <v>7</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K71" s="7">
+      <c r="L71" s="7">
         <v>14</v>
       </c>
-      <c r="L71" s="7">
+      <c r="M71" s="7">
         <v>113</v>
       </c>
-      <c r="M71" s="7">
+      <c r="N71" s="7">
         <v>1582</v>
       </c>
-      <c r="N71" s="7" t="s">
+      <c r="O71" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O71" s="7">
+      <c r="P71" s="7">
         <v>4299</v>
       </c>
-      <c r="P71" s="7">
+      <c r="Q71" s="7">
         <v>485787</v>
       </c>
-      <c r="Q71" s="7">
+      <c r="R71" s="7">
         <v>6801018</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
         <v>204</v>
       </c>
@@ -11425,32 +11641,35 @@
       <c r="I72" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="J72" s="7">
+        <v>10</v>
+      </c>
+      <c r="K72" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K72" s="7">
+      <c r="L72" s="7">
         <v>9</v>
       </c>
-      <c r="L72" s="7">
+      <c r="M72" s="7">
         <v>121</v>
       </c>
-      <c r="M72" s="7">
+      <c r="N72" s="7">
         <v>1089</v>
       </c>
-      <c r="N72" s="7" t="s">
+      <c r="O72" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O72" s="7">
+      <c r="P72" s="7">
         <v>2779</v>
       </c>
-      <c r="P72" s="7">
+      <c r="Q72" s="7">
         <v>336259</v>
       </c>
-      <c r="Q72" s="7">
+      <c r="R72" s="7">
         <v>3026331</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A73" s="7" t="s">
         <v>206</v>
       </c>
@@ -11478,32 +11697,35 @@
       <c r="I73" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="J73" s="7">
+        <v>2</v>
+      </c>
+      <c r="K73" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K73" s="7">
+      <c r="L73" s="7">
         <v>9</v>
       </c>
-      <c r="L73" s="7">
+      <c r="M73" s="7">
         <v>128</v>
       </c>
-      <c r="M73" s="7">
+      <c r="N73" s="7">
         <v>1152</v>
       </c>
-      <c r="N73" s="7" t="s">
+      <c r="O73" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O73" s="7">
+      <c r="P73" s="7">
         <v>3278</v>
       </c>
-      <c r="P73" s="7">
+      <c r="Q73" s="7">
         <v>419584</v>
       </c>
-      <c r="Q73" s="7">
+      <c r="R73" s="7">
         <v>3776256</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A74" s="7" t="s">
         <v>208</v>
       </c>
@@ -11531,32 +11753,35 @@
       <c r="I74" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J74" s="7">
+        <v>13</v>
+      </c>
+      <c r="K74" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K74" s="7">
+      <c r="L74" s="7">
         <v>20</v>
       </c>
-      <c r="L74" s="7">
+      <c r="M74" s="7">
         <v>118</v>
       </c>
-      <c r="M74" s="7">
+      <c r="N74" s="7">
         <v>2360</v>
       </c>
-      <c r="N74" s="7" t="s">
+      <c r="O74" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O74" s="7">
+      <c r="P74" s="7">
         <v>3978</v>
       </c>
-      <c r="P74" s="7">
+      <c r="Q74" s="7">
         <v>469404</v>
       </c>
-      <c r="Q74" s="7">
+      <c r="R74" s="7">
         <v>9388080</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
         <v>210</v>
       </c>
@@ -11584,32 +11809,35 @@
       <c r="I75" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="7">
+        <v>7</v>
+      </c>
+      <c r="K75" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K75" s="7">
+      <c r="L75" s="7">
         <v>18</v>
       </c>
-      <c r="L75" s="7">
+      <c r="M75" s="7">
         <v>138</v>
       </c>
-      <c r="M75" s="7">
+      <c r="N75" s="7">
         <v>2484</v>
       </c>
-      <c r="N75" s="7" t="s">
+      <c r="O75" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O75" s="7">
+      <c r="P75" s="7">
         <v>2159</v>
       </c>
-      <c r="P75" s="7">
+      <c r="Q75" s="7">
         <v>297942</v>
       </c>
-      <c r="Q75" s="7">
+      <c r="R75" s="7">
         <v>5362956</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A76" s="7" t="s">
         <v>212</v>
       </c>
@@ -11637,32 +11865,35 @@
       <c r="I76" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="7">
+        <v>16</v>
+      </c>
+      <c r="K76" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K76" s="7">
+      <c r="L76" s="7">
         <v>24</v>
       </c>
-      <c r="L76" s="7">
+      <c r="M76" s="7">
         <v>135</v>
       </c>
-      <c r="M76" s="7">
+      <c r="N76" s="7">
         <v>3240</v>
       </c>
-      <c r="N76" s="7" t="s">
+      <c r="O76" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O76" s="7">
+      <c r="P76" s="7">
         <v>3113</v>
       </c>
-      <c r="P76" s="7">
+      <c r="Q76" s="7">
         <v>420255</v>
       </c>
-      <c r="Q76" s="7">
+      <c r="R76" s="7">
         <v>10086120</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
         <v>214</v>
       </c>
@@ -11690,32 +11921,35 @@
       <c r="I77" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="J77" s="7">
+        <v>5</v>
+      </c>
+      <c r="K77" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K77" s="7">
+      <c r="L77" s="7">
         <v>15</v>
       </c>
-      <c r="L77" s="7">
+      <c r="M77" s="7">
         <v>92</v>
       </c>
-      <c r="M77" s="7">
+      <c r="N77" s="7">
         <v>1380</v>
       </c>
-      <c r="N77" s="7" t="s">
+      <c r="O77" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O77" s="7">
+      <c r="P77" s="7">
         <v>3010</v>
       </c>
-      <c r="P77" s="7">
+      <c r="Q77" s="7">
         <v>276920</v>
       </c>
-      <c r="Q77" s="7">
+      <c r="R77" s="7">
         <v>4153800</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
         <v>216</v>
       </c>
@@ -11743,32 +11977,35 @@
       <c r="I78" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="J78" s="7">
+        <v>9</v>
+      </c>
+      <c r="K78" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K78" s="7">
+      <c r="L78" s="7">
         <v>6</v>
       </c>
-      <c r="L78" s="7">
+      <c r="M78" s="7">
         <v>120</v>
       </c>
-      <c r="M78" s="7">
+      <c r="N78" s="7">
         <v>720</v>
       </c>
-      <c r="N78" s="7" t="s">
+      <c r="O78" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O78" s="7">
+      <c r="P78" s="7">
         <v>4232</v>
       </c>
-      <c r="P78" s="7">
+      <c r="Q78" s="7">
         <v>507840</v>
       </c>
-      <c r="Q78" s="7">
+      <c r="R78" s="7">
         <v>3047040</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
         <v>218</v>
       </c>
@@ -11796,32 +12033,35 @@
       <c r="I79" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="J79" s="7">
+        <v>8</v>
+      </c>
+      <c r="K79" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K79" s="7">
+      <c r="L79" s="7">
         <v>6</v>
       </c>
-      <c r="L79" s="7">
+      <c r="M79" s="7">
         <v>141</v>
       </c>
-      <c r="M79" s="7">
+      <c r="N79" s="7">
         <v>846</v>
       </c>
-      <c r="N79" s="7" t="s">
+      <c r="O79" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O79" s="7">
+      <c r="P79" s="7">
         <v>2350</v>
       </c>
-      <c r="P79" s="7">
+      <c r="Q79" s="7">
         <v>331350</v>
       </c>
-      <c r="Q79" s="7">
+      <c r="R79" s="7">
         <v>1988100</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
         <v>220</v>
       </c>
@@ -11849,32 +12089,35 @@
       <c r="I80" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="J80" s="7">
+        <v>10</v>
+      </c>
+      <c r="K80" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K80" s="7">
+      <c r="L80" s="7">
         <v>23</v>
       </c>
-      <c r="L80" s="7">
+      <c r="M80" s="7">
         <v>125</v>
       </c>
-      <c r="M80" s="7">
+      <c r="N80" s="7">
         <v>2875</v>
       </c>
-      <c r="N80" s="7" t="s">
+      <c r="O80" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="O80" s="7">
+      <c r="P80" s="7">
         <v>4341</v>
       </c>
-      <c r="P80" s="7">
+      <c r="Q80" s="7">
         <v>542625</v>
       </c>
-      <c r="Q80" s="7">
+      <c r="R80" s="7">
         <v>12480375</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
         <v>222</v>
       </c>
@@ -11902,32 +12145,35 @@
       <c r="I81" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="J81" s="7">
+        <v>9</v>
+      </c>
+      <c r="K81" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K81" s="7">
+      <c r="L81" s="7">
         <v>10</v>
       </c>
-      <c r="L81" s="7">
+      <c r="M81" s="7">
         <v>128</v>
       </c>
-      <c r="M81" s="7">
+      <c r="N81" s="7">
         <v>1280</v>
       </c>
-      <c r="N81" s="7" t="s">
+      <c r="O81" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="O81" s="7">
+      <c r="P81" s="7">
         <v>4002</v>
       </c>
-      <c r="P81" s="7">
+      <c r="Q81" s="7">
         <v>512256</v>
       </c>
-      <c r="Q81" s="7">
+      <c r="R81" s="7">
         <v>5122560</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A82" s="7" t="s">
         <v>224</v>
       </c>
@@ -11955,32 +12201,35 @@
       <c r="I82" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="J82" s="7">
+        <v>15</v>
+      </c>
+      <c r="K82" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K82" s="7">
+      <c r="L82" s="7">
         <v>6</v>
       </c>
-      <c r="L82" s="7">
+      <c r="M82" s="7">
         <v>131</v>
       </c>
-      <c r="M82" s="7">
+      <c r="N82" s="7">
         <v>786</v>
       </c>
-      <c r="N82" s="7" t="s">
+      <c r="O82" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="O82" s="7">
+      <c r="P82" s="7">
         <v>4018</v>
       </c>
-      <c r="P82" s="7">
+      <c r="Q82" s="7">
         <v>526358</v>
       </c>
-      <c r="Q82" s="7">
+      <c r="R82" s="7">
         <v>3158148</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A83" s="7" t="s">
         <v>226</v>
       </c>
@@ -12008,32 +12257,35 @@
       <c r="I83" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="J83" s="7">
+        <v>8</v>
+      </c>
+      <c r="K83" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K83" s="7">
+      <c r="L83" s="7">
         <v>21</v>
       </c>
-      <c r="L83" s="7">
+      <c r="M83" s="7">
         <v>143</v>
       </c>
-      <c r="M83" s="7">
+      <c r="N83" s="7">
         <v>3003</v>
       </c>
-      <c r="N83" s="7" t="s">
+      <c r="O83" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O83" s="7">
+      <c r="P83" s="7">
         <v>2946</v>
       </c>
-      <c r="P83" s="7">
+      <c r="Q83" s="7">
         <v>421278</v>
       </c>
-      <c r="Q83" s="7">
+      <c r="R83" s="7">
         <v>8846838</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A84" s="7" t="s">
         <v>228</v>
       </c>
@@ -12061,32 +12313,35 @@
       <c r="I84" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="J84" s="7">
+        <v>7</v>
+      </c>
+      <c r="K84" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K84" s="7">
+      <c r="L84" s="7">
         <v>20</v>
       </c>
-      <c r="L84" s="7">
+      <c r="M84" s="7">
         <v>148</v>
       </c>
-      <c r="M84" s="7">
+      <c r="N84" s="7">
         <v>2960</v>
       </c>
-      <c r="N84" s="7" t="s">
+      <c r="O84" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O84" s="7">
+      <c r="P84" s="7">
         <v>2065</v>
       </c>
-      <c r="P84" s="7">
+      <c r="Q84" s="7">
         <v>305620</v>
       </c>
-      <c r="Q84" s="7">
+      <c r="R84" s="7">
         <v>6112400</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A85" s="7" t="s">
         <v>230</v>
       </c>
@@ -12114,32 +12369,35 @@
       <c r="I85" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="7">
+        <v>14</v>
+      </c>
+      <c r="K85" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K85" s="7">
+      <c r="L85" s="7">
         <v>17</v>
       </c>
-      <c r="L85" s="7">
+      <c r="M85" s="7">
         <v>89</v>
       </c>
-      <c r="M85" s="7">
+      <c r="N85" s="7">
         <v>1513</v>
       </c>
-      <c r="N85" s="7" t="s">
+      <c r="O85" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O85" s="7">
+      <c r="P85" s="7">
         <v>4647</v>
       </c>
-      <c r="P85" s="7">
+      <c r="Q85" s="7">
         <v>413583</v>
       </c>
-      <c r="Q85" s="7">
+      <c r="R85" s="7">
         <v>7030911</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
         <v>232</v>
       </c>
@@ -12167,32 +12425,35 @@
       <c r="I86" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="7">
+        <v>12</v>
+      </c>
+      <c r="K86" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K86" s="7">
+      <c r="L86" s="7">
         <v>21</v>
       </c>
-      <c r="L86" s="7">
+      <c r="M86" s="7">
         <v>136</v>
       </c>
-      <c r="M86" s="7">
+      <c r="N86" s="7">
         <v>2856</v>
       </c>
-      <c r="N86" s="7" t="s">
+      <c r="O86" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O86" s="7">
+      <c r="P86" s="7">
         <v>3242</v>
       </c>
-      <c r="P86" s="7">
+      <c r="Q86" s="7">
         <v>440912</v>
       </c>
-      <c r="Q86" s="7">
+      <c r="R86" s="7">
         <v>9259152</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A87" s="7" t="s">
         <v>234</v>
       </c>
@@ -12220,32 +12481,35 @@
       <c r="I87" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="J87" s="7">
+        <v>14</v>
+      </c>
+      <c r="K87" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K87" s="7">
+      <c r="L87" s="7">
         <v>17</v>
       </c>
-      <c r="L87" s="7">
+      <c r="M87" s="7">
         <v>149</v>
       </c>
-      <c r="M87" s="7">
+      <c r="N87" s="7">
         <v>2533</v>
       </c>
-      <c r="N87" s="7" t="s">
+      <c r="O87" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="O87" s="7">
+      <c r="P87" s="7">
         <v>2018</v>
       </c>
-      <c r="P87" s="7">
+      <c r="Q87" s="7">
         <v>300682</v>
       </c>
-      <c r="Q87" s="7">
+      <c r="R87" s="7">
         <v>5111594</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A88" s="7" t="s">
         <v>236</v>
       </c>
@@ -12273,32 +12537,35 @@
       <c r="I88" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" s="7">
+        <v>11</v>
+      </c>
+      <c r="K88" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K88" s="7">
+      <c r="L88" s="7">
         <v>10</v>
       </c>
-      <c r="L88" s="7">
+      <c r="M88" s="7">
         <v>105</v>
       </c>
-      <c r="M88" s="7">
+      <c r="N88" s="7">
         <v>1050</v>
       </c>
-      <c r="N88" s="7" t="s">
+      <c r="O88" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O88" s="7">
+      <c r="P88" s="7">
         <v>2478</v>
       </c>
-      <c r="P88" s="7">
+      <c r="Q88" s="7">
         <v>260190</v>
       </c>
-      <c r="Q88" s="7">
+      <c r="R88" s="7">
         <v>2601900</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
         <v>238</v>
       </c>
@@ -12326,32 +12593,35 @@
       <c r="I89" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J89" s="7">
+        <v>17</v>
+      </c>
+      <c r="K89" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K89" s="7">
+      <c r="L89" s="7">
         <v>20</v>
       </c>
-      <c r="L89" s="7">
+      <c r="M89" s="7">
         <v>146</v>
       </c>
-      <c r="M89" s="7">
+      <c r="N89" s="7">
         <v>2920</v>
       </c>
-      <c r="N89" s="7" t="s">
+      <c r="O89" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O89" s="7">
+      <c r="P89" s="7">
         <v>3603</v>
       </c>
-      <c r="P89" s="7">
+      <c r="Q89" s="7">
         <v>526038</v>
       </c>
-      <c r="Q89" s="7">
+      <c r="R89" s="7">
         <v>10520760</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A90" s="7" t="s">
         <v>240</v>
       </c>
@@ -12379,32 +12649,35 @@
       <c r="I90" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="J90" s="7">
+        <v>3</v>
+      </c>
+      <c r="K90" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K90" s="7">
+      <c r="L90" s="7">
         <v>10</v>
       </c>
-      <c r="L90" s="7">
+      <c r="M90" s="7">
         <v>119</v>
       </c>
-      <c r="M90" s="7">
+      <c r="N90" s="7">
         <v>1190</v>
       </c>
-      <c r="N90" s="7" t="s">
+      <c r="O90" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="O90" s="7">
+      <c r="P90" s="7">
         <v>2760</v>
       </c>
-      <c r="P90" s="7">
+      <c r="Q90" s="7">
         <v>328440</v>
       </c>
-      <c r="Q90" s="7">
+      <c r="R90" s="7">
         <v>3284400</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A91" s="7" t="s">
         <v>242</v>
       </c>
@@ -12432,32 +12705,35 @@
       <c r="I91" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J91" s="7">
+        <v>3</v>
+      </c>
+      <c r="K91" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K91" s="7">
+      <c r="L91" s="7">
         <v>19</v>
       </c>
-      <c r="L91" s="7">
+      <c r="M91" s="7">
         <v>119</v>
       </c>
-      <c r="M91" s="7">
+      <c r="N91" s="7">
         <v>2261</v>
       </c>
-      <c r="N91" s="7" t="s">
+      <c r="O91" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="O91" s="7">
+      <c r="P91" s="7">
         <v>2044</v>
       </c>
-      <c r="P91" s="7">
+      <c r="Q91" s="7">
         <v>243236</v>
       </c>
-      <c r="Q91" s="7">
+      <c r="R91" s="7">
         <v>4621484</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A92" s="7" t="s">
         <v>244</v>
       </c>
@@ -12485,32 +12761,35 @@
       <c r="I92" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="J92" s="7">
+        <v>13</v>
+      </c>
+      <c r="K92" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K92" s="7">
+      <c r="L92" s="7">
         <v>21</v>
       </c>
-      <c r="L92" s="7">
+      <c r="M92" s="7">
         <v>97</v>
       </c>
-      <c r="M92" s="7">
+      <c r="N92" s="7">
         <v>2037</v>
       </c>
-      <c r="N92" s="7" t="s">
+      <c r="O92" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O92" s="7">
+      <c r="P92" s="7">
         <v>4426</v>
       </c>
-      <c r="P92" s="7">
+      <c r="Q92" s="7">
         <v>429322</v>
       </c>
-      <c r="Q92" s="7">
+      <c r="R92" s="7">
         <v>9015762</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A93" s="7" t="s">
         <v>246</v>
       </c>
@@ -12538,32 +12817,35 @@
       <c r="I93" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="7">
+        <v>15</v>
+      </c>
+      <c r="K93" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K93" s="7">
+      <c r="L93" s="7">
         <v>6</v>
       </c>
-      <c r="L93" s="7">
+      <c r="M93" s="7">
         <v>132</v>
       </c>
-      <c r="M93" s="7">
+      <c r="N93" s="7">
         <v>792</v>
       </c>
-      <c r="N93" s="7" t="s">
+      <c r="O93" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O93" s="7">
+      <c r="P93" s="7">
         <v>4649</v>
       </c>
-      <c r="P93" s="7">
+      <c r="Q93" s="7">
         <v>613668</v>
       </c>
-      <c r="Q93" s="7">
+      <c r="R93" s="7">
         <v>3682008</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A94" s="7" t="s">
         <v>248</v>
       </c>
@@ -12591,32 +12873,35 @@
       <c r="I94" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="7">
+        <v>8</v>
+      </c>
+      <c r="K94" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K94" s="7">
+      <c r="L94" s="7">
         <v>13</v>
       </c>
-      <c r="L94" s="7">
+      <c r="M94" s="7">
         <v>85</v>
       </c>
-      <c r="M94" s="7">
+      <c r="N94" s="7">
         <v>1105</v>
       </c>
-      <c r="N94" s="7" t="s">
+      <c r="O94" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O94" s="7">
+      <c r="P94" s="7">
         <v>2630</v>
       </c>
-      <c r="P94" s="7">
+      <c r="Q94" s="7">
         <v>223550</v>
       </c>
-      <c r="Q94" s="7">
+      <c r="R94" s="7">
         <v>2906150</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
         <v>250</v>
       </c>
@@ -12644,32 +12929,35 @@
       <c r="I95" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J95" s="7" t="s">
+      <c r="J95" s="7">
+        <v>2</v>
+      </c>
+      <c r="K95" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K95" s="7">
+      <c r="L95" s="7">
         <v>12</v>
       </c>
-      <c r="L95" s="7">
+      <c r="M95" s="7">
         <v>130</v>
       </c>
-      <c r="M95" s="7">
+      <c r="N95" s="7">
         <v>1560</v>
       </c>
-      <c r="N95" s="7" t="s">
+      <c r="O95" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O95" s="7">
+      <c r="P95" s="7">
         <v>4307</v>
       </c>
-      <c r="P95" s="7">
+      <c r="Q95" s="7">
         <v>559910</v>
       </c>
-      <c r="Q95" s="7">
+      <c r="R95" s="7">
         <v>6718920</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A96" s="7" t="s">
         <v>252</v>
       </c>
@@ -12697,32 +12985,35 @@
       <c r="I96" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J96" s="7" t="s">
+      <c r="J96" s="7">
+        <v>15</v>
+      </c>
+      <c r="K96" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K96" s="7">
+      <c r="L96" s="7">
         <v>15</v>
       </c>
-      <c r="L96" s="7">
+      <c r="M96" s="7">
         <v>122</v>
       </c>
-      <c r="M96" s="7">
+      <c r="N96" s="7">
         <v>1830</v>
       </c>
-      <c r="N96" s="7" t="s">
+      <c r="O96" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O96" s="7">
+      <c r="P96" s="7">
         <v>4197</v>
       </c>
-      <c r="P96" s="7">
+      <c r="Q96" s="7">
         <v>512034</v>
       </c>
-      <c r="Q96" s="7">
+      <c r="R96" s="7">
         <v>7680510</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A97" s="7" t="s">
         <v>254</v>
       </c>
@@ -12750,32 +13041,35 @@
       <c r="I97" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J97" s="7">
+        <v>9</v>
+      </c>
+      <c r="K97" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K97" s="7">
+      <c r="L97" s="7">
         <v>14</v>
       </c>
-      <c r="L97" s="7">
+      <c r="M97" s="7">
         <v>144</v>
       </c>
-      <c r="M97" s="7">
+      <c r="N97" s="7">
         <v>2016</v>
       </c>
-      <c r="N97" s="7" t="s">
+      <c r="O97" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O97" s="7">
+      <c r="P97" s="7">
         <v>2565</v>
       </c>
-      <c r="P97" s="7">
+      <c r="Q97" s="7">
         <v>369360</v>
       </c>
-      <c r="Q97" s="7">
+      <c r="R97" s="7">
         <v>5171040</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A98" s="7" t="s">
         <v>256</v>
       </c>
@@ -12803,32 +13097,35 @@
       <c r="I98" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J98" s="7">
+        <v>9</v>
+      </c>
+      <c r="K98" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K98" s="7">
+      <c r="L98" s="7">
         <v>11</v>
       </c>
-      <c r="L98" s="7">
+      <c r="M98" s="7">
         <v>149</v>
       </c>
-      <c r="M98" s="7">
+      <c r="N98" s="7">
         <v>1639</v>
       </c>
-      <c r="N98" s="7" t="s">
+      <c r="O98" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O98" s="7">
+      <c r="P98" s="7">
         <v>4301</v>
       </c>
-      <c r="P98" s="7">
+      <c r="Q98" s="7">
         <v>640849</v>
       </c>
-      <c r="Q98" s="7">
+      <c r="R98" s="7">
         <v>7049339</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A99" s="7" t="s">
         <v>258</v>
       </c>
@@ -12856,32 +13153,35 @@
       <c r="I99" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="J99" s="7">
+        <v>14</v>
+      </c>
+      <c r="K99" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K99" s="7">
+      <c r="L99" s="7">
         <v>23</v>
       </c>
-      <c r="L99" s="7">
+      <c r="M99" s="7">
         <v>96</v>
       </c>
-      <c r="M99" s="7">
+      <c r="N99" s="7">
         <v>2208</v>
       </c>
-      <c r="N99" s="7" t="s">
+      <c r="O99" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O99" s="7">
+      <c r="P99" s="7">
         <v>4933</v>
       </c>
-      <c r="P99" s="7">
+      <c r="Q99" s="7">
         <v>473568</v>
       </c>
-      <c r="Q99" s="7">
+      <c r="R99" s="7">
         <v>10892064</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A100" s="7" t="s">
         <v>260</v>
       </c>
@@ -12909,32 +13209,35 @@
       <c r="I100" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J100" s="7" t="s">
+      <c r="J100" s="7">
+        <v>6</v>
+      </c>
+      <c r="K100" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K100" s="7">
+      <c r="L100" s="7">
         <v>16</v>
       </c>
-      <c r="L100" s="7">
+      <c r="M100" s="7">
         <v>92</v>
       </c>
-      <c r="M100" s="7">
+      <c r="N100" s="7">
         <v>1472</v>
       </c>
-      <c r="N100" s="7" t="s">
+      <c r="O100" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O100" s="7">
+      <c r="P100" s="7">
         <v>3616</v>
       </c>
-      <c r="P100" s="7">
+      <c r="Q100" s="7">
         <v>332672</v>
       </c>
-      <c r="Q100" s="7">
+      <c r="R100" s="7">
         <v>5322752</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A101" s="7" t="s">
         <v>262</v>
       </c>
@@ -12962,32 +13265,35 @@
       <c r="I101" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J101" s="7" t="s">
+      <c r="J101" s="7">
+        <v>16</v>
+      </c>
+      <c r="K101" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K101" s="7">
+      <c r="L101" s="7">
         <v>17</v>
       </c>
-      <c r="L101" s="7">
+      <c r="M101" s="7">
         <v>86</v>
       </c>
-      <c r="M101" s="7">
+      <c r="N101" s="7">
         <v>1462</v>
       </c>
-      <c r="N101" s="7" t="s">
+      <c r="O101" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O101" s="7">
+      <c r="P101" s="7">
         <v>2147</v>
       </c>
-      <c r="P101" s="7">
+      <c r="Q101" s="7">
         <v>184642</v>
       </c>
-      <c r="Q101" s="7">
+      <c r="R101" s="7">
         <v>3138914</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A102" s="7" t="s">
         <v>264</v>
       </c>
@@ -13015,32 +13321,35 @@
       <c r="I102" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J102" s="7" t="s">
+      <c r="J102" s="7">
+        <v>4</v>
+      </c>
+      <c r="K102" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K102" s="7">
+      <c r="L102" s="7">
         <v>12</v>
       </c>
-      <c r="L102" s="7">
+      <c r="M102" s="7">
         <v>126</v>
       </c>
-      <c r="M102" s="7">
+      <c r="N102" s="7">
         <v>1512</v>
       </c>
-      <c r="N102" s="7" t="s">
+      <c r="O102" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O102" s="7">
+      <c r="P102" s="7">
         <v>3393</v>
       </c>
-      <c r="P102" s="7">
+      <c r="Q102" s="7">
         <v>427518</v>
       </c>
-      <c r="Q102" s="7">
+      <c r="R102" s="7">
         <v>5130216</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A103" s="7" t="s">
         <v>266</v>
       </c>
@@ -13068,32 +13377,35 @@
       <c r="I103" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J103" s="7" t="s">
+      <c r="J103" s="7">
+        <v>4</v>
+      </c>
+      <c r="K103" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K103" s="7">
+      <c r="L103" s="7">
         <v>14</v>
       </c>
-      <c r="L103" s="7">
+      <c r="M103" s="7">
         <v>149</v>
       </c>
-      <c r="M103" s="7">
+      <c r="N103" s="7">
         <v>2086</v>
       </c>
-      <c r="N103" s="7" t="s">
+      <c r="O103" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O103" s="7">
+      <c r="P103" s="7">
         <v>4722</v>
       </c>
-      <c r="P103" s="7">
+      <c r="Q103" s="7">
         <v>703578</v>
       </c>
-      <c r="Q103" s="7">
+      <c r="R103" s="7">
         <v>9850092</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A104" s="7" t="s">
         <v>268</v>
       </c>
@@ -13121,32 +13433,35 @@
       <c r="I104" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J104" s="7" t="s">
+      <c r="J104" s="7">
+        <v>17</v>
+      </c>
+      <c r="K104" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K104" s="7">
+      <c r="L104" s="7">
         <v>22</v>
       </c>
-      <c r="L104" s="7">
+      <c r="M104" s="7">
         <v>80</v>
       </c>
-      <c r="M104" s="7">
+      <c r="N104" s="7">
         <v>1760</v>
       </c>
-      <c r="N104" s="7" t="s">
+      <c r="O104" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O104" s="7">
+      <c r="P104" s="7">
         <v>3919</v>
       </c>
-      <c r="P104" s="7">
+      <c r="Q104" s="7">
         <v>313520</v>
       </c>
-      <c r="Q104" s="7">
+      <c r="R104" s="7">
         <v>6897440</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A105" s="7" t="s">
         <v>270</v>
       </c>
@@ -13174,32 +13489,35 @@
       <c r="I105" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J105" s="7" t="s">
+      <c r="J105" s="7">
+        <v>8</v>
+      </c>
+      <c r="K105" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K105" s="7">
+      <c r="L105" s="7">
         <v>16</v>
       </c>
-      <c r="L105" s="7">
+      <c r="M105" s="7">
         <v>103</v>
       </c>
-      <c r="M105" s="7">
+      <c r="N105" s="7">
         <v>1648</v>
       </c>
-      <c r="N105" s="7" t="s">
+      <c r="O105" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="O105" s="7">
+      <c r="P105" s="7">
         <v>2080</v>
       </c>
-      <c r="P105" s="7">
+      <c r="Q105" s="7">
         <v>214240</v>
       </c>
-      <c r="Q105" s="7">
+      <c r="R105" s="7">
         <v>3427840</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A106" s="7" t="s">
         <v>272</v>
       </c>
@@ -13227,28 +13545,31 @@
       <c r="I106" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="J106" s="7" t="s">
+      <c r="J106" s="7">
+        <v>10</v>
+      </c>
+      <c r="K106" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K106" s="7">
+      <c r="L106" s="7">
         <v>22</v>
       </c>
-      <c r="L106" s="7">
+      <c r="M106" s="7">
         <v>109</v>
       </c>
-      <c r="M106" s="7">
+      <c r="N106" s="7">
         <v>2398</v>
       </c>
-      <c r="N106" s="7" t="s">
+      <c r="O106" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="O106" s="7">
+      <c r="P106" s="7">
         <v>2450</v>
       </c>
-      <c r="P106" s="7">
+      <c r="Q106" s="7">
         <v>267050</v>
       </c>
-      <c r="Q106" s="7">
+      <c r="R106" s="7">
         <v>5875100</v>
       </c>
     </row>

--- a/Meta_1_finito_aggiornato .xlsx
+++ b/Meta_1_finito_aggiornato .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simoc\OneDrive\Desktop\Projeck_work_immobiliari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7E13B-8A9D-4444-9C6B-BBC0047A9771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6075E46-AF42-4482-A62A-DE6BA9E5E438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -1400,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
@@ -1413,7 +1413,9 @@
     <col min="4" max="4" width="10.1328125" customWidth="1"/>
     <col min="5" max="5" width="8.86328125" customWidth="1"/>
     <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="8.86328125" customWidth="1"/>
+    <col min="7" max="11" width="8.86328125" customWidth="1"/>
+    <col min="12" max="12" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.86328125" customWidth="1"/>
     <col min="15" max="15" width="20.53125" customWidth="1"/>
     <col min="16" max="25" width="8.86328125" customWidth="1"/>
   </cols>
@@ -7622,7 +7624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC67A079-19C2-4A59-86D6-8CF4CE5C5C4D}">
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -13583,7 +13585,7 @@
   <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Meta_1_finito_aggiornato .xlsx
+++ b/Meta_1_finito_aggiornato .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simoc\OneDrive\Desktop\Projeck_work_immobiliari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6075E46-AF42-4482-A62A-DE6BA9E5E438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC1EA02-D193-4833-AA3A-CFFB54DACBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,10 @@
     <sheet name="Tabella_Cantieri" sheetId="2" r:id="rId2"/>
     <sheet name="Fact" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fact!$A$1:$I$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Meta!$A$1:$P$106</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1400,9 +1404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1502,7 +1506,7 @@
         <v>49</v>
       </c>
       <c r="K2" s="3">
-        <v>3938</v>
+        <v>393800</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>20</v>
@@ -1552,7 +1556,7 @@
         <v>24</v>
       </c>
       <c r="K3" s="3">
-        <v>26424</v>
+        <v>2642400</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>28</v>
@@ -1602,7 +1606,7 @@
         <v>82</v>
       </c>
       <c r="K4" s="3">
-        <v>4662</v>
+        <v>466200</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>35</v>
@@ -1652,7 +1656,7 @@
         <v>55</v>
       </c>
       <c r="K5" s="3">
-        <v>5456</v>
+        <v>545600</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>40</v>
@@ -1702,7 +1706,7 @@
         <v>37</v>
       </c>
       <c r="K6" s="3">
-        <v>15674</v>
+        <v>1567400</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>45</v>
@@ -1752,7 +1756,7 @@
         <v>81</v>
       </c>
       <c r="K7" s="3">
-        <v>13575</v>
+        <v>1357500</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>20</v>
@@ -1802,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="3">
-        <v>3359</v>
+        <v>335900</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>28</v>
@@ -1852,7 +1856,7 @@
         <v>36</v>
       </c>
       <c r="K9" s="3">
-        <v>2176</v>
+        <v>217600</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>35</v>
@@ -1902,7 +1906,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="3">
-        <v>13618</v>
+        <v>1361800</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>40</v>
@@ -1952,7 +1956,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="3">
-        <v>7821</v>
+        <v>782100</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>45</v>
@@ -2002,7 +2006,7 @@
         <v>61</v>
       </c>
       <c r="K12" s="3">
-        <v>2041</v>
+        <v>204100</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>20</v>
@@ -2052,7 +2056,7 @@
         <v>51</v>
       </c>
       <c r="K13" s="3">
-        <v>4108</v>
+        <v>410800</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>28</v>
@@ -2102,7 +2106,7 @@
         <v>45</v>
       </c>
       <c r="K14" s="3">
-        <v>17550</v>
+        <v>1755000</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>35</v>
@@ -2152,7 +2156,7 @@
         <v>42</v>
       </c>
       <c r="K15" s="3">
-        <v>11875</v>
+        <v>1187500</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>40</v>
@@ -2202,7 +2206,7 @@
         <v>67</v>
       </c>
       <c r="K16" s="3">
-        <v>25510</v>
+        <v>2551000</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>45</v>
@@ -2252,7 +2256,7 @@
         <v>29</v>
       </c>
       <c r="K17" s="3">
-        <v>19926</v>
+        <v>1992600</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>20</v>
@@ -2302,7 +2306,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="3">
-        <v>18218</v>
+        <v>1821800</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>28</v>
@@ -2352,7 +2356,7 @@
         <v>59</v>
       </c>
       <c r="K19" s="3">
-        <v>18828</v>
+        <v>1882800</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>35</v>
@@ -2402,7 +2406,7 @@
         <v>13</v>
       </c>
       <c r="K20" s="3">
-        <v>11740</v>
+        <v>1174000</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>40</v>
@@ -2452,7 +2456,7 @@
         <v>53</v>
       </c>
       <c r="K21" s="3">
-        <v>19967</v>
+        <v>1996700</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>45</v>
@@ -2502,7 +2506,7 @@
         <v>49</v>
       </c>
       <c r="K22" s="3">
-        <v>13595</v>
+        <v>1359500</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>20</v>
@@ -2552,7 +2556,7 @@
         <v>74</v>
       </c>
       <c r="K23" s="3">
-        <v>12338</v>
+        <v>1233800</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>28</v>
@@ -2602,7 +2606,7 @@
         <v>67</v>
       </c>
       <c r="K24" s="3">
-        <v>7621</v>
+        <v>762100</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>35</v>
@@ -2652,7 +2656,7 @@
         <v>75</v>
       </c>
       <c r="K25" s="3">
-        <v>28926</v>
+        <v>2892600</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>40</v>
@@ -2702,7 +2706,7 @@
         <v>15</v>
       </c>
       <c r="K26" s="3">
-        <v>2537</v>
+        <v>253700</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>45</v>
@@ -2752,7 +2756,7 @@
         <v>61</v>
       </c>
       <c r="K27" s="3">
-        <v>11449</v>
+        <v>1144900</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>20</v>
@@ -2802,7 +2806,7 @@
         <v>79</v>
       </c>
       <c r="K28" s="3">
-        <v>17442</v>
+        <v>1744200</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>28</v>
@@ -2852,7 +2856,7 @@
         <v>28</v>
       </c>
       <c r="K29" s="3">
-        <v>7293</v>
+        <v>729300</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>35</v>
@@ -2902,7 +2906,7 @@
         <v>47</v>
       </c>
       <c r="K30" s="3">
-        <v>11518</v>
+        <v>1151800</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>40</v>
@@ -2952,7 +2956,7 @@
         <v>46</v>
       </c>
       <c r="K31" s="3">
-        <v>4233</v>
+        <v>423300</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>45</v>
@@ -3002,7 +3006,7 @@
         <v>55</v>
       </c>
       <c r="K32" s="3">
-        <v>27486</v>
+        <v>2748600</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>20</v>
@@ -3052,7 +3056,7 @@
         <v>77</v>
       </c>
       <c r="K33" s="3">
-        <v>9464</v>
+        <v>946400</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>28</v>
@@ -3102,7 +3106,7 @@
         <v>5</v>
       </c>
       <c r="K34" s="3">
-        <v>10119</v>
+        <v>1011900</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>35</v>
@@ -3152,7 +3156,7 @@
         <v>79</v>
       </c>
       <c r="K35" s="3">
-        <v>11948</v>
+        <v>1194800</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>40</v>
@@ -3202,7 +3206,7 @@
         <v>84</v>
       </c>
       <c r="K36" s="3">
-        <v>29420</v>
+        <v>2942000</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>45</v>
@@ -3252,7 +3256,7 @@
         <v>32</v>
       </c>
       <c r="K37" s="3">
-        <v>5124</v>
+        <v>512400</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>20</v>
@@ -3302,7 +3306,7 @@
         <v>69</v>
       </c>
       <c r="K38" s="3">
-        <v>9530</v>
+        <v>953000</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>28</v>
@@ -3352,7 +3356,7 @@
         <v>78</v>
       </c>
       <c r="K39" s="3">
-        <v>1585</v>
+        <v>158500</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>35</v>
@@ -3402,7 +3406,7 @@
         <v>40</v>
       </c>
       <c r="K40" s="3">
-        <v>29743</v>
+        <v>2974300</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>40</v>
@@ -3452,7 +3456,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="3">
-        <v>8040</v>
+        <v>804000</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>45</v>
@@ -3502,7 +3506,7 @@
         <v>53</v>
       </c>
       <c r="K42" s="3">
-        <v>3511</v>
+        <v>351100</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>20</v>
@@ -3552,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="K43" s="3">
-        <v>23464</v>
+        <v>2346400</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>28</v>
@@ -3602,7 +3606,7 @@
         <v>91</v>
       </c>
       <c r="K44" s="3">
-        <v>24244</v>
+        <v>2424400</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>35</v>
@@ -3652,7 +3656,7 @@
         <v>87</v>
       </c>
       <c r="K45" s="3">
-        <v>4072</v>
+        <v>407200</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>40</v>
@@ -3702,7 +3706,7 @@
         <v>7</v>
       </c>
       <c r="K46" s="3">
-        <v>7153</v>
+        <v>715300</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>45</v>
@@ -3752,7 +3756,7 @@
         <v>50</v>
       </c>
       <c r="K47" s="3">
-        <v>819</v>
+        <v>81900</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>20</v>
@@ -3802,7 +3806,7 @@
         <v>23</v>
       </c>
       <c r="K48" s="3">
-        <v>6158</v>
+        <v>615800</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>28</v>
@@ -3852,7 +3856,7 @@
         <v>53</v>
       </c>
       <c r="K49" s="3">
-        <v>23765</v>
+        <v>2376500</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>35</v>
@@ -3902,7 +3906,7 @@
         <v>15</v>
       </c>
       <c r="K50" s="3">
-        <v>15500</v>
+        <v>1550000</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>40</v>
@@ -3952,7 +3956,7 @@
         <v>31</v>
       </c>
       <c r="K51" s="3">
-        <v>20512</v>
+        <v>2051200</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>45</v>
@@ -4002,7 +4006,7 @@
         <v>14</v>
       </c>
       <c r="K52" s="3">
-        <v>2567</v>
+        <v>256700</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>20</v>
@@ -4052,7 +4056,7 @@
         <v>20</v>
       </c>
       <c r="K53" s="3">
-        <v>5785</v>
+        <v>578500</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>28</v>
@@ -4102,7 +4106,7 @@
         <v>33</v>
       </c>
       <c r="K54" s="3">
-        <v>2544</v>
+        <v>254400</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>35</v>
@@ -4152,7 +4156,7 @@
         <v>96</v>
       </c>
       <c r="K55" s="3">
-        <v>19872</v>
+        <v>1987200</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>40</v>
@@ -4202,7 +4206,7 @@
         <v>64</v>
       </c>
       <c r="K56" s="3">
-        <v>29509</v>
+        <v>2950900</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>45</v>
@@ -4252,7 +4256,7 @@
         <v>40</v>
       </c>
       <c r="K57" s="3">
-        <v>28466</v>
+        <v>2846600</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>20</v>
@@ -4302,7 +4306,7 @@
         <v>15</v>
       </c>
       <c r="K58" s="3">
-        <v>7522</v>
+        <v>752200</v>
       </c>
       <c r="L58" s="5" t="s">
         <v>28</v>
@@ -4352,7 +4356,7 @@
         <v>88</v>
       </c>
       <c r="K59" s="3">
-        <v>12809</v>
+        <v>1280900</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>35</v>
@@ -4402,7 +4406,7 @@
         <v>21</v>
       </c>
       <c r="K60" s="3">
-        <v>16905</v>
+        <v>1690500</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>40</v>
@@ -4452,7 +4456,7 @@
         <v>21</v>
       </c>
       <c r="K61" s="3">
-        <v>9563</v>
+        <v>956300</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>45</v>
@@ -4502,7 +4506,7 @@
         <v>99</v>
       </c>
       <c r="K62" s="3">
-        <v>2185</v>
+        <v>218500</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>20</v>
@@ -4552,7 +4556,7 @@
         <v>77</v>
       </c>
       <c r="K63" s="3">
-        <v>17143</v>
+        <v>1714300</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>28</v>
@@ -4602,7 +4606,7 @@
         <v>95</v>
       </c>
       <c r="K64" s="3">
-        <v>28873</v>
+        <v>2887300</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>35</v>
@@ -4652,7 +4656,7 @@
         <v>39</v>
       </c>
       <c r="K65" s="3">
-        <v>21917</v>
+        <v>2191700</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>40</v>
@@ -4702,7 +4706,7 @@
         <v>53</v>
       </c>
       <c r="K66" s="3">
-        <v>28076</v>
+        <v>2807600</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>45</v>
@@ -4752,7 +4756,7 @@
         <v>31</v>
       </c>
       <c r="K67" s="3">
-        <v>17613</v>
+        <v>1761300</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>20</v>
@@ -4802,7 +4806,7 @@
         <v>11</v>
       </c>
       <c r="K68" s="3">
-        <v>12919</v>
+        <v>1291900</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>28</v>
@@ -4852,7 +4856,7 @@
         <v>24</v>
       </c>
       <c r="K69" s="3">
-        <v>3403</v>
+        <v>340300</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>35</v>
@@ -4902,7 +4906,7 @@
         <v>61</v>
       </c>
       <c r="K70" s="3">
-        <v>9397</v>
+        <v>939700</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>40</v>
@@ -4952,7 +4956,7 @@
         <v>81</v>
       </c>
       <c r="K71" s="3">
-        <v>26648</v>
+        <v>2664800</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>45</v>
@@ -5002,7 +5006,7 @@
         <v>64</v>
       </c>
       <c r="K72" s="3">
-        <v>14459</v>
+        <v>1445900</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>20</v>
@@ -5052,7 +5056,7 @@
         <v>71</v>
       </c>
       <c r="K73" s="3">
-        <v>6008</v>
+        <v>600800</v>
       </c>
       <c r="L73" s="5" t="s">
         <v>28</v>
@@ -5102,7 +5106,7 @@
         <v>88</v>
       </c>
       <c r="K74" s="3">
-        <v>23848</v>
+        <v>2384800</v>
       </c>
       <c r="L74" s="5" t="s">
         <v>35</v>
@@ -5152,7 +5156,7 @@
         <v>59</v>
       </c>
       <c r="K75" s="3">
-        <v>4939</v>
+        <v>493900</v>
       </c>
       <c r="L75" s="5" t="s">
         <v>40</v>
@@ -5202,7 +5206,7 @@
         <v>60</v>
       </c>
       <c r="K76" s="3">
-        <v>11715</v>
+        <v>1171500</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>45</v>
@@ -5252,7 +5256,7 @@
         <v>88</v>
       </c>
       <c r="K77" s="3">
-        <v>2616</v>
+        <v>261600</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>20</v>
@@ -5302,7 +5306,7 @@
         <v>87</v>
       </c>
       <c r="K78" s="3">
-        <v>16207</v>
+        <v>1620700</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>28</v>
@@ -5352,7 +5356,7 @@
         <v>8</v>
       </c>
       <c r="K79" s="3">
-        <v>2702</v>
+        <v>270200</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>35</v>
@@ -5402,7 +5406,7 @@
         <v>80</v>
       </c>
       <c r="K80" s="3">
-        <v>7950</v>
+        <v>795000</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>40</v>
@@ -5452,7 +5456,7 @@
         <v>73</v>
       </c>
       <c r="K81" s="3">
-        <v>17724</v>
+        <v>1772400</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>45</v>
@@ -5502,7 +5506,7 @@
         <v>73</v>
       </c>
       <c r="K82" s="3">
-        <v>14888</v>
+        <v>1488800</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>20</v>
@@ -5552,7 +5556,7 @@
         <v>6</v>
       </c>
       <c r="K83" s="3">
-        <v>16946</v>
+        <v>1694600</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>28</v>
@@ -5602,7 +5606,7 @@
         <v>18</v>
       </c>
       <c r="K84" s="3">
-        <v>4625</v>
+        <v>462500</v>
       </c>
       <c r="L84" s="5" t="s">
         <v>35</v>
@@ -5652,7 +5656,7 @@
         <v>49</v>
       </c>
       <c r="K85" s="3">
-        <v>23871</v>
+        <v>2387100</v>
       </c>
       <c r="L85" s="5" t="s">
         <v>40</v>
@@ -5702,7 +5706,7 @@
         <v>82</v>
       </c>
       <c r="K86" s="3">
-        <v>6987</v>
+        <v>698700</v>
       </c>
       <c r="L86" s="5" t="s">
         <v>45</v>
@@ -5752,7 +5756,7 @@
         <v>40</v>
       </c>
       <c r="K87" s="3">
-        <v>7051</v>
+        <v>705100</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>20</v>
@@ -5802,7 +5806,7 @@
         <v>28</v>
       </c>
       <c r="K88" s="3">
-        <v>10761</v>
+        <v>1076100</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>28</v>
@@ -5852,7 +5856,7 @@
         <v>7</v>
       </c>
       <c r="K89" s="3">
-        <v>9731</v>
+        <v>973100</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>35</v>
@@ -5902,7 +5906,7 @@
         <v>100</v>
       </c>
       <c r="K90" s="3">
-        <v>26792</v>
+        <v>2679200</v>
       </c>
       <c r="L90" s="5" t="s">
         <v>40</v>
@@ -5952,7 +5956,7 @@
         <v>67</v>
       </c>
       <c r="K91" s="3">
-        <v>11130</v>
+        <v>1113000</v>
       </c>
       <c r="L91" s="5" t="s">
         <v>45</v>
@@ -6002,7 +6006,7 @@
         <v>16</v>
       </c>
       <c r="K92" s="3">
-        <v>1041</v>
+        <v>104100</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>20</v>
@@ -6052,7 +6056,7 @@
         <v>56</v>
       </c>
       <c r="K93" s="3">
-        <v>8298</v>
+        <v>829800</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>28</v>
@@ -6102,7 +6106,7 @@
         <v>61</v>
       </c>
       <c r="K94" s="3">
-        <v>27832</v>
+        <v>2783200</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>35</v>
@@ -6152,7 +6156,7 @@
         <v>89</v>
       </c>
       <c r="K95" s="3">
-        <v>22901</v>
+        <v>2290100</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>40</v>
@@ -6202,7 +6206,7 @@
         <v>52</v>
       </c>
       <c r="K96" s="3">
-        <v>15023</v>
+        <v>1502300</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>45</v>
@@ -6252,7 +6256,7 @@
         <v>78</v>
       </c>
       <c r="K97" s="3">
-        <v>14645</v>
+        <v>1464500</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>20</v>
@@ -6302,7 +6306,7 @@
         <v>52</v>
       </c>
       <c r="K98" s="3">
-        <v>2356</v>
+        <v>235600</v>
       </c>
       <c r="L98" s="5" t="s">
         <v>28</v>
@@ -6352,7 +6356,7 @@
         <v>93</v>
       </c>
       <c r="K99" s="3">
-        <v>6884</v>
+        <v>688400</v>
       </c>
       <c r="L99" s="5" t="s">
         <v>35</v>
@@ -6402,7 +6406,7 @@
         <v>28</v>
       </c>
       <c r="K100" s="3">
-        <v>5575</v>
+        <v>557500</v>
       </c>
       <c r="L100" s="5" t="s">
         <v>40</v>
@@ -6452,7 +6456,7 @@
         <v>68</v>
       </c>
       <c r="K101" s="3">
-        <v>4106</v>
+        <v>410600</v>
       </c>
       <c r="L101" s="5" t="s">
         <v>45</v>
@@ -6502,7 +6506,7 @@
         <v>30</v>
       </c>
       <c r="K102" s="3">
-        <v>540</v>
+        <v>54000</v>
       </c>
       <c r="L102" s="5" t="s">
         <v>20</v>
@@ -6552,7 +6556,7 @@
         <v>28</v>
       </c>
       <c r="K103" s="3">
-        <v>21854</v>
+        <v>2185400</v>
       </c>
       <c r="L103" s="5" t="s">
         <v>28</v>
@@ -6602,7 +6606,7 @@
         <v>64</v>
       </c>
       <c r="K104" s="3">
-        <v>14119</v>
+        <v>1411900</v>
       </c>
       <c r="L104" s="5" t="s">
         <v>35</v>
@@ -6652,7 +6656,7 @@
         <v>10</v>
       </c>
       <c r="K105" s="3">
-        <v>673</v>
+        <v>67300</v>
       </c>
       <c r="L105" s="5" t="s">
         <v>40</v>
@@ -6702,7 +6706,7 @@
         <v>77</v>
       </c>
       <c r="K106" s="3">
-        <v>26486</v>
+        <v>2648600</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>45</v>
@@ -7615,6 +7619,7 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
+  <autoFilter ref="A1:P106" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -13584,14 +13589,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0680BAC5-1ACD-41C1-9458-19291FEDF8FA}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16670,6 +16676,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I107" xr:uid="{0680BAC5-1ACD-41C1-9458-19291FEDF8FA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Meta_1_finito_aggiornato .xlsx
+++ b/Meta_1_finito_aggiornato .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simoc\OneDrive\Desktop\Projeck_work_immobiliari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC1EA02-D193-4833-AA3A-CFFB54DACBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DA6B4B-15A5-408E-B3F2-CE4119CDFF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1402,11 +1402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1000"/>
+  <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U6" sqref="U6"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1424,7 +1424,7 @@
     <col min="16" max="25" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>49</v>
       </c>
       <c r="K2" s="3">
-        <v>393800</v>
+        <v>3938</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>20</v>
@@ -1523,8 +1523,9 @@
       <c r="P2" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>24</v>
       </c>
       <c r="K3" s="3">
-        <v>2642400</v>
+        <v>26424</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>28</v>
@@ -1573,8 +1574,9 @@
       <c r="P3" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1606,7 +1608,7 @@
         <v>82</v>
       </c>
       <c r="K4" s="3">
-        <v>466200</v>
+        <v>4662</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>35</v>
@@ -1623,8 +1625,9 @@
       <c r="P4" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>55</v>
       </c>
       <c r="K5" s="3">
-        <v>545600</v>
+        <v>5456</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>40</v>
@@ -1673,8 +1676,9 @@
       <c r="P5" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>37</v>
       </c>
       <c r="K6" s="3">
-        <v>1567400</v>
+        <v>15674</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>45</v>
@@ -1723,8 +1727,9 @@
       <c r="P6" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1756,7 +1761,7 @@
         <v>81</v>
       </c>
       <c r="K7" s="3">
-        <v>1357500</v>
+        <v>13575</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>20</v>
@@ -1773,8 +1778,9 @@
       <c r="P7" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="3">
-        <v>335900</v>
+        <v>3359</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>28</v>
@@ -1823,8 +1829,9 @@
       <c r="P8" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1856,7 +1863,7 @@
         <v>36</v>
       </c>
       <c r="K9" s="3">
-        <v>217600</v>
+        <v>2176</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>35</v>
@@ -1873,8 +1880,9 @@
       <c r="P9" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1906,7 +1914,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="3">
-        <v>1361800</v>
+        <v>13618</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>40</v>
@@ -1923,8 +1931,9 @@
       <c r="P10" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1956,7 +1965,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="3">
-        <v>782100</v>
+        <v>7821</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>45</v>
@@ -1973,8 +1982,9 @@
       <c r="P11" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -2006,7 +2016,7 @@
         <v>61</v>
       </c>
       <c r="K12" s="3">
-        <v>204100</v>
+        <v>2041</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>20</v>
@@ -2023,8 +2033,9 @@
       <c r="P12" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -2056,7 +2067,7 @@
         <v>51</v>
       </c>
       <c r="K13" s="3">
-        <v>410800</v>
+        <v>4108</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>28</v>
@@ -2073,8 +2084,9 @@
       <c r="P13" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -2106,7 +2118,7 @@
         <v>45</v>
       </c>
       <c r="K14" s="3">
-        <v>1755000</v>
+        <v>17550</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>35</v>
@@ -2123,8 +2135,9 @@
       <c r="P14" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2156,7 +2169,7 @@
         <v>42</v>
       </c>
       <c r="K15" s="3">
-        <v>1187500</v>
+        <v>11875</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>40</v>
@@ -2173,8 +2186,9 @@
       <c r="P15" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -2206,7 +2220,7 @@
         <v>67</v>
       </c>
       <c r="K16" s="3">
-        <v>2551000</v>
+        <v>25510</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>45</v>
@@ -2223,8 +2237,9 @@
       <c r="P16" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -2256,7 +2271,7 @@
         <v>29</v>
       </c>
       <c r="K17" s="3">
-        <v>1992600</v>
+        <v>19926</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>20</v>
@@ -2273,8 +2288,9 @@
       <c r="P17" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -2306,7 +2322,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="3">
-        <v>1821800</v>
+        <v>18218</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>28</v>
@@ -2323,8 +2339,9 @@
       <c r="P18" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -2356,7 +2373,7 @@
         <v>59</v>
       </c>
       <c r="K19" s="3">
-        <v>1882800</v>
+        <v>18828</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>35</v>
@@ -2373,8 +2390,9 @@
       <c r="P19" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -2406,7 +2424,7 @@
         <v>13</v>
       </c>
       <c r="K20" s="3">
-        <v>1174000</v>
+        <v>11740</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>40</v>
@@ -2423,8 +2441,9 @@
       <c r="P20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -2456,7 +2475,7 @@
         <v>53</v>
       </c>
       <c r="K21" s="3">
-        <v>1996700</v>
+        <v>19967</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>45</v>
@@ -2473,8 +2492,9 @@
       <c r="P21" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2506,7 +2526,7 @@
         <v>49</v>
       </c>
       <c r="K22" s="3">
-        <v>1359500</v>
+        <v>13595</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>20</v>
@@ -2523,8 +2543,9 @@
       <c r="P22" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
@@ -2556,7 +2577,7 @@
         <v>74</v>
       </c>
       <c r="K23" s="3">
-        <v>1233800</v>
+        <v>12338</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>28</v>
@@ -2573,8 +2594,9 @@
       <c r="P23" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -2606,7 +2628,7 @@
         <v>67</v>
       </c>
       <c r="K24" s="3">
-        <v>762100</v>
+        <v>7621</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>35</v>
@@ -2623,8 +2645,9 @@
       <c r="P24" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -2656,7 +2679,7 @@
         <v>75</v>
       </c>
       <c r="K25" s="3">
-        <v>2892600</v>
+        <v>28926</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>40</v>
@@ -2673,8 +2696,9 @@
       <c r="P25" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
@@ -2706,7 +2730,7 @@
         <v>15</v>
       </c>
       <c r="K26" s="3">
-        <v>253700</v>
+        <v>2537</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>45</v>
@@ -2723,8 +2747,9 @@
       <c r="P26" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -2756,7 +2781,7 @@
         <v>61</v>
       </c>
       <c r="K27" s="3">
-        <v>1144900</v>
+        <v>11449</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>20</v>
@@ -2773,8 +2798,9 @@
       <c r="P27" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
@@ -2806,7 +2832,7 @@
         <v>79</v>
       </c>
       <c r="K28" s="3">
-        <v>1744200</v>
+        <v>17442</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>28</v>
@@ -2823,8 +2849,9 @@
       <c r="P28" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
@@ -2856,7 +2883,7 @@
         <v>28</v>
       </c>
       <c r="K29" s="3">
-        <v>729300</v>
+        <v>7293</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>35</v>
@@ -2873,8 +2900,9 @@
       <c r="P29" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
@@ -2906,7 +2934,7 @@
         <v>47</v>
       </c>
       <c r="K30" s="3">
-        <v>1151800</v>
+        <v>11518</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>40</v>
@@ -2923,8 +2951,9 @@
       <c r="P30" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -2956,7 +2985,7 @@
         <v>46</v>
       </c>
       <c r="K31" s="3">
-        <v>423300</v>
+        <v>4233</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>45</v>
@@ -2973,8 +3002,9 @@
       <c r="P31" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
@@ -3006,7 +3036,7 @@
         <v>55</v>
       </c>
       <c r="K32" s="3">
-        <v>2748600</v>
+        <v>27486</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>20</v>
@@ -3023,8 +3053,9 @@
       <c r="P32" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
@@ -3056,7 +3087,7 @@
         <v>77</v>
       </c>
       <c r="K33" s="3">
-        <v>946400</v>
+        <v>9464</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>28</v>
@@ -3073,8 +3104,9 @@
       <c r="P33" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
@@ -3106,7 +3138,7 @@
         <v>5</v>
       </c>
       <c r="K34" s="3">
-        <v>1011900</v>
+        <v>10119</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>35</v>
@@ -3123,8 +3155,9 @@
       <c r="P34" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
@@ -3156,7 +3189,7 @@
         <v>79</v>
       </c>
       <c r="K35" s="3">
-        <v>1194800</v>
+        <v>11948</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>40</v>
@@ -3173,8 +3206,9 @@
       <c r="P35" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -3206,7 +3240,7 @@
         <v>84</v>
       </c>
       <c r="K36" s="3">
-        <v>2942000</v>
+        <v>29420</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>45</v>
@@ -3223,8 +3257,9 @@
       <c r="P36" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
@@ -3256,7 +3291,7 @@
         <v>32</v>
       </c>
       <c r="K37" s="3">
-        <v>512400</v>
+        <v>5124</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>20</v>
@@ -3273,8 +3308,9 @@
       <c r="P37" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>16</v>
       </c>
@@ -3306,7 +3342,7 @@
         <v>69</v>
       </c>
       <c r="K38" s="3">
-        <v>953000</v>
+        <v>9530</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>28</v>
@@ -3323,8 +3359,9 @@
       <c r="P38" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -3356,7 +3393,7 @@
         <v>78</v>
       </c>
       <c r="K39" s="3">
-        <v>158500</v>
+        <v>1585</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>35</v>
@@ -3373,8 +3410,9 @@
       <c r="P39" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>16</v>
       </c>
@@ -3406,7 +3444,7 @@
         <v>40</v>
       </c>
       <c r="K40" s="3">
-        <v>2974300</v>
+        <v>29743</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>40</v>
@@ -3423,8 +3461,9 @@
       <c r="P40" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>16</v>
       </c>
@@ -3456,7 +3495,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="3">
-        <v>804000</v>
+        <v>8040</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>45</v>
@@ -3473,8 +3512,9 @@
       <c r="P41" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3506,7 +3546,7 @@
         <v>53</v>
       </c>
       <c r="K42" s="3">
-        <v>351100</v>
+        <v>3511</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>20</v>
@@ -3523,8 +3563,9 @@
       <c r="P42" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3556,7 +3597,7 @@
         <v>6</v>
       </c>
       <c r="K43" s="3">
-        <v>2346400</v>
+        <v>23464</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>28</v>
@@ -3573,8 +3614,9 @@
       <c r="P43" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3606,7 +3648,7 @@
         <v>91</v>
       </c>
       <c r="K44" s="3">
-        <v>2424400</v>
+        <v>24244</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>35</v>
@@ -3623,8 +3665,9 @@
       <c r="P44" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3656,7 +3699,7 @@
         <v>87</v>
       </c>
       <c r="K45" s="3">
-        <v>407200</v>
+        <v>4072</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>40</v>
@@ -3673,8 +3716,9 @@
       <c r="P45" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3706,7 +3750,7 @@
         <v>7</v>
       </c>
       <c r="K46" s="3">
-        <v>715300</v>
+        <v>7153</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>45</v>
@@ -3723,8 +3767,9 @@
       <c r="P46" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3756,7 +3801,7 @@
         <v>50</v>
       </c>
       <c r="K47" s="3">
-        <v>81900</v>
+        <v>819</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>20</v>
@@ -3773,8 +3818,9 @@
       <c r="P47" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3806,7 +3852,7 @@
         <v>23</v>
       </c>
       <c r="K48" s="3">
-        <v>615800</v>
+        <v>6158</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>28</v>
@@ -3823,8 +3869,9 @@
       <c r="P48" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3856,7 +3903,7 @@
         <v>53</v>
       </c>
       <c r="K49" s="3">
-        <v>2376500</v>
+        <v>23765</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>35</v>
@@ -3873,8 +3920,9 @@
       <c r="P49" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>16</v>
       </c>
@@ -3906,7 +3954,7 @@
         <v>15</v>
       </c>
       <c r="K50" s="3">
-        <v>1550000</v>
+        <v>15500</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>40</v>
@@ -3923,8 +3971,9 @@
       <c r="P50" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>16</v>
       </c>
@@ -3956,7 +4005,7 @@
         <v>31</v>
       </c>
       <c r="K51" s="3">
-        <v>2051200</v>
+        <v>20512</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>45</v>
@@ -3973,8 +4022,9 @@
       <c r="P51" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>16</v>
       </c>
@@ -4006,7 +4056,7 @@
         <v>14</v>
       </c>
       <c r="K52" s="3">
-        <v>256700</v>
+        <v>2567</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>20</v>
@@ -4023,8 +4073,9 @@
       <c r="P52" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>16</v>
       </c>
@@ -4056,7 +4107,7 @@
         <v>20</v>
       </c>
       <c r="K53" s="3">
-        <v>578500</v>
+        <v>5785</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>28</v>
@@ -4073,8 +4124,9 @@
       <c r="P53" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>16</v>
       </c>
@@ -4106,7 +4158,7 @@
         <v>33</v>
       </c>
       <c r="K54" s="3">
-        <v>254400</v>
+        <v>2544</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>35</v>
@@ -4123,8 +4175,9 @@
       <c r="P54" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>16</v>
       </c>
@@ -4156,7 +4209,7 @@
         <v>96</v>
       </c>
       <c r="K55" s="3">
-        <v>1987200</v>
+        <v>19872</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>40</v>
@@ -4173,8 +4226,9 @@
       <c r="P55" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>16</v>
       </c>
@@ -4206,7 +4260,7 @@
         <v>64</v>
       </c>
       <c r="K56" s="3">
-        <v>2950900</v>
+        <v>29509</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>45</v>
@@ -4223,8 +4277,9 @@
       <c r="P56" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4256,7 +4311,7 @@
         <v>40</v>
       </c>
       <c r="K57" s="3">
-        <v>2846600</v>
+        <v>28466</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>20</v>
@@ -4273,8 +4328,9 @@
       <c r="P57" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4306,7 +4362,7 @@
         <v>15</v>
       </c>
       <c r="K58" s="3">
-        <v>752200</v>
+        <v>7522</v>
       </c>
       <c r="L58" s="5" t="s">
         <v>28</v>
@@ -4323,8 +4379,9 @@
       <c r="P58" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4356,7 +4413,7 @@
         <v>88</v>
       </c>
       <c r="K59" s="3">
-        <v>1280900</v>
+        <v>12809</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>35</v>
@@ -4373,8 +4430,9 @@
       <c r="P59" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4406,7 +4464,7 @@
         <v>21</v>
       </c>
       <c r="K60" s="3">
-        <v>1690500</v>
+        <v>16905</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>40</v>
@@ -4423,8 +4481,9 @@
       <c r="P60" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R60" s="3"/>
+    </row>
+    <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>16</v>
       </c>
@@ -4456,7 +4515,7 @@
         <v>21</v>
       </c>
       <c r="K61" s="3">
-        <v>956300</v>
+        <v>9563</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>45</v>
@@ -4473,8 +4532,9 @@
       <c r="P61" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R61" s="3"/>
+    </row>
+    <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4506,7 +4566,7 @@
         <v>99</v>
       </c>
       <c r="K62" s="3">
-        <v>218500</v>
+        <v>2185</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>20</v>
@@ -4523,8 +4583,9 @@
       <c r="P62" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>16</v>
       </c>
@@ -4556,7 +4617,7 @@
         <v>77</v>
       </c>
       <c r="K63" s="3">
-        <v>1714300</v>
+        <v>17143</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>28</v>
@@ -4573,8 +4634,9 @@
       <c r="P63" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R63" s="3"/>
+    </row>
+    <row r="64" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>16</v>
       </c>
@@ -4606,7 +4668,7 @@
         <v>95</v>
       </c>
       <c r="K64" s="3">
-        <v>2887300</v>
+        <v>28873</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>35</v>
@@ -4623,8 +4685,9 @@
       <c r="P64" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R64" s="3"/>
+    </row>
+    <row r="65" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>16</v>
       </c>
@@ -4656,7 +4719,7 @@
         <v>39</v>
       </c>
       <c r="K65" s="3">
-        <v>2191700</v>
+        <v>21917</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>40</v>
@@ -4673,8 +4736,9 @@
       <c r="P65" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R65" s="3"/>
+    </row>
+    <row r="66" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4706,7 +4770,7 @@
         <v>53</v>
       </c>
       <c r="K66" s="3">
-        <v>2807600</v>
+        <v>28076</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>45</v>
@@ -4723,8 +4787,9 @@
       <c r="P66" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R66" s="3"/>
+    </row>
+    <row r="67" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>16</v>
       </c>
@@ -4756,7 +4821,7 @@
         <v>31</v>
       </c>
       <c r="K67" s="3">
-        <v>1761300</v>
+        <v>17613</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>20</v>
@@ -4773,8 +4838,9 @@
       <c r="P67" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>16</v>
       </c>
@@ -4806,7 +4872,7 @@
         <v>11</v>
       </c>
       <c r="K68" s="3">
-        <v>1291900</v>
+        <v>12919</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>28</v>
@@ -4823,8 +4889,9 @@
       <c r="P68" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R68" s="3"/>
+    </row>
+    <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>16</v>
       </c>
@@ -4856,7 +4923,7 @@
         <v>24</v>
       </c>
       <c r="K69" s="3">
-        <v>340300</v>
+        <v>3403</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>35</v>
@@ -4873,8 +4940,9 @@
       <c r="P69" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
@@ -4906,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="K70" s="3">
-        <v>939700</v>
+        <v>9397</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>40</v>
@@ -4923,8 +4991,9 @@
       <c r="P70" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R70" s="3"/>
+    </row>
+    <row r="71" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>16</v>
       </c>
@@ -4956,7 +5025,7 @@
         <v>81</v>
       </c>
       <c r="K71" s="3">
-        <v>2664800</v>
+        <v>26648</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>45</v>
@@ -4973,8 +5042,9 @@
       <c r="P71" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R71" s="3"/>
+    </row>
+    <row r="72" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5006,7 +5076,7 @@
         <v>64</v>
       </c>
       <c r="K72" s="3">
-        <v>1445900</v>
+        <v>14459</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>20</v>
@@ -5023,8 +5093,9 @@
       <c r="P72" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R72" s="3"/>
+    </row>
+    <row r="73" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>16</v>
       </c>
@@ -5056,7 +5127,7 @@
         <v>71</v>
       </c>
       <c r="K73" s="3">
-        <v>600800</v>
+        <v>6008</v>
       </c>
       <c r="L73" s="5" t="s">
         <v>28</v>
@@ -5073,8 +5144,9 @@
       <c r="P73" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R73" s="3"/>
+    </row>
+    <row r="74" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>16</v>
       </c>
@@ -5106,7 +5178,7 @@
         <v>88</v>
       </c>
       <c r="K74" s="3">
-        <v>2384800</v>
+        <v>23848</v>
       </c>
       <c r="L74" s="5" t="s">
         <v>35</v>
@@ -5123,8 +5195,9 @@
       <c r="P74" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R74" s="3"/>
+    </row>
+    <row r="75" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>16</v>
       </c>
@@ -5156,7 +5229,7 @@
         <v>59</v>
       </c>
       <c r="K75" s="3">
-        <v>493900</v>
+        <v>4939</v>
       </c>
       <c r="L75" s="5" t="s">
         <v>40</v>
@@ -5173,8 +5246,9 @@
       <c r="P75" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R75" s="3"/>
+    </row>
+    <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5206,7 +5280,7 @@
         <v>60</v>
       </c>
       <c r="K76" s="3">
-        <v>1171500</v>
+        <v>11715</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>45</v>
@@ -5223,8 +5297,9 @@
       <c r="P76" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R76" s="3"/>
+    </row>
+    <row r="77" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>16</v>
       </c>
@@ -5256,7 +5331,7 @@
         <v>88</v>
       </c>
       <c r="K77" s="3">
-        <v>261600</v>
+        <v>2616</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>20</v>
@@ -5273,8 +5348,9 @@
       <c r="P77" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R77" s="3"/>
+    </row>
+    <row r="78" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>16</v>
       </c>
@@ -5306,7 +5382,7 @@
         <v>87</v>
       </c>
       <c r="K78" s="3">
-        <v>1620700</v>
+        <v>16207</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>28</v>
@@ -5323,8 +5399,9 @@
       <c r="P78" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R78" s="3"/>
+    </row>
+    <row r="79" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>16</v>
       </c>
@@ -5356,7 +5433,7 @@
         <v>8</v>
       </c>
       <c r="K79" s="3">
-        <v>270200</v>
+        <v>2702</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>35</v>
@@ -5373,8 +5450,9 @@
       <c r="P79" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R79" s="3"/>
+    </row>
+    <row r="80" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>16</v>
       </c>
@@ -5406,7 +5484,7 @@
         <v>80</v>
       </c>
       <c r="K80" s="3">
-        <v>795000</v>
+        <v>7950</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>40</v>
@@ -5423,8 +5501,9 @@
       <c r="P80" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R80" s="3"/>
+    </row>
+    <row r="81" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>16</v>
       </c>
@@ -5456,7 +5535,7 @@
         <v>73</v>
       </c>
       <c r="K81" s="3">
-        <v>1772400</v>
+        <v>17724</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>45</v>
@@ -5473,8 +5552,9 @@
       <c r="P81" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R81" s="3"/>
+    </row>
+    <row r="82" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>16</v>
       </c>
@@ -5506,7 +5586,7 @@
         <v>73</v>
       </c>
       <c r="K82" s="3">
-        <v>1488800</v>
+        <v>14888</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>20</v>
@@ -5523,8 +5603,9 @@
       <c r="P82" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>16</v>
       </c>
@@ -5556,7 +5637,7 @@
         <v>6</v>
       </c>
       <c r="K83" s="3">
-        <v>1694600</v>
+        <v>16946</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>28</v>
@@ -5573,8 +5654,9 @@
       <c r="P83" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R83" s="3"/>
+    </row>
+    <row r="84" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>16</v>
       </c>
@@ -5606,7 +5688,7 @@
         <v>18</v>
       </c>
       <c r="K84" s="3">
-        <v>462500</v>
+        <v>4625</v>
       </c>
       <c r="L84" s="5" t="s">
         <v>35</v>
@@ -5623,8 +5705,9 @@
       <c r="P84" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R84" s="3"/>
+    </row>
+    <row r="85" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>16</v>
       </c>
@@ -5656,7 +5739,7 @@
         <v>49</v>
       </c>
       <c r="K85" s="3">
-        <v>2387100</v>
+        <v>23871</v>
       </c>
       <c r="L85" s="5" t="s">
         <v>40</v>
@@ -5673,8 +5756,9 @@
       <c r="P85" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R85" s="3"/>
+    </row>
+    <row r="86" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>16</v>
       </c>
@@ -5706,7 +5790,7 @@
         <v>82</v>
       </c>
       <c r="K86" s="3">
-        <v>698700</v>
+        <v>6987</v>
       </c>
       <c r="L86" s="5" t="s">
         <v>45</v>
@@ -5723,8 +5807,9 @@
       <c r="P86" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R86" s="3"/>
+    </row>
+    <row r="87" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>16</v>
       </c>
@@ -5756,7 +5841,7 @@
         <v>40</v>
       </c>
       <c r="K87" s="3">
-        <v>705100</v>
+        <v>7051</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>20</v>
@@ -5773,8 +5858,9 @@
       <c r="P87" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R87" s="3"/>
+    </row>
+    <row r="88" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>16</v>
       </c>
@@ -5806,7 +5892,7 @@
         <v>28</v>
       </c>
       <c r="K88" s="3">
-        <v>1076100</v>
+        <v>10761</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>28</v>
@@ -5823,8 +5909,9 @@
       <c r="P88" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R88" s="3"/>
+    </row>
+    <row r="89" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>16</v>
       </c>
@@ -5856,7 +5943,7 @@
         <v>7</v>
       </c>
       <c r="K89" s="3">
-        <v>973100</v>
+        <v>9731</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>35</v>
@@ -5873,8 +5960,9 @@
       <c r="P89" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R89" s="3"/>
+    </row>
+    <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>16</v>
       </c>
@@ -5906,7 +5994,7 @@
         <v>100</v>
       </c>
       <c r="K90" s="3">
-        <v>2679200</v>
+        <v>26792</v>
       </c>
       <c r="L90" s="5" t="s">
         <v>40</v>
@@ -5923,8 +6011,9 @@
       <c r="P90" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>16</v>
       </c>
@@ -5956,7 +6045,7 @@
         <v>67</v>
       </c>
       <c r="K91" s="3">
-        <v>1113000</v>
+        <v>11130</v>
       </c>
       <c r="L91" s="5" t="s">
         <v>45</v>
@@ -5973,8 +6062,9 @@
       <c r="P91" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R91" s="3"/>
+    </row>
+    <row r="92" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>16</v>
       </c>
@@ -6006,7 +6096,7 @@
         <v>16</v>
       </c>
       <c r="K92" s="3">
-        <v>104100</v>
+        <v>1041</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>20</v>
@@ -6023,8 +6113,9 @@
       <c r="P92" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R92" s="3"/>
+    </row>
+    <row r="93" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>16</v>
       </c>
@@ -6056,7 +6147,7 @@
         <v>56</v>
       </c>
       <c r="K93" s="3">
-        <v>829800</v>
+        <v>8298</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>28</v>
@@ -6073,8 +6164,9 @@
       <c r="P93" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R93" s="3"/>
+    </row>
+    <row r="94" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>16</v>
       </c>
@@ -6106,7 +6198,7 @@
         <v>61</v>
       </c>
       <c r="K94" s="3">
-        <v>2783200</v>
+        <v>27832</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>35</v>
@@ -6123,8 +6215,9 @@
       <c r="P94" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R94" s="3"/>
+    </row>
+    <row r="95" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>16</v>
       </c>
@@ -6156,7 +6249,7 @@
         <v>89</v>
       </c>
       <c r="K95" s="3">
-        <v>2290100</v>
+        <v>22901</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>40</v>
@@ -6173,8 +6266,9 @@
       <c r="P95" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>16</v>
       </c>
@@ -6206,7 +6300,7 @@
         <v>52</v>
       </c>
       <c r="K96" s="3">
-        <v>1502300</v>
+        <v>15023</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>45</v>
@@ -6223,8 +6317,9 @@
       <c r="P96" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R96" s="3"/>
+    </row>
+    <row r="97" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>16</v>
       </c>
@@ -6256,7 +6351,7 @@
         <v>78</v>
       </c>
       <c r="K97" s="3">
-        <v>1464500</v>
+        <v>14645</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>20</v>
@@ -6273,8 +6368,9 @@
       <c r="P97" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R97" s="3"/>
+    </row>
+    <row r="98" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>16</v>
       </c>
@@ -6306,7 +6402,7 @@
         <v>52</v>
       </c>
       <c r="K98" s="3">
-        <v>235600</v>
+        <v>2356</v>
       </c>
       <c r="L98" s="5" t="s">
         <v>28</v>
@@ -6323,8 +6419,9 @@
       <c r="P98" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R98" s="3"/>
+    </row>
+    <row r="99" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>16</v>
       </c>
@@ -6356,7 +6453,7 @@
         <v>93</v>
       </c>
       <c r="K99" s="3">
-        <v>688400</v>
+        <v>6884</v>
       </c>
       <c r="L99" s="5" t="s">
         <v>35</v>
@@ -6373,8 +6470,9 @@
       <c r="P99" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R99" s="3"/>
+    </row>
+    <row r="100" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>16</v>
       </c>
@@ -6406,7 +6504,7 @@
         <v>28</v>
       </c>
       <c r="K100" s="3">
-        <v>557500</v>
+        <v>5575</v>
       </c>
       <c r="L100" s="5" t="s">
         <v>40</v>
@@ -6423,8 +6521,9 @@
       <c r="P100" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R100" s="3"/>
+    </row>
+    <row r="101" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>16</v>
       </c>
@@ -6456,7 +6555,7 @@
         <v>68</v>
       </c>
       <c r="K101" s="3">
-        <v>410600</v>
+        <v>4106</v>
       </c>
       <c r="L101" s="5" t="s">
         <v>45</v>
@@ -6473,8 +6572,9 @@
       <c r="P101" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R101" s="3"/>
+    </row>
+    <row r="102" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>16</v>
       </c>
@@ -6506,7 +6606,7 @@
         <v>30</v>
       </c>
       <c r="K102" s="3">
-        <v>54000</v>
+        <v>540</v>
       </c>
       <c r="L102" s="5" t="s">
         <v>20</v>
@@ -6523,8 +6623,9 @@
       <c r="P102" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R102" s="3"/>
+    </row>
+    <row r="103" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>16</v>
       </c>
@@ -6556,7 +6657,7 @@
         <v>28</v>
       </c>
       <c r="K103" s="3">
-        <v>2185400</v>
+        <v>21854</v>
       </c>
       <c r="L103" s="5" t="s">
         <v>28</v>
@@ -6573,8 +6674,9 @@
       <c r="P103" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R103" s="3"/>
+    </row>
+    <row r="104" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>16</v>
       </c>
@@ -6606,7 +6708,7 @@
         <v>64</v>
       </c>
       <c r="K104" s="3">
-        <v>1411900</v>
+        <v>14119</v>
       </c>
       <c r="L104" s="5" t="s">
         <v>35</v>
@@ -6623,8 +6725,9 @@
       <c r="P104" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R104" s="3"/>
+    </row>
+    <row r="105" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>16</v>
       </c>
@@ -6656,7 +6759,7 @@
         <v>10</v>
       </c>
       <c r="K105" s="3">
-        <v>67300</v>
+        <v>673</v>
       </c>
       <c r="L105" s="5" t="s">
         <v>40</v>
@@ -6673,8 +6776,9 @@
       <c r="P105" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R105" s="3"/>
+    </row>
+    <row r="106" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>16</v>
       </c>
@@ -6706,7 +6810,7 @@
         <v>77</v>
       </c>
       <c r="K106" s="3">
-        <v>2648600</v>
+        <v>26486</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>45</v>
@@ -6723,13 +6827,14 @@
       <c r="P106" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="R106" s="3"/>
+    </row>
+    <row r="107" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
